--- a/data/hotels_by_city/Dallas/Dallas_shard_680.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_680.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="751">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2205 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r582877742-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>30183</t>
+  </si>
+  <si>
+    <t>109524</t>
+  </si>
+  <si>
+    <t>582877742</t>
+  </si>
+  <si>
+    <t>05/26/2018</t>
+  </si>
+  <si>
+    <t>Mother’s Day trip 2018</t>
+  </si>
+  <si>
+    <t>Stayed her for 3 nites, very centrally located to all events. Check in was quick &amp; ez &amp; nice staff.room had a nice king bed along with refrigerator &amp; microwave with coffee maker , room was small but conferble also have free yfi ,about 35” tv. Bath area really small!!! Breakfast was ok!!! Ther is a outdoor pool( didn’t use it)  will stay hear again !!!!!</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r578480864-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>578480864</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t>Nice spot to visit</t>
+  </si>
+  <si>
+    <t>We stayed at the Sleep Inn Six Flags while up in Arlington for a baseball game.  There are some good things with this hotel. 1. location!  This hotel is right next to Six Flags amusement park and is within walking distance to Globe Life Park and ATT Stadium.  I found out after returning that they offer a ride to the Ranger games, so ask about that if you go.2. Free breakfast!  The breakfast is good and features a waffle machine and an egg and meat offering in addition to continental breakfast items.3. Updated rooms! The hotel was renovated a few years ago and it was a big improvement.Room for improvement: we did find a few maintenance issues with our room, but it was clean and comfortable so the important parts were covered.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at the Sleep Inn Six Flags while up in Arlington for a baseball game.  There are some good things with this hotel. 1. location!  This hotel is right next to Six Flags amusement park and is within walking distance to Globe Life Park and ATT Stadium.  I found out after returning that they offer a ride to the Ranger games, so ask about that if you go.2. Free breakfast!  The breakfast is good and features a waffle machine and an egg and meat offering in addition to continental breakfast items.3. Updated rooms! The hotel was renovated a few years ago and it was a big improvement.Room for improvement: we did find a few maintenance issues with our room, but it was clean and comfortable so the important parts were covered.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r576586036-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>576586036</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>Modest</t>
+  </si>
+  <si>
+    <t>The rooms are small and they only provide two bath towels for a room with a (small) queen size bed. This is constant with the modest room rate. You can walk to the baseball park or Cowboys Stadium (about 1.5 miles). The staff is helpful. The breakfast is decent - except the coffee is TERRIBLE.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r560308929-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>560308929</t>
+  </si>
+  <si>
+    <t>02/13/2018</t>
+  </si>
+  <si>
+    <t>Great Experience!</t>
+  </si>
+  <si>
+    <t>Stayed here for a quick weekend in February with family.  Check in was quick and easy and was given a snack which was a nice gesture. Staff was very friendly and helpful. Room was nice and clean. The day before we left, the hot water ran out and we were immediately given a new room. Breakfast was great as well. Very nice stay altogether. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Jaimin P, General Manager at Sleep Inn Arlington Near Six Flags, responded to this reviewResponded February 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here for a quick weekend in February with family.  Check in was quick and easy and was given a snack which was a nice gesture. Staff was very friendly and helpful. Room was nice and clean. The day before we left, the hot water ran out and we were immediately given a new room. Breakfast was great as well. Very nice stay altogether. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r549379531-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>549379531</t>
+  </si>
+  <si>
+    <t>12/26/2017</t>
+  </si>
+  <si>
+    <t>Horrible Customer Service</t>
+  </si>
+  <si>
+    <t>I work at a Choice property. I was paying for this room for my sister. When I called to have it charged to my card, a very rude agent, Antonio said that I would have to be present at checkin and they don’t accept CC auth forms. This means that no one can pay for anyone else’s room unless they are present with the card. I never heard of such a thing. I asked members of management at my property and they have never heard of such a thing. I canceled my reservation and made it at another property. They must have so much business that it doesn’t matter if they turn away many guests that are not paying for their own rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Jaimin P, General Manager at Sleep Inn Arlington Near Six Flags, responded to this reviewResponded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2018</t>
+  </si>
+  <si>
+    <t>I work at a Choice property. I was paying for this room for my sister. When I called to have it charged to my card, a very rude agent, Antonio said that I would have to be present at checkin and they don’t accept CC auth forms. This means that no one can pay for anyone else’s room unless they are present with the card. I never heard of such a thing. I asked members of management at my property and they have never heard of such a thing. I canceled my reservation and made it at another property. They must have so much business that it doesn’t matter if they turn away many guests that are not paying for their own rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r547937449-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>547937449</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t>It was ok with all the faults of this hotel!!!</t>
+  </si>
+  <si>
+    <t>Well I decided to sleep here on the last night on business - since my stay at another hotel down the road was overbooked/full. I figured it's one night....first off the pics online look great but the rooms are dated however the TV is updated and the staff was very friendly and nice and they did noticed that I was a rewards member which I appreciated!will I stay here again...probably especially when the price is $59.00 bucks a night, breakfast was good and staff was very nice.see picsMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Jaimin P, Manager at Sleep Inn Arlington Near Six Flags, responded to this reviewResponded December 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 26, 2017</t>
+  </si>
+  <si>
+    <t>Well I decided to sleep here on the last night on business - since my stay at another hotel down the road was overbooked/full. I figured it's one night....first off the pics online look great but the rooms are dated however the TV is updated and the staff was very friendly and nice and they did noticed that I was a rewards member which I appreciated!will I stay here again...probably especially when the price is $59.00 bucks a night, breakfast was good and staff was very nice.see picsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r538751235-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>538751235</t>
+  </si>
+  <si>
+    <t>11/06/2017</t>
+  </si>
+  <si>
+    <t>Good choice for being the haunted house at Six Flags</t>
+  </si>
+  <si>
+    <t>I stayed at this property twice in one week (3 days total); guess I was a gluten for punishment!  The first stay should have been my wakeup call.  The bathroom pocket door was difficult to close, in the first room the shower had low water pressure so the shower head was more like a squirt than a spray (the second room was fine so the evident mineral buildup on the outlets were the likely problem), in both rooms the toilet seat needed to be tightened down as the seat slid sideways, the bath towels were more like an over-sized kitchen towel, and the towel bar on one shower door was broken off with a hole in the door.  The wifi was extremely slow in the evening.  The a/c was noisy and inefficient.  The second room's carpet was dirty and left a white powdery coating on my dark socks.  The breakfast selection was "common fare" for U.S. hotels; the 3 tables I used during my stay ALL rocked from being unleveled (I advised the staff after seeing a young child almost end up with a cup of coffee being spilled).MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Jaimin P, General Manager at Sleep Inn Arlington Near Six Flags, responded to this reviewResponded November 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this property twice in one week (3 days total); guess I was a gluten for punishment!  The first stay should have been my wakeup call.  The bathroom pocket door was difficult to close, in the first room the shower had low water pressure so the shower head was more like a squirt than a spray (the second room was fine so the evident mineral buildup on the outlets were the likely problem), in both rooms the toilet seat needed to be tightened down as the seat slid sideways, the bath towels were more like an over-sized kitchen towel, and the towel bar on one shower door was broken off with a hole in the door.  The wifi was extremely slow in the evening.  The a/c was noisy and inefficient.  The second room's carpet was dirty and left a white powdery coating on my dark socks.  The breakfast selection was "common fare" for U.S. hotels; the 3 tables I used during my stay ALL rocked from being unleveled (I advised the staff after seeing a young child almost end up with a cup of coffee being spilled).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r529278718-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>529278718</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t>Nice hotel, rooms are small but were clean. The bed was very comfortable and the staff was very nice. The location is easy to find and we will definitely stay there again during our next visit. The price was very good as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Jaimin P, General Manager at Sleep Inn Arlington Near Six Flags, responded to this reviewResponded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Nice hotel, rooms are small but were clean. The bed was very comfortable and the staff was very nice. The location is easy to find and we will definitely stay there again during our next visit. The price was very good as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r528155834-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>528155834</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>Economical and Convenient</t>
+  </si>
+  <si>
+    <t>We picked the hotel for its proximity to the Texas Rangers stadium. It's right across from Six Flags as a matter of fact (which was not on our itinerary). There was a free trolley to the game that night and every night for baseball and football btw. Super easy to use. My only complaint about the hotel is that the rooms are somewhat small, and there were only two of us. But considering the price, the location, the free breakfast, the cleanliness, the friendliness and all it was a great place to stay. Plus it has a pool, and you can walk to at least 2 restaurants - a sports bar with great apps and Denny's.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jaimin P, General Manager at Sleep Inn Arlington Near Six Flags, responded to this reviewResponded November 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2017</t>
+  </si>
+  <si>
+    <t>We picked the hotel for its proximity to the Texas Rangers stadium. It's right across from Six Flags as a matter of fact (which was not on our itinerary). There was a free trolley to the game that night and every night for baseball and football btw. Super easy to use. My only complaint about the hotel is that the rooms are somewhat small, and there were only two of us. But considering the price, the location, the free breakfast, the cleanliness, the friendliness and all it was a great place to stay. Plus it has a pool, and you can walk to at least 2 restaurants - a sports bar with great apps and Denny's.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r510038944-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>510038944</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Horrible Experience, Poor ac, roaches, bad service</t>
+  </si>
+  <si>
+    <t>General Manager does not care about condition of hotel. Terrible ac, terrible bathroom, roaches galore, less than mediocre breakfast. Only person at the hotel who was pleasant was Mrs. Cheryl. Had to get my own towels.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Jaimin P, General Manager at Sleep Inn Arlington Near Six Flags, responded to this reviewResponded September 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2017</t>
+  </si>
+  <si>
+    <t>General Manager does not care about condition of hotel. Terrible ac, terrible bathroom, roaches galore, less than mediocre breakfast. Only person at the hotel who was pleasant was Mrs. Cheryl. Had to get my own towels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r501561558-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>501561558</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t>You can't ho wrong with sleep inn</t>
+  </si>
+  <si>
+    <t>Wonderful nice and friendly staff Cheryl went out her way to make us feel like were at home breakfast was good and fresh hotel was clean I thought it was going to be loud because of six flags it was so quiet and we will definitely be backMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Wonderful nice and friendly staff Cheryl went out her way to make us feel like were at home breakfast was good and fresh hotel was clean I thought it was going to be loud because of six flags it was so quiet and we will definitely be backMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r500087802-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>500087802</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>We'll stay there again!</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and helpful.  The room was clean, small, but since we only were staying one night we were ok with that.  Next time we will try to get a king bed and hopefully the room will be bigger.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and helpful.  The room was clean, small, but since we only were staying one night we were ok with that.  Next time we will try to get a king bed and hopefully the room will be bigger.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r486086955-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>486086955</t>
+  </si>
+  <si>
+    <t>05/21/2017</t>
+  </si>
+  <si>
+    <t>Well worth a stay</t>
+  </si>
+  <si>
+    <t>As they say location location location, and it doesn't get any better than here, next to a cool sports bar, a short walk from the stadiums and in the middle of the fun park at six flags.. Breakfast nothing to write home about, window dressing of a swimming pool too, but all in all worth a visit...MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>As they say location location location, and it doesn't get any better than here, next to a cool sports bar, a short walk from the stadiums and in the middle of the fun park at six flags.. Breakfast nothing to write home about, window dressing of a swimming pool too, but all in all worth a visit...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r476988067-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>476988067</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>Not what I expected</t>
+  </si>
+  <si>
+    <t>Was tired from traveling for job all week, and decided to take a trip to my hometown to see family for weekend. Looked for a nice place on internet to relax, rest, and take shower. Upon check-in, I had to wait on hostess to check me in because she was engaged in a very deep conversation with a friend. After about 5 minutes, I kind of cleared my throat in disgust to get her attention so I could get to my room key to get ready for bed (It was somewhere between 1030pm-1100pm ;very tired) It was very hard to sleep due to the walls being paper thin. I really was expecting more insulation in facility since we were across from six flags and children stay here with parents. But I literally could her people's conversations in their room from up to four doors down. Day staff was very friendly and understood my frustration, and apologized. If all of their facility walls are paper thin like this location, I will not stay at another sleep inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Was tired from traveling for job all week, and decided to take a trip to my hometown to see family for weekend. Looked for a nice place on internet to relax, rest, and take shower. Upon check-in, I had to wait on hostess to check me in because she was engaged in a very deep conversation with a friend. After about 5 minutes, I kind of cleared my throat in disgust to get her attention so I could get to my room key to get ready for bed (It was somewhere between 1030pm-1100pm ;very tired) It was very hard to sleep due to the walls being paper thin. I really was expecting more insulation in facility since we were across from six flags and children stay here with parents. But I literally could her people's conversations in their room from up to four doors down. Day staff was very friendly and understood my frustration, and apologized. If all of their facility walls are paper thin like this location, I will not stay at another sleep inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r469667910-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>469667910</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>wonderful stay at sleepinn</t>
+  </si>
+  <si>
+    <t>great overall experience, great staff, and great breakfast... Customer service is wonderful here from all departments. From the check in process to the checking out process everything went smooth. I'll be returning!!!!</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r447950403-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>447950403</t>
+  </si>
+  <si>
+    <t>12/30/2016</t>
+  </si>
+  <si>
+    <t>Also located very close to the International Bowling Museum and Hall of Fame</t>
+  </si>
+  <si>
+    <t>Not only is this property located right by Six  Flags, it is also very close to The International Bowling Museum and Hall of Fame.  Also, their location is just a short drive away from the famous AT&amp;T Stadium (Cowboy Stadium) and the Ranger (Baseball) Field!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Not only is this property located right by Six  Flags, it is also very close to The International Bowling Museum and Hall of Fame.  Also, their location is just a short drive away from the famous AT&amp;T Stadium (Cowboy Stadium) and the Ranger (Baseball) Field!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r447886535-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>447886535</t>
+  </si>
+  <si>
+    <t>Okay</t>
+  </si>
+  <si>
+    <t>1st visit to area. Great staff, very friendly. My only complaints are with hotel itself. It is an older hotel,  really needs updated. I did have 2 problems with room, didn't bring it up, what can they do besides switch rooms. The knob to microwave came off, and towel rack fell off. Beds are okay. Loved that it was in great location. We walked across street to 6 flags. We did not use arlington trolley that was referenced, was told it charged $20 a person, so we took another car service. MoreShow less</t>
+  </si>
+  <si>
+    <t>1st visit to area. Great staff, very friendly. My only complaints are with hotel itself. It is an older hotel,  really needs updated. I did have 2 problems with room, didn't bring it up, what can they do besides switch rooms. The knob to microwave came off, and towel rack fell off. Beds are okay. Loved that it was in great location. We walked across street to 6 flags. We did not use arlington trolley that was referenced, was told it charged $20 a person, so we took another car service. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r445263950-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>445263950</t>
+  </si>
+  <si>
+    <t>12/19/2016</t>
+  </si>
+  <si>
+    <t>trip to see high school football state championship game at AT&amp;T stadium.</t>
+  </si>
+  <si>
+    <t>We were lucky to get a room here,  we did not have a reservation. With all the championship games being played at AT&amp;T stadium It was really crowded everywhere.But, the room was #310, it had a broken toilet seat, the light in the shower did not work, the desk chair was broken, and at 10pm on 12/16/2016, there was no hot water for a shower.I reported all this to the desk clerk as we were checking out, 12/17/2016.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r435690849-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>435690849</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>"Great Location of Hotel"</t>
+  </si>
+  <si>
+    <t>Directly across the street from Six Flags, about 1.5 miles from Texas Rangers Stadium and about 2 miles from Dallas Cowboys AT&amp;T Stadium and many very good restaurants close by.  The staff was very friendly and the room clean.  The room we had contained a king size bed and only one desk chair.  For one night, that might be ok, but we stayed here for 4 nights.  The toilet and shower are in a small enclosed area with the sink outside of this area.  The breakfast was not that good with the selection the same every day, with eggs that were not edible. However, Denny's is very close by.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>JAIMIN P, General Manager at Sleep Inn Arlington Near Six Flags, responded to this reviewResponded December 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2016</t>
+  </si>
+  <si>
+    <t>Directly across the street from Six Flags, about 1.5 miles from Texas Rangers Stadium and about 2 miles from Dallas Cowboys AT&amp;T Stadium and many very good restaurants close by.  The staff was very friendly and the room clean.  The room we had contained a king size bed and only one desk chair.  For one night, that might be ok, but we stayed here for 4 nights.  The toilet and shower are in a small enclosed area with the sink outside of this area.  The breakfast was not that good with the selection the same every day, with eggs that were not edible. However, Denny's is very close by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r434672809-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>434672809</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t>Great Location For Park Visit, but Might Want to Double Up on Socks Worn on Carpet</t>
+  </si>
+  <si>
+    <t>We stayed here a couple of nights while in town to check out Six Flags.  The location can't be beat, allowing for easy access via short walk to the park.  The front desk staff was very friendly and kind to us as we came and went.  Beware, and maybe this was a one time thing, but we did return one evening and noticed that there was an immense pot aroma throughout the elevator and floor we were on.  To each their own, but as a hotel I would get in front of that problem immediately.  Unfortunately, our room was really quite disgusting.  I normally avoid anything less than socks on hotel room floors.  I would suggest a two sock minimum at this hotel.  That aside, I would stay here again if I was going to Six Flags, but anything else and I'd spend a little more money for something of higher quality.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here a couple of nights while in town to check out Six Flags.  The location can't be beat, allowing for easy access via short walk to the park.  The front desk staff was very friendly and kind to us as we came and went.  Beware, and maybe this was a one time thing, but we did return one evening and noticed that there was an immense pot aroma throughout the elevator and floor we were on.  To each their own, but as a hotel I would get in front of that problem immediately.  Unfortunately, our room was really quite disgusting.  I normally avoid anything less than socks on hotel room floors.  I would suggest a two sock minimum at this hotel.  That aside, I would stay here again if I was going to Six Flags, but anything else and I'd spend a little more money for something of higher quality.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r434427236-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>434427236</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>Close to stadium</t>
+  </si>
+  <si>
+    <t>We stayed for a week total. A couple leading up to the Dallas/Eagles game and a few after. We walked to the stadium it took about 40 minutes. The staff all were very nice and helpful.  Room was clean bed was comfortable. Pool looked nice nevwr got a chance to swim to much running around. Would stay again if in the area.  MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed for a week total. A couple leading up to the Dallas/Eagles game and a few after. We walked to the stadium it took about 40 minutes. The staff all were very nice and helpful.  Room was clean bed was comfortable. Pool looked nice nevwr got a chance to swim to much running around. Would stay again if in the area.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r428944700-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>428944700</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Average Stay</t>
+  </si>
+  <si>
+    <t>I have to admit that upon arrival I was nervous! There was a tailgating party of about 10 people with liquor and kids and no game in sight! However Check In was quick and easy but with no welcoming smiles from the  receptionist. The small lobby had a stinch that was a mixture of  fragrance and "pine cones"...use your imagination please. Location was great as we were across the street from Six Flags, down the street from Ranger Stadium and a few minutes from Cowboy Stadium and nearby a host of eating places.
+We booked a double room that was a bit small for my wife and son but we understood prior what we were getting into and it was clean. The room also had a musty smell but we had some room spray on hand and quickly took care of that in a matter of seconds. The air conditioner blew cold which was a plus. We also has a refrigerator and microwave which came in handy for our drinks and leftover pizza. A 32 inch TV that hung on the wall above the nice desk and chair added a little flavor to this small but quaint room. We also had a small wardrobe closet with hangers to store our small luggage and other miscellaneous items. An iron and board was provided however the board and cover were in need of replacing..very stained and dirty. The iron did its job...I have to admit that upon arrival I was nervous! There was a tailgating party of about 10 people with liquor and kids and no game in sight! However Check In was quick and easy but with no welcoming smiles from the  receptionist. The small lobby had a stinch that was a mixture of  fragrance and "pine cones"...use your imagination please. Location was great as we were across the street from Six Flags, down the street from Ranger Stadium and a few minutes from Cowboy Stadium and nearby a host of eating places.We booked a double room that was a bit small for my wife and son but we understood prior what we were getting into and it was clean. The room also had a musty smell but we had some room spray on hand and quickly took care of that in a matter of seconds. The air conditioner blew cold which was a plus. We also has a refrigerator and microwave which came in handy for our drinks and leftover pizza. A 32 inch TV that hung on the wall above the nice desk and chair added a little flavor to this small but quaint room. We also had a small wardrobe closet with hangers to store our small luggage and other miscellaneous items. An iron and board was provided however the board and cover were in need of replacing..very stained and dirty. The iron did its job with a clean and hot surface plate which had no leaky or dirt residue. The bathroom area was really small and sat right next to one of the beds with the sink on the outside and a sliding door that housed the shower and toilet combo. In other words if you dropped the #2 in the middle of the night you better hope for a quiet and soft landing!!! The shower was very nice and resembled a space capsule but I have to admit was a good size with a well equipped shower head that made for a really nice shower. What about the bedding you ask? To be honest if you're a medium sized person with a spouse...don't even try it!! Too small...and the mattresses were not comfortable for us or the kiddo. The springs were bouncy like a trampoline and I tossed all night. The pillows were nice and helped a little but nothing to brag about. Again we knew what it was coming in and the size of the bed was really our negligence. Let's talk about the additional amenities that we used and I will wrap this review up: Complimentary Breakfast served 6am til 9am! Waffles, sausage and ham along with eggs, toast and bagels were okay. They did have a variety to choose from including cereals, yogurt, pastries and more. Coffee, orange and apple juice were served. Saved us on a meal!WiFi worked really well and was easy to access. Parking was Free but they made sure you were informed that it was at your risk with signs outside and in the hotel elevators and everywhere we turned. However they did have adequate lighting. We didn't feel threatened but I did check the window frequently to check on my car. Overall this was an average hotel that I would stay in again but not with my family due to its size.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have to admit that upon arrival I was nervous! There was a tailgating party of about 10 people with liquor and kids and no game in sight! However Check In was quick and easy but with no welcoming smiles from the  receptionist. The small lobby had a stinch that was a mixture of  fragrance and "pine cones"...use your imagination please. Location was great as we were across the street from Six Flags, down the street from Ranger Stadium and a few minutes from Cowboy Stadium and nearby a host of eating places.
+We booked a double room that was a bit small for my wife and son but we understood prior what we were getting into and it was clean. The room also had a musty smell but we had some room spray on hand and quickly took care of that in a matter of seconds. The air conditioner blew cold which was a plus. We also has a refrigerator and microwave which came in handy for our drinks and leftover pizza. A 32 inch TV that hung on the wall above the nice desk and chair added a little flavor to this small but quaint room. We also had a small wardrobe closet with hangers to store our small luggage and other miscellaneous items. An iron and board was provided however the board and cover were in need of replacing..very stained and dirty. The iron did its job...I have to admit that upon arrival I was nervous! There was a tailgating party of about 10 people with liquor and kids and no game in sight! However Check In was quick and easy but with no welcoming smiles from the  receptionist. The small lobby had a stinch that was a mixture of  fragrance and "pine cones"...use your imagination please. Location was great as we were across the street from Six Flags, down the street from Ranger Stadium and a few minutes from Cowboy Stadium and nearby a host of eating places.We booked a double room that was a bit small for my wife and son but we understood prior what we were getting into and it was clean. The room also had a musty smell but we had some room spray on hand and quickly took care of that in a matter of seconds. The air conditioner blew cold which was a plus. We also has a refrigerator and microwave which came in handy for our drinks and leftover pizza. A 32 inch TV that hung on the wall above the nice desk and chair added a little flavor to this small but quaint room. We also had a small wardrobe closet with hangers to store our small luggage and other miscellaneous items. An iron and board was provided however the board and cover were in need of replacing..very stained and dirty. The iron did its job with a clean and hot surface plate which had no leaky or dirt residue. The bathroom area was really small and sat right next to one of the beds with the sink on the outside and a sliding door that housed the shower and toilet combo. In other words if you dropped the #2 in the middle of the night you better hope for a quiet and soft landing!!! The shower was very nice and resembled a space capsule but I have to admit was a good size with a well equipped shower head that made for a really nice shower. What about the bedding you ask? To be honest if you're a medium sized person with a spouse...don't even try it!! Too small...and the mattresses were not comfortable for us or the kiddo. The springs were bouncy like a trampoline and I tossed all night. The pillows were nice and helped a little but nothing to brag about. Again we knew what it was coming in and the size of the bed was really our negligence. Let's talk about the additional amenities that we used and I will wrap this review up: Complimentary Breakfast served 6am til 9am! Waffles, sausage and ham along with eggs, toast and bagels were okay. They did have a variety to choose from including cereals, yogurt, pastries and more. Coffee, orange and apple juice were served. Saved us on a meal!WiFi worked really well and was easy to access. Parking was Free but they made sure you were informed that it was at your risk with signs outside and in the hotel elevators and everywhere we turned. However they did have adequate lighting. We didn't feel threatened but I did check the window frequently to check on my car. Overall this was an average hotel that I would stay in again but not with my family due to its size.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r424845705-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>424845705</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>great location, great staff</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel during a vacation with friends. It was reasonably priced, close to a couple of good restaurants and a comfortable walk to AT &amp; T stadium as well as the Texas Rangers ball park. In addition the staff, especially Cheryl were very helpful and friendly. Perfect spot for a sports trip.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r424097987-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>424097987</t>
+  </si>
+  <si>
+    <t>10/01/2016</t>
+  </si>
+  <si>
+    <t>Great sports weekend</t>
+  </si>
+  <si>
+    <t>Spent a long weekend going to a college game, Cowboys game and Rangers game.  Sleep inn is the perfect location for Cowboys stadium and Rangers ball park (walking distance and trolley service).  Close to good restaurants.  Sleep inn staff were very polite and helpful.  Great stay and will be back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r414390321-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>414390321</t>
+  </si>
+  <si>
+    <t>09/03/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just the essentials </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just the essentials for a short trip to Dallas.  Clean rooms, strong air con, free basic breakfast, free parking and wifi. A couple of nearby eateries and near freeway. Right next to six flags theme park so if the window is open you can hear the people screaming on the rides. Rooms aren't as large as other similarly priced hotels. Shower is small standing only. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r404244007-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>404244007</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>hospitality speaks volumes</t>
+  </si>
+  <si>
+    <t>My best friend and i stayed 3 nights for our annual baseball trip. It was our first time staying in this hotel. The greeting was warm and professional; our room slight smaller than expected, but clean and really enough space we would need for the amount of time we'd really be in the room. The bath/restroom area little cramped. The sliding bathroom door fell off the hinges and since would not be available next couple of days, they moved us to another room - awesome! All staff friendly; especially front desk - sorry I can't remember the names - but they were great!</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r400190041-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>400190041</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t>Convenient Location, Crappy Hotel</t>
+  </si>
+  <si>
+    <t>I stayed here on a weekend trip with my husband and 2 nephews because it was close to the stadium where the Rangers play.  It is one mile from this hotel to the stadium, which is walking distance for us.  The hotel  was okay at first glance, but there were lots of signs warning how to avoid car break-ins, which was my first clue about this place.  The room itself (#330) was mediocre at best.  The bathroom door is broken.  I had to finagle and muscle it closed.  It is a pocket door with a broken track.  Neither of my nephews could do it on their own (ages 6 and 8).  The toilet paper holder on the wall had been pulled out at some point and looks like it has been shoved back into place at some point as a temporary fix.  The carpet wasn't very clean.  Now for the positives: the pool is okay, the breakfast was decent, and as I mentioned, the location would be perfect for someone attending a Ranger's game or going to Six Flags.  We were literally across the street from the theme park.  Would I stay again?  Nope.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>I stayed here on a weekend trip with my husband and 2 nephews because it was close to the stadium where the Rangers play.  It is one mile from this hotel to the stadium, which is walking distance for us.  The hotel  was okay at first glance, but there were lots of signs warning how to avoid car break-ins, which was my first clue about this place.  The room itself (#330) was mediocre at best.  The bathroom door is broken.  I had to finagle and muscle it closed.  It is a pocket door with a broken track.  Neither of my nephews could do it on their own (ages 6 and 8).  The toilet paper holder on the wall had been pulled out at some point and looks like it has been shoved back into place at some point as a temporary fix.  The carpet wasn't very clean.  Now for the positives: the pool is okay, the breakfast was decent, and as I mentioned, the location would be perfect for someone attending a Ranger's game or going to Six Flags.  We were literally across the street from the theme park.  Would I stay again?  Nope.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r388597044-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>388597044</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We stayed here in June while attending a Ranger game. It was clean and the staff was great. It is close to the stadium so you can walk to the game. The beds were comfortable and the air conditioner worked great which felt good after walking back from the game.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r387607344-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>387607344</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Baseball game</t>
+  </si>
+  <si>
+    <t>Stayed in 6/25/16 for one night for the Ranger VR Red Sox game. Good location to walk to game about 1 mile. I feel the price was high for this hotel. Phone did not work in room so if we had questions had to go down stairs to ask, couldn't order pizza. It said it was a queen size bed but felt like a full size, mattress was soft, air conditioning fan was loud and could not turn down the fan to low. We didn't eat breakfast as it was only for 2 hours in the mornings, snack machines were empty as well. Shower floor was slippery, had a good shower head with 2 different settings. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed in 6/25/16 for one night for the Ranger VR Red Sox game. Good location to walk to game about 1 mile. I feel the price was high for this hotel. Phone did not work in room so if we had questions had to go down stairs to ask, couldn't order pizza. It said it was a queen size bed but felt like a full size, mattress was soft, air conditioning fan was loud and could not turn down the fan to low. We didn't eat breakfast as it was only for 2 hours in the mornings, snack machines were empty as well. Shower floor was slippery, had a good shower head with 2 different settings. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r379824169-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>379824169</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>Look somewhere else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Found 2 huge roaches! One of them was on my bed and didn't want to take a chance of being attacked at night by massive roaches. I give it a 2/5 because the staff was friendly but these roaches were a huge problem. We got our money back with no issue and left to another hotel. </t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r362662416-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>362662416</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t>Wrestemania 32 Weekend</t>
+  </si>
+  <si>
+    <t>Nice location as we easily commuted to downtown Dallas convention center and close enough to walk to AT&amp;T stadium on a fair day. We had four rooms for three nights and had a blast attending the festivities. Very happy with our rooms and comfortable beds. Breakfast, free wifi and free parking were a plus. Those values are usually lost when lodging downtown Dallas.  The only disappointment was We were anticipating a shuttle based one hotel photo. The staff was very friendly and pleasant and accommodating. Yes, I will lodge here again.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r362557978-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>362557978</t>
+  </si>
+  <si>
+    <t>Wrestlemania 32</t>
+  </si>
+  <si>
+    <t>We booked this hotel as it was close to the at&amp;t stadium.The hotel meet all our requirements, the desk staff were friendly all the time. Housekeeping was first class. We didn't think the included breakfast would be up to much but we were pleasantly surprised. Free coffee all day. The pool wasn't open at this time of the year but it looked fine.A few restaurants in walking distance.Six flags park across the road, no need to pay parking fees.We would come to this hotel again if we were visiting this area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r362556558-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>362556558</t>
+  </si>
+  <si>
+    <t>Wrestlemania 32 stay.</t>
+  </si>
+  <si>
+    <t>My son and I stayed here for one night for Wrestlemania 32. Normally I would select a Hilton chained hotel but they were sold out. 
+Check Inn. We arrived 2 hours early...I  was told to we would have to wait and hour for a room. I asked the receptionist if the hotel had laundry facilities as I had some clothing to wash and it would kill a bit time...the receptionist showed me and informed me everything I needed to know about the washer and dryer. An hour later like she said and we were checked in. The girls at reception seemed very friendly.
+The Lobby. It was on the small side. One thing that I noticed straight away was the 2 lifts were opposite the the receptionist desk only 10 feet from lift to desk...this proved problematic the next morning getting out the lift. There is a nice little seated area beside the main entrance to the hotel lobby.
+The Room. 2 nearly queen sized beds, decent TV channel selection, iron and ironing board. The aircon was a bit loud and had no remote, I couldn't find a in room safe. The bathroom consisted of a wc and a shower unit that worked really well the bathroom sink is situated in the bedroom and not bathroom and the bathroom door is slide open rather that push open. I have to say everything was nice and clean.
+Breakfast. Very disappointing...but maybe...My son and I stayed here for one night for Wrestlemania 32. Normally I would select a Hilton chained hotel but they were sold out. Check Inn. We arrived 2 hours early...I  was told to we would have to wait and hour for a room. I asked the receptionist if the hotel had laundry facilities as I had some clothing to wash and it would kill a bit time...the receptionist showed me and informed me everything I needed to know about the washer and dryer. An hour later like she said and we were checked in. The girls at reception seemed very friendly.The Lobby. It was on the small side. One thing that I noticed straight away was the 2 lifts were opposite the the receptionist desk only 10 feet from lift to desk...this proved problematic the next morning getting out the lift. There is a nice little seated area beside the main entrance to the hotel lobby.The Room. 2 nearly queen sized beds, decent TV channel selection, iron and ironing board. The aircon was a bit loud and had no remote, I couldn't find a in room safe. The bathroom consisted of a wc and a shower unit that worked really well the bathroom sink is situated in the bedroom and not bathroom and the bathroom door is slide open rather that push open. I have to say everything was nice and clean.Breakfast. Very disappointing...but maybe it was because we arrived 30 minutes before the end of breakfast. Bread slices felt soggy one part and dry the other. Sausage tasted like Hilton chained sausages...there was no bacon or scrambled eggs left...the coffee machine wasn't working. There was also cereal and a waffle making machine. Leisure facilities. There is a gymnasium and swimming pool...the swimming pool wasn't open even thought it was in the lower 80s.Laundry facilitie. There was one washer and one dryer...both worked very well...you can purchase Tidal washing powder for one wash from the vending machine for $1.25. The washer was $1.50 which you placed to quarters together in the three 50 cent slots. I can't remember how much the dryer was.Check out was very fast indeed...basically I handed my key card over, asked if I had a good sleep and that was that.Surrounding Area. The AT&amp;T Stadium where Wrestlemania was at is within walking distance if you're lazy...The Ball Park is even closer. Six Flags is next door but the Waterpark is a very short drive away.Final Thoughts. This was perfect for a one nights stay. It's clean and the staff seem to take pride in their jobs the ones i delt with were all very helpful and friendly. Yes if all the Hiltons were sold out or too expensive I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>My son and I stayed here for one night for Wrestlemania 32. Normally I would select a Hilton chained hotel but they were sold out. 
+Check Inn. We arrived 2 hours early...I  was told to we would have to wait and hour for a room. I asked the receptionist if the hotel had laundry facilities as I had some clothing to wash and it would kill a bit time...the receptionist showed me and informed me everything I needed to know about the washer and dryer. An hour later like she said and we were checked in. The girls at reception seemed very friendly.
+The Lobby. It was on the small side. One thing that I noticed straight away was the 2 lifts were opposite the the receptionist desk only 10 feet from lift to desk...this proved problematic the next morning getting out the lift. There is a nice little seated area beside the main entrance to the hotel lobby.
+The Room. 2 nearly queen sized beds, decent TV channel selection, iron and ironing board. The aircon was a bit loud and had no remote, I couldn't find a in room safe. The bathroom consisted of a wc and a shower unit that worked really well the bathroom sink is situated in the bedroom and not bathroom and the bathroom door is slide open rather that push open. I have to say everything was nice and clean.
+Breakfast. Very disappointing...but maybe...My son and I stayed here for one night for Wrestlemania 32. Normally I would select a Hilton chained hotel but they were sold out. Check Inn. We arrived 2 hours early...I  was told to we would have to wait and hour for a room. I asked the receptionist if the hotel had laundry facilities as I had some clothing to wash and it would kill a bit time...the receptionist showed me and informed me everything I needed to know about the washer and dryer. An hour later like she said and we were checked in. The girls at reception seemed very friendly.The Lobby. It was on the small side. One thing that I noticed straight away was the 2 lifts were opposite the the receptionist desk only 10 feet from lift to desk...this proved problematic the next morning getting out the lift. There is a nice little seated area beside the main entrance to the hotel lobby.The Room. 2 nearly queen sized beds, decent TV channel selection, iron and ironing board. The aircon was a bit loud and had no remote, I couldn't find a in room safe. The bathroom consisted of a wc and a shower unit that worked really well the bathroom sink is situated in the bedroom and not bathroom and the bathroom door is slide open rather that push open. I have to say everything was nice and clean.Breakfast. Very disappointing...but maybe it was because we arrived 30 minutes before the end of breakfast. Bread slices felt soggy one part and dry the other. Sausage tasted like Hilton chained sausages...there was no bacon or scrambled eggs left...the coffee machine wasn't working. There was also cereal and a waffle making machine. Leisure facilities. There is a gymnasium and swimming pool...the swimming pool wasn't open even thought it was in the lower 80s.Laundry facilitie. There was one washer and one dryer...both worked very well...you can purchase Tidal washing powder for one wash from the vending machine for $1.25. The washer was $1.50 which you placed to quarters together in the three 50 cent slots. I can't remember how much the dryer was.Check out was very fast indeed...basically I handed my key card over, asked if I had a good sleep and that was that.Surrounding Area. The AT&amp;T Stadium where Wrestlemania was at is within walking distance if you're lazy...The Ball Park is even closer. Six Flags is next door but the Waterpark is a very short drive away.Final Thoughts. This was perfect for a one nights stay. It's clean and the staff seem to take pride in their jobs the ones i delt with were all very helpful and friendly. Yes if all the Hiltons were sold out or too expensive I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r360466820-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>360466820</t>
+  </si>
+  <si>
+    <t>03/31/2016</t>
+  </si>
+  <si>
+    <t>one of my favorite places</t>
+  </si>
+  <si>
+    <t>I always stay here when in Arlington.  mostly business but once in awhile for pleasure.  the staff is always nice.  really enjoy Enrique early in the morning.. very comfy beds and updated décor  Very affordable in a very expensive world.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r360309095-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>360309095</t>
+  </si>
+  <si>
+    <t>No luxury, step above budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here due to airline cancellation. Not happy from the very beginning. No shuttle to hotel so had to pay taxi. Then got there and was told Hotel would not honor airline voucher for free night so had to pay a discounted (mercy) rate. Room was fair but shower filthy. Floors squeak when people walk and our upstairs neighbors must have had the urge to put in the miles last night. Night attendant was good to by opening refridge at 4:00 AM to get some yogurts. Must be great location for Six Flags visitors but for us grumpy travelers it was not impressive. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r357555622-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>357555622</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>Very friendly and helpful staff. Just blocks away from all the major attraction in Arlington.  If you don't want to drive there is a trolley that stops just outside the hotel.  Room were clean and up to date.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r354696844-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>354696844</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t>comfortable and great location!</t>
+  </si>
+  <si>
+    <t>super comfy bed nice looking rooms. No smoking smell roaming the hallways. only housekeeping needs more training. they dont get you what you need even when you informed them what you need prior to them cleaning your room. and we did find only 1 gigantic black cockroach in our bathroom during our stay. but the manager Sheryl was great and she was very sweet and welcoming and had great customer service skills. just because of her and how well she treated me and my family I will be staying there again. :)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r353983323-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>353983323</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>Most Value for your buck!!!</t>
+  </si>
+  <si>
+    <t>Mr. Marquee the night auditor was amazing. His welcome was very inviting; and he was on point makeing the check in process fast covered all the bases and I even helped me get signed up for the rewards program. Just wanted to let you know that he is one of the main reasons I chose to revisit your location. Aside from the contempary decor and valued pricing.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r350661136-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>350661136</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>Slept in the entire time I was at Sleep Inn</t>
+  </si>
+  <si>
+    <t>The staff is amazing everyone that I encountered was a delight front desk day and night staff each one greeted me with a smile and were a pleasure to deal with. The rooms have been nicely upgraded since the last time I had visited (2011) I felt safe and comfortable while at Sleep Inn. I didn't get anything done outside the room that I needed to get done because I rarely left the room. However I did get some very relaxing much needed rest. My little family enjoyed our stay and will be back to see you guys again soon!!!</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r344397446-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>344397446</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>More than you would expect</t>
+  </si>
+  <si>
+    <t>OK, the breakfast isn't their strength but the rooms are clean and neat and well equipped.Staff is helpful. Good value for money. Great WiFi. Location is great if you need / want to go to Fort Worth and Dalllas.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r344328815-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>344328815</t>
+  </si>
+  <si>
+    <t>Pleasant</t>
+  </si>
+  <si>
+    <t>Very nice friendly staff. Clean rooms. Pillows are outstandingly comfortable! Double bed bathrooms are a little small but for the price of the stay there's no room to complain! Nice Breakfast with a lot of variety.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r344282100-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>344282100</t>
+  </si>
+  <si>
+    <t>Pretty Good For the Price</t>
+  </si>
+  <si>
+    <t>My stay here was very pleasant. From the time to check-in, until I left in the morning. I visited during the winter, so I didn't get to visit Six Flags, but if you're planning to, this hotel is directly across from the park! Super convenient. The property was standard, nothing fancy about it, but it was well-kept. The room was very clean and everything worked properly. I would stay here again. Great price, especially for dropping in with no reservation for the night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r337105721-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>337105721</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>Cotton Bowl visit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room was very nice. Clean and nicely done. Six flags is literally out the front door. At&amp;T stadium is about 1 mile or less away. We walked to the Stadium. Received a bag of chips and a bottle of water at check in. Breakfast was good, but your typical hotel fare.Worth the price. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r336021038-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>336021038</t>
+  </si>
+  <si>
+    <t>12/30/2015</t>
+  </si>
+  <si>
+    <t>Overnight for a Cowboys game</t>
+  </si>
+  <si>
+    <t>We breezed right through check-in, received a snack bag with water bottle and chips (I supposed for Choice Rewards members) and almost choked when we discovered our room was a "smoking" room. The hotel was booked to capacity and we could not be moved. When we returned for the evening, hotel staff came to spray an air mist/freshener that smelled wonderful for about an hour. Luckily our belongings did not retain the stench of the room - why do hotels offer this option? We parked at AT&amp;T Stadium, but did see that a shuttle was offered for $10 each way. We did not stay for breakfast.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r333293063-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>333293063</t>
+  </si>
+  <si>
+    <t>12/16/2015</t>
+  </si>
+  <si>
+    <t>Awesome stay</t>
+  </si>
+  <si>
+    <t>Check in was great, people at the front desk are awesome, room was outstanding. Bed was totally comfortable it was by accident I stayed at the Sleep Inn but now I will always stand to sleep in when I'm in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r330143023-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>330143023</t>
+  </si>
+  <si>
+    <t>12/01/2015</t>
+  </si>
+  <si>
+    <t>Cowboys!</t>
+  </si>
+  <si>
+    <t>Great location, great value for a football/baseball game. Cold beers and good food at Humperdink's. Walking distance to the Boot Barn and Cavender's. Also, don't miss the International Bowling Museum and Hall of Fame!</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r330064414-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>330064414</t>
+  </si>
+  <si>
+    <t>11/30/2015</t>
+  </si>
+  <si>
+    <t>will come anytime</t>
+  </si>
+  <si>
+    <t>Great staff.  cheryl was awesome. Malissa , tasha , marquee, sharon rocked and made it a great stay. Nina was great. glad to have stay at this hotel .Its in a great area its right behind six flags and has a great atmosphere.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r326346427-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>326346427</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>Just What I Needed for the Night</t>
+  </si>
+  <si>
+    <t>Friendly, helpful staff at check-in and through out my stay. The room was clean, comfortable and the price was right for my budget. The property is pretty decent and no worries about the area since it was Six Flags commercial area with shopping, dining and business services available.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r325005632-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>325005632</t>
+  </si>
+  <si>
+    <t>11/07/2015</t>
+  </si>
+  <si>
+    <t>Friendly staff</t>
+  </si>
+  <si>
+    <t>Everyone we had contact with was very helpful and courteous. Breakfast was good. Selections from bacon and eggs to waffles to yogurt. The room was just ok. Mostly because it isnt a new place. It was clean and the bed was comfortable. A short drive to AT&amp;T stadium and just across the street from 6 Flags.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r324639633-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>324639633</t>
+  </si>
+  <si>
+    <t>11/05/2015</t>
+  </si>
+  <si>
+    <t>Look elsewhere</t>
+  </si>
+  <si>
+    <t>My stay was just okay. I wasn't able to get my door open as well at the guest next to me. We had to go to the front desk not once but twice. It was rather frustrating.  Then when I entered my room the AC had leaked water all over the flood, the bathroom doors did not shut completely so there is absolutely no privacy. I was fortunate enough for the staff to be able to switch me into a new room. In the new room the bathroom doors once again did not shut and there was no light in the restroom. The breakfast and price were decent, the woman at the front desk was friendly but most likely will never book here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>My stay was just okay. I wasn't able to get my door open as well at the guest next to me. We had to go to the front desk not once but twice. It was rather frustrating.  Then when I entered my room the AC had leaked water all over the flood, the bathroom doors did not shut completely so there is absolutely no privacy. I was fortunate enough for the staff to be able to switch me into a new room. In the new room the bathroom doors once again did not shut and there was no light in the restroom. The breakfast and price were decent, the woman at the front desk was friendly but most likely will never book here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r323495120-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>323495120</t>
+  </si>
+  <si>
+    <t>10/31/2015</t>
+  </si>
+  <si>
+    <t>Awesome stay!</t>
+  </si>
+  <si>
+    <t>We loved this hotel. We stayed here after I had emergency surgery for a week and front desk staff was awesome and Nina our housekeeper is 100%the best housekeeper. Pick this hotel good breakfast as well.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r319723934-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>319723934</t>
+  </si>
+  <si>
+    <t>10/18/2015</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I stayed here during the week. The staff was extremely friendly.  The room was clean. The breakfast was decent.  If you book online you can find a great rate. I  had the king room. I really enjoyed the rest.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r319109768-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>319109768</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>Football weekend stay</t>
+  </si>
+  <si>
+    <t>First stay was in September:
+Room was clean with micro wave and fridge. Everything was OK until I noticed a big water bug (roach) in the room and crickets in the bathroom.  Thought we would try it again since we were on first floor next to laundry room and maybe that was where water bug and crickets came from.  
+Second stay was in October:
+Checked in and when we got to our first room there were suitcases already in the room.  Second room we got the toilet was ready to overflow and called front desk to send someone up and they said they would.  After a 45 minute wait I went downstairs and was told that there was no one on the weekend to take care of the problem.  Then the clerk offered me a plunger so that we could take care of the problem ourselves.  REALLY!!!!!  I then requested a new room and was told they were sold out. So I requested the manager only to be told the same thing.  He then stated maybe we should not be using so much toilet paper.  Then I was really HOT!!!!  I then requested to speak to the owner, give me my money back or give me a new room.  Well, they managed to find a new room so we move to now the THIRD room.  We were OK until we turned off the lights and I had a cricket fly...First stay was in September:Room was clean with micro wave and fridge. Everything was OK until I noticed a big water bug (roach) in the room and crickets in the bathroom.  Thought we would try it again since we were on first floor next to laundry room and maybe that was where water bug and crickets came from.  Second stay was in October:Checked in and when we got to our first room there were suitcases already in the room.  Second room we got the toilet was ready to overflow and called front desk to send someone up and they said they would.  After a 45 minute wait I went downstairs and was told that there was no one on the weekend to take care of the problem.  Then the clerk offered me a plunger so that we could take care of the problem ourselves.  REALLY!!!!!  I then requested a new room and was told they were sold out. So I requested the manager only to be told the same thing.  He then stated maybe we should not be using so much toilet paper.  Then I was really HOT!!!!  I then requested to speak to the owner, give me my money back or give me a new room.  Well, they managed to find a new room so we move to now the THIRD room.  We were OK until we turned off the lights and I had a cricket fly to bed and land on my shoulder.  I slept with the lights on both nights we were there and was glad when we checked out.  Windows very dirty and if Six Flags is open plan to stay awake until midnight if your room faces the park.  Will not stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>First stay was in September:
+Room was clean with micro wave and fridge. Everything was OK until I noticed a big water bug (roach) in the room and crickets in the bathroom.  Thought we would try it again since we were on first floor next to laundry room and maybe that was where water bug and crickets came from.  
+Second stay was in October:
+Checked in and when we got to our first room there were suitcases already in the room.  Second room we got the toilet was ready to overflow and called front desk to send someone up and they said they would.  After a 45 minute wait I went downstairs and was told that there was no one on the weekend to take care of the problem.  Then the clerk offered me a plunger so that we could take care of the problem ourselves.  REALLY!!!!!  I then requested a new room and was told they were sold out. So I requested the manager only to be told the same thing.  He then stated maybe we should not be using so much toilet paper.  Then I was really HOT!!!!  I then requested to speak to the owner, give me my money back or give me a new room.  Well, they managed to find a new room so we move to now the THIRD room.  We were OK until we turned off the lights and I had a cricket fly...First stay was in September:Room was clean with micro wave and fridge. Everything was OK until I noticed a big water bug (roach) in the room and crickets in the bathroom.  Thought we would try it again since we were on first floor next to laundry room and maybe that was where water bug and crickets came from.  Second stay was in October:Checked in and when we got to our first room there were suitcases already in the room.  Second room we got the toilet was ready to overflow and called front desk to send someone up and they said they would.  After a 45 minute wait I went downstairs and was told that there was no one on the weekend to take care of the problem.  Then the clerk offered me a plunger so that we could take care of the problem ourselves.  REALLY!!!!!  I then requested a new room and was told they were sold out. So I requested the manager only to be told the same thing.  He then stated maybe we should not be using so much toilet paper.  Then I was really HOT!!!!  I then requested to speak to the owner, give me my money back or give me a new room.  Well, they managed to find a new room so we move to now the THIRD room.  We were OK until we turned off the lights and I had a cricket fly to bed and land on my shoulder.  I slept with the lights on both nights we were there and was glad when we checked out.  Windows very dirty and if Six Flags is open plan to stay awake until midnight if your room faces the park.  Will not stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r313327885-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>313327885</t>
+  </si>
+  <si>
+    <t>09/24/2015</t>
+  </si>
+  <si>
+    <t>2 months stay</t>
+  </si>
+  <si>
+    <t>I have been staying at the Sleep Inn for the past 2 months on and off while conducting real estate business in the area. The facility is very clean and amenities are great for the price. Particularly breakfast, workout room, tv cable and pool.The staff has been very nice and helpful with my flexible schedule.Tasha, Sharon and Danni have been very courteous and helpful to me.Look forward to continuing stays.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r307008798-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>307008798</t>
+  </si>
+  <si>
+    <t>09/04/2015</t>
+  </si>
+  <si>
+    <t>A Clean stay for the money...</t>
+  </si>
+  <si>
+    <t>Hello TA family, once again on the road in Texas this time. This hotel was a nice stay for the money. Staff was very friendly and wanting to accommodate any way possible, while this is true there were a couple things in all fairness to be duly noted. The rooms were clean for the most part, but not really updated. A bit more attention to detail when it comes to the cleaning agents used. Sometimes the rooms can be clean, but due to the cleaning agents that leave a not so attractive smell or sour smell or vinegary smell is not so appealing to the customer. If your interested in location and hospitality and price this is a good place to stay. Breakfast was fresh and staff was on top of insuring that refills were there. Make sure you know your license plates and your legal because they will ask you for the information. Its for your safety so that you have a descent place to park and non hotel stayers i.e six flags people are taking up your spot.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Hello TA family, once again on the road in Texas this time. This hotel was a nice stay for the money. Staff was very friendly and wanting to accommodate any way possible, while this is true there were a couple things in all fairness to be duly noted. The rooms were clean for the most part, but not really updated. A bit more attention to detail when it comes to the cleaning agents used. Sometimes the rooms can be clean, but due to the cleaning agents that leave a not so attractive smell or sour smell or vinegary smell is not so appealing to the customer. If your interested in location and hospitality and price this is a good place to stay. Breakfast was fresh and staff was on top of insuring that refills were there. Make sure you know your license plates and your legal because they will ask you for the information. Its for your safety so that you have a descent place to park and non hotel stayers i.e six flags people are taking up your spot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r305106735-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>305106735</t>
+  </si>
+  <si>
+    <t>08/30/2015</t>
+  </si>
+  <si>
+    <t>Super Hotel!</t>
+  </si>
+  <si>
+    <t>I really liked this hotel! Not only was it economical and close to my destination, the staff was super nice and accommodating. It was perhaps the best deal I had my entire vacation, and all of the hotels I stayed in were very good, so this one was especially good!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r303540079-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>303540079</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>Amazing staff!</t>
+  </si>
+  <si>
+    <t>I stay in motels a lot and the Sleep Inn in Arlington had I believe the friendliest staff ever. The breakfast is very good with hot items and ample seating.  The rooms are somewhat small, basic but very clean and comfy (microwave and fridge in the rooms). The value is probably the best you will find in the area as it's close to lounges/ restaurants (within walking distance), Six Flags (across the street), central location to DFW and the professional sports stadium.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r293073940-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>293073940</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>Family Weekend</t>
+  </si>
+  <si>
+    <t>The hotel was very clean, and smelled very well. My family and myself checked in a few minutes before 3pm, we had been traveling since 3am to visit a family member in the hospital so we were extremely tired. Unfortunately we were still charged the $10 early check in fee. I wish the young lady had informed us earlier that we could check in early when I called around 1pm. She didn't seem very welcoming. The lady that actually checked us was nice. Breakfast wasn't very good, only eggs and bacon (not to good). The breakfast attendant was no where to be found until she heard a noise and peaked from behind the door sitting in the chair. Even with the hotel being right across from Six Flags it was quiet and ended up being just what we needed to relax after a long day of traveling and then visiting with family.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>The hotel was very clean, and smelled very well. My family and myself checked in a few minutes before 3pm, we had been traveling since 3am to visit a family member in the hospital so we were extremely tired. Unfortunately we were still charged the $10 early check in fee. I wish the young lady had informed us earlier that we could check in early when I called around 1pm. She didn't seem very welcoming. The lady that actually checked us was nice. Breakfast wasn't very good, only eggs and bacon (not to good). The breakfast attendant was no where to be found until she heard a noise and peaked from behind the door sitting in the chair. Even with the hotel being right across from Six Flags it was quiet and ended up being just what we needed to relax after a long day of traveling and then visiting with family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r289373788-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>289373788</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Housekeeping leaves alot to be desired</t>
+  </si>
+  <si>
+    <t>Housekeeper took my tip and didn't bother to clean my room or give me towels.  Entire hotel is needs a deep clean.  Crap smeared on walls and toilet in public restroom for days, no one cleaned it up.  Nice shower though.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r288311667-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>288311667</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>The lobby is like a scene from a bad 80's movie, dirty and sketchy. Our room had previous guest trash still in it and as soon as we flushed the toilet water covered the floor. Front desk didn't seem concerned at all. We checked out immediately...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r271862295-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>271862295</t>
+  </si>
+  <si>
+    <t>05/13/2015</t>
+  </si>
+  <si>
+    <t>Excellent stay!</t>
+  </si>
+  <si>
+    <t>The reservation process was super easy and I loved that the terms on the reservation were flexible. When we arrived the front desk clerk was friendly and the check-in process was very easy. We had an issue with the smell of the first room and she quickly changed us to another. She was very accommodating.Some pictures of this hotel are old. Since then, the rooms have been remodeled and are very nice and a great deal for the price! Stay was overall great. I would highly recommend!</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r269569504-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>269569504</t>
+  </si>
+  <si>
+    <t>05/02/2015</t>
+  </si>
+  <si>
+    <t>Don't sleep there</t>
+  </si>
+  <si>
+    <t>Smelled of smoke the minute you walked in and they also messed up our reservation. We booked a month in advance for a double bed and they lied about the price they gave us. Would not recommend it unless you're okay with it.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r268428381-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>268428381</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>Piss poor service</t>
+  </si>
+  <si>
+    <t>If you are about cleanliness well this is not the place for you!!! We had been driving for 14hrs only to find someone else's urine on the mattress pad not to mention hair fibers and nasty sheets. We complained to the clerk and he brought up a change of sheets which we just as nasty as the ones already on the bed....we asked for another room and he said we got the last one and he would leave a note for the manager in the morning. Upon check out we tried to discuss the condition of or room but was shut down with a rude response of no one left a note of your complaint.....We will never stay in this sleep inn again.....MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>If you are about cleanliness well this is not the place for you!!! We had been driving for 14hrs only to find someone else's urine on the mattress pad not to mention hair fibers and nasty sheets. We complained to the clerk and he brought up a change of sheets which we just as nasty as the ones already on the bed....we asked for another room and he said we got the last one and he would leave a note for the manager in the morning. Upon check out we tried to discuss the condition of or room but was shut down with a rude response of no one left a note of your complaint.....We will never stay in this sleep inn again.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r250381945-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>250381945</t>
+  </si>
+  <si>
+    <t>01/21/2015</t>
+  </si>
+  <si>
+    <t>Horrible customer service!!!!!!!!</t>
+  </si>
+  <si>
+    <t>I am a pretty easy going person who NEVER complains because I own a tour company and understand to expect the unexpected when it comes to travel. My friend and I stayed here the night of the college football national championship game. After a LONG day driving--we looked forward to checking in, taking a shower, and going to the concert and game. Although check in was at 3pm...we arrived just before 3pm and they said our room was not ready. That was fair because it was not quite 3pm. No big deal, so we walked to the bar/restaurant next door in the parking lot to waste time so we could later check in and take a shower. We called the hotel at 3:15pm and she said it would be AT LEAST another hour before our room was ready. So we again wasted another hour at the restaurant just waiting for the room to be ready.  We walked back at 4:30pm, knowing that--for sure--our room was ready by now. WRONG! They said it might be yet another hour! If we had waited any longer, we would have missed the pre-game concert. Bottom line... we had ONE day to enjoy the national championship..and we wasted it waiting around for our hotel room to be ready. So my friend and I got ready in the BATHROOM LOBBY of the hotel and had to go to the game without a shower, which was awful...I am a pretty easy going person who NEVER complains because I own a tour company and understand to expect the unexpected when it comes to travel. My friend and I stayed here the night of the college football national championship game. After a LONG day driving--we looked forward to checking in, taking a shower, and going to the concert and game. Although check in was at 3pm...we arrived just before 3pm and they said our room was not ready. That was fair because it was not quite 3pm. No big deal, so we walked to the bar/restaurant next door in the parking lot to waste time so we could later check in and take a shower. We called the hotel at 3:15pm and she said it would be AT LEAST another hour before our room was ready. So we again wasted another hour at the restaurant just waiting for the room to be ready.  We walked back at 4:30pm, knowing that--for sure--our room was ready by now. WRONG! They said it might be yet another hour! If we had waited any longer, we would have missed the pre-game concert. Bottom line... we had ONE day to enjoy the national championship..and we wasted it waiting around for our hotel room to be ready. So my friend and I got ready in the BATHROOM LOBBY of the hotel and had to go to the game without a shower, which was awful because we had spent all day driving down to Texas. When we complained to the hotel, they said to complain to travelocity, because we didn't book with them. I called travelocity, who basically called the hotel while I waited on the line. Travelocity said the hotel was not willing to do anything for our inconvenience.  Even the girl at Travelocity thought that was awful.  We didn't even get an apology. I understand that some times things happen that are out of their control, but this place does not care to make it right to the customer. That is just bad business. I am a tour operator who brings tons of group business to Arlington and had looked forward to checking out a new property to bring our student groups to who go to Six Flags. Too bad they just lost their chance for lots of future business!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>I am a pretty easy going person who NEVER complains because I own a tour company and understand to expect the unexpected when it comes to travel. My friend and I stayed here the night of the college football national championship game. After a LONG day driving--we looked forward to checking in, taking a shower, and going to the concert and game. Although check in was at 3pm...we arrived just before 3pm and they said our room was not ready. That was fair because it was not quite 3pm. No big deal, so we walked to the bar/restaurant next door in the parking lot to waste time so we could later check in and take a shower. We called the hotel at 3:15pm and she said it would be AT LEAST another hour before our room was ready. So we again wasted another hour at the restaurant just waiting for the room to be ready.  We walked back at 4:30pm, knowing that--for sure--our room was ready by now. WRONG! They said it might be yet another hour! If we had waited any longer, we would have missed the pre-game concert. Bottom line... we had ONE day to enjoy the national championship..and we wasted it waiting around for our hotel room to be ready. So my friend and I got ready in the BATHROOM LOBBY of the hotel and had to go to the game without a shower, which was awful...I am a pretty easy going person who NEVER complains because I own a tour company and understand to expect the unexpected when it comes to travel. My friend and I stayed here the night of the college football national championship game. After a LONG day driving--we looked forward to checking in, taking a shower, and going to the concert and game. Although check in was at 3pm...we arrived just before 3pm and they said our room was not ready. That was fair because it was not quite 3pm. No big deal, so we walked to the bar/restaurant next door in the parking lot to waste time so we could later check in and take a shower. We called the hotel at 3:15pm and she said it would be AT LEAST another hour before our room was ready. So we again wasted another hour at the restaurant just waiting for the room to be ready.  We walked back at 4:30pm, knowing that--for sure--our room was ready by now. WRONG! They said it might be yet another hour! If we had waited any longer, we would have missed the pre-game concert. Bottom line... we had ONE day to enjoy the national championship..and we wasted it waiting around for our hotel room to be ready. So my friend and I got ready in the BATHROOM LOBBY of the hotel and had to go to the game without a shower, which was awful because we had spent all day driving down to Texas. When we complained to the hotel, they said to complain to travelocity, because we didn't book with them. I called travelocity, who basically called the hotel while I waited on the line. Travelocity said the hotel was not willing to do anything for our inconvenience.  Even the girl at Travelocity thought that was awful.  We didn't even get an apology. I understand that some times things happen that are out of their control, but this place does not care to make it right to the customer. That is just bad business. I am a tour operator who brings tons of group business to Arlington and had looked forward to checking out a new property to bring our student groups to who go to Six Flags. Too bad they just lost their chance for lots of future business!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r248456159-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>248456159</t>
+  </si>
+  <si>
+    <t>01/09/2015</t>
+  </si>
+  <si>
+    <t>Omg!</t>
+  </si>
+  <si>
+    <t>OK so I stayed here for Christmas and let me tell u I was livid. We checked in and the bed was made room was nice n shower was amazing. Sad part is the sheets we're dirty bed was full if pubuc hair, semen and more! We complained! They quickly fixed the problem and even gave us a free night. The staff was amazing too!</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r247069423-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>247069423</t>
+  </si>
+  <si>
+    <t>01/02/2015</t>
+  </si>
+  <si>
+    <t>The rooms need improvement!</t>
+  </si>
+  <si>
+    <t>The staff was nice and friendly, the location is great but..the rooms are small and need to be remodeled. The rooms were clean enough for my standards. Plenty of parking around the building. Was an okay stay.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r243985161-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>243985161</t>
+  </si>
+  <si>
+    <t>12/11/2014</t>
+  </si>
+  <si>
+    <t>Very satisfying...</t>
+  </si>
+  <si>
+    <t>Had a very enjoyable stay at this hotel. The front desk staff was extremely nice and knowledgeable all the way to the manager. The complimentary breakfast was a breath of fresh air from the NORMAL breakfasts we've seen at other hotels.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r238355945-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>238355945</t>
+  </si>
+  <si>
+    <t>11/05/2014</t>
+  </si>
+  <si>
+    <t>Real bad</t>
+  </si>
+  <si>
+    <t>Stayed one night. Front desk people not friendly didn't care to look at customers. The sheets had stains, the breakfast bar blew a fuse and people had to wait for anything to eat. The door of the bathroom would not come out of the wall and maintenance had to come fix it took 45 min. Windows do not lock and no screens.  Stayed because of closeness to six flags but will not stay again.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r234626128-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>234626128</t>
+  </si>
+  <si>
+    <t>10/15/2014</t>
+  </si>
+  <si>
+    <t>Location Location Location</t>
+  </si>
+  <si>
+    <t>Nice Breakfast, Helpful staff good restaurants in the area Six Flags across the road.The only negative I have is the smoking smell throughout the Motel.Good value for money. Near the DFW airport.Near AT&amp;T stadium home of the Dallas Cowboys.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r225734054-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>225734054</t>
+  </si>
+  <si>
+    <t>08/31/2014</t>
+  </si>
+  <si>
+    <t>Roach motel...literally!</t>
+  </si>
+  <si>
+    <t>I have stayed in some bad hotels and I've never complained, but this time, I can't keep quiet. I can not believe the conditions of this hotel and I know that choice hotels has a higher standard than this.  The website says it is under renovations, but the hotel was dirty. Stains on the carpet, stains on the wall and the first thing I saw when I walked in the room was a dead bug laying on the desk. And that's where it started...bugs on the walls, in the bathroom, on the chairs. And I have the pictures to prove it. The first night we put up with it because we only saw a couple and because of the event we were there for, all the hotels in the area were booked. The second night, we couldn't stay any longer when my husband turned on the light in the bathroom and bugs scattered everywhere. We packed immediately and checked out. 
+After the first night, we tried to tell the front desk (who seemed nice enough) but she didn't seem to care. She also did not honor the rate we had been quoted on the reservation. Fortunately, after a phone call to customer relations, that was straightened out. Thank goodness I had the e-mails to prove it.
+We drove home (4 hours) at 2:00 am. because this motel was so bad. Unless they make some major changes I would NOT recommend...I have stayed in some bad hotels and I've never complained, but this time, I can't keep quiet. I can not believe the conditions of this hotel and I know that choice hotels has a higher standard than this.  The website says it is under renovations, but the hotel was dirty. Stains on the carpet, stains on the wall and the first thing I saw when I walked in the room was a dead bug laying on the desk. And that's where it started...bugs on the walls, in the bathroom, on the chairs. And I have the pictures to prove it. The first night we put up with it because we only saw a couple and because of the event we were there for, all the hotels in the area were booked. The second night, we couldn't stay any longer when my husband turned on the light in the bathroom and bugs scattered everywhere. We packed immediately and checked out. After the first night, we tried to tell the front desk (who seemed nice enough) but she didn't seem to care. She also did not honor the rate we had been quoted on the reservation. Fortunately, after a phone call to customer relations, that was straightened out. Thank goodness I had the e-mails to prove it.We drove home (4 hours) at 2:00 am. because this motel was so bad. Unless they make some major changes I would NOT recommend this place at all. I had to give them a one star because I couldn't rate them without it.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>I have stayed in some bad hotels and I've never complained, but this time, I can't keep quiet. I can not believe the conditions of this hotel and I know that choice hotels has a higher standard than this.  The website says it is under renovations, but the hotel was dirty. Stains on the carpet, stains on the wall and the first thing I saw when I walked in the room was a dead bug laying on the desk. And that's where it started...bugs on the walls, in the bathroom, on the chairs. And I have the pictures to prove it. The first night we put up with it because we only saw a couple and because of the event we were there for, all the hotels in the area were booked. The second night, we couldn't stay any longer when my husband turned on the light in the bathroom and bugs scattered everywhere. We packed immediately and checked out. 
+After the first night, we tried to tell the front desk (who seemed nice enough) but she didn't seem to care. She also did not honor the rate we had been quoted on the reservation. Fortunately, after a phone call to customer relations, that was straightened out. Thank goodness I had the e-mails to prove it.
+We drove home (4 hours) at 2:00 am. because this motel was so bad. Unless they make some major changes I would NOT recommend...I have stayed in some bad hotels and I've never complained, but this time, I can't keep quiet. I can not believe the conditions of this hotel and I know that choice hotels has a higher standard than this.  The website says it is under renovations, but the hotel was dirty. Stains on the carpet, stains on the wall and the first thing I saw when I walked in the room was a dead bug laying on the desk. And that's where it started...bugs on the walls, in the bathroom, on the chairs. And I have the pictures to prove it. The first night we put up with it because we only saw a couple and because of the event we were there for, all the hotels in the area were booked. The second night, we couldn't stay any longer when my husband turned on the light in the bathroom and bugs scattered everywhere. We packed immediately and checked out. After the first night, we tried to tell the front desk (who seemed nice enough) but she didn't seem to care. She also did not honor the rate we had been quoted on the reservation. Fortunately, after a phone call to customer relations, that was straightened out. Thank goodness I had the e-mails to prove it.We drove home (4 hours) at 2:00 am. because this motel was so bad. Unless they make some major changes I would NOT recommend this place at all. I had to give them a one star because I couldn't rate them without it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r223195398-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>223195398</t>
+  </si>
+  <si>
+    <t>08/20/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where are the Maids?? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worse I've ever seen! Starting with outside. DirtyInside, it looked like the floors have not been vacuumed in a month. Our bed room, not sure if the sheets on the beds were washed and the floors were just as dirty as anywhere else in the hotel. Someone left a big surprise in the toilet and took three times to flush. Windows were so glazed you couldn't see out side. Front desk service was ok. Never saw any cleaning personnel. I won't go back there!!  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r221974709-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>221974709</t>
+  </si>
+  <si>
+    <t>08/15/2014</t>
+  </si>
+  <si>
+    <t>One of the worst stays ever</t>
+  </si>
+  <si>
+    <t>Where do I begin?  I will just make a list for you of all that went wrong:
+1. Booked a room with two queens and got two fulls
+2. Room was not cleaned, just bed made, trash stayed overflowing
+3. Half of the promised breakfast items were not provided, including water!
+4. The bathroom door would not close all the way or even lock!
+5. The toilet broke and there was no one on staff to fix it...this happened in both our rooms
+6. No Manager or maintenance on duty to help
+7. Had to go down to get towels since they did not restock the room and had no one to bring them up to us!
+8. Business center printer not working properly and everyone was trying to use it
+9. Most of front desk staff was not friendly at all and not qualified in customer service
+10. The hotel was under partial construction so it smelled of pain fumes
+11. Pool was closed with no notice
+12. The hotel itself was dirty
+13. Not one staff member or manager would take responsibility or even really apologize!
+14. One of our rooms had many bug issues and the shower broke the last day too.
+15. Elevators did not work at all on Saturday!
+FYI, I was with a convention and we sold out the hotel, so you would think they would be prepared with proper staff, towels, the pool...Where do I begin?  I will just make a list for you of all that went wrong:1. Booked a room with two queens and got two fulls2. Room was not cleaned, just bed made, trash stayed overflowing3. Half of the promised breakfast items were not provided, including water!4. The bathroom door would not close all the way or even lock!5. The toilet broke and there was no one on staff to fix it...this happened in both our rooms6. No Manager or maintenance on duty to help7. Had to go down to get towels since they did not restock the room and had no one to bring them up to us!8. Business center printer not working properly and everyone was trying to use it9. Most of front desk staff was not friendly at all and not qualified in customer service10. The hotel was under partial construction so it smelled of pain fumes11. Pool was closed with no notice12. The hotel itself was dirty13. Not one staff member or manager would take responsibility or even really apologize!14. One of our rooms had many bug issues and the shower broke the last day too.15. Elevators did not work at all on Saturday!FYI, I was with a convention and we sold out the hotel, so you would think they would be prepared with proper staff, towels, the pool fixed, etc.  Even after Day 1, they ran out of fruit and did not restock it!  I have a background in Hospitality and travel often and have never experienced something like this!  My company comes to town every year too!  On the positive side, if you are going to Six Flags or any of the stadiums, it is a convenient location.  Across the street from Six Flags and 1.6 miles from the Cowboys stadium.  Also, they charged us $92/night!!!  And that was for queen beds, which we did not get.  The room did have a working microwave, tv and refrigerator, thank goodness!  If I had to find a positive.MoreShow less</t>
+  </si>
+  <si>
+    <t>Where do I begin?  I will just make a list for you of all that went wrong:
+1. Booked a room with two queens and got two fulls
+2. Room was not cleaned, just bed made, trash stayed overflowing
+3. Half of the promised breakfast items were not provided, including water!
+4. The bathroom door would not close all the way or even lock!
+5. The toilet broke and there was no one on staff to fix it...this happened in both our rooms
+6. No Manager or maintenance on duty to help
+7. Had to go down to get towels since they did not restock the room and had no one to bring them up to us!
+8. Business center printer not working properly and everyone was trying to use it
+9. Most of front desk staff was not friendly at all and not qualified in customer service
+10. The hotel was under partial construction so it smelled of pain fumes
+11. Pool was closed with no notice
+12. The hotel itself was dirty
+13. Not one staff member or manager would take responsibility or even really apologize!
+14. One of our rooms had many bug issues and the shower broke the last day too.
+15. Elevators did not work at all on Saturday!
+FYI, I was with a convention and we sold out the hotel, so you would think they would be prepared with proper staff, towels, the pool...Where do I begin?  I will just make a list for you of all that went wrong:1. Booked a room with two queens and got two fulls2. Room was not cleaned, just bed made, trash stayed overflowing3. Half of the promised breakfast items were not provided, including water!4. The bathroom door would not close all the way or even lock!5. The toilet broke and there was no one on staff to fix it...this happened in both our rooms6. No Manager or maintenance on duty to help7. Had to go down to get towels since they did not restock the room and had no one to bring them up to us!8. Business center printer not working properly and everyone was trying to use it9. Most of front desk staff was not friendly at all and not qualified in customer service10. The hotel was under partial construction so it smelled of pain fumes11. Pool was closed with no notice12. The hotel itself was dirty13. Not one staff member or manager would take responsibility or even really apologize!14. One of our rooms had many bug issues and the shower broke the last day too.15. Elevators did not work at all on Saturday!FYI, I was with a convention and we sold out the hotel, so you would think they would be prepared with proper staff, towels, the pool fixed, etc.  Even after Day 1, they ran out of fruit and did not restock it!  I have a background in Hospitality and travel often and have never experienced something like this!  My company comes to town every year too!  On the positive side, if you are going to Six Flags or any of the stadiums, it is a convenient location.  Across the street from Six Flags and 1.6 miles from the Cowboys stadium.  Also, they charged us $92/night!!!  And that was for queen beds, which we did not get.  The room did have a working microwave, tv and refrigerator, thank goodness!  If I had to find a positive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r205238452-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>205238452</t>
+  </si>
+  <si>
+    <t>05/12/2014</t>
+  </si>
+  <si>
+    <t>Close to everything, great value.</t>
+  </si>
+  <si>
+    <t>Recently stayed for a weekend to see the Red Sox vs. Rangers and a day at Six Flags. Hotel is across the street from Six Flags in a very quiet area.The Ballpark is about a 15 minute walk, there is also a trolley that stops in the back of the hotel, passes are available at front desk. We walked. Never used a car for the three days we were there.There's Subway and Denny's within a five minute walk and Humperdink's across the parking lot. I'm sure theres much more too, but that's what we used.  Although the Hotel is considered basic, you have everything one would need to have an enjoyable stay. Free breakfast with your staples, plus you can make some awesome Texas waffles. Room was good. We needed a place to crash after baseball and Six Flags, our room was fine. AC was nice and cool. Shower was good. Rooms have Fridge, microwave and coffee maker.Theres a pool. Noise was probably what it is at any hotel, the sound of the AC took care of it anyway. Front desk was helpful getting us adjoining rooms and securing cabs to airport. Check in was fine, felt bad that they only had one person working at busy check in time.  We enjoyed our stay and hope to be back again. We did NOT experience any issues due to renovations.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Recently stayed for a weekend to see the Red Sox vs. Rangers and a day at Six Flags. Hotel is across the street from Six Flags in a very quiet area.The Ballpark is about a 15 minute walk, there is also a trolley that stops in the back of the hotel, passes are available at front desk. We walked. Never used a car for the three days we were there.There's Subway and Denny's within a five minute walk and Humperdink's across the parking lot. I'm sure theres much more too, but that's what we used.  Although the Hotel is considered basic, you have everything one would need to have an enjoyable stay. Free breakfast with your staples, plus you can make some awesome Texas waffles. Room was good. We needed a place to crash after baseball and Six Flags, our room was fine. AC was nice and cool. Shower was good. Rooms have Fridge, microwave and coffee maker.Theres a pool. Noise was probably what it is at any hotel, the sound of the AC took care of it anyway. Front desk was helpful getting us adjoining rooms and securing cabs to airport. Check in was fine, felt bad that they only had one person working at busy check in time.  We enjoyed our stay and hope to be back again. We did NOT experience any issues due to renovations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r196012717-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>196012717</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>Overall Positive experience</t>
+  </si>
+  <si>
+    <t>After reviewing hotel locations close to ATT Stadium on a map I chose this place because of location. I thought it was well within walking distance as I was there to attend the rodeo on 3-1-14 and hoped to be close enough. As most hotels in the area were full I booked a room.  I had not reviewed Trip Advisor as I normally would so I didn't see reviews until after I booked the room. I had never been to this area so I arrived early before the crowds to familiarize myself with it. When I located the hotel I didn't think it was close enough to walk especially on an unusually warm day in the eighties. I went in and looked around and yes it was under renovation. I left to consider my options and decided I didn't want to stay there as my rationale for spending $100 on the room was that I was going to save $35.00 on parking at the stadium. When I called to cancel I was put on hold. I just looked at my cell phone call info. and the duration before I hung up was 18 min. and 45 seconds and started at 3:50 p.m. I waited awhile and called back to cancel and when I did I was told they would not cancel a reservation after 4:00 p.m. and if I didn't show up my credit card would be billed. The rodeo...After reviewing hotel locations close to ATT Stadium on a map I chose this place because of location. I thought it was well within walking distance as I was there to attend the rodeo on 3-1-14 and hoped to be close enough. As most hotels in the area were full I booked a room.  I had not reviewed Trip Advisor as I normally would so I didn't see reviews until after I booked the room. I had never been to this area so I arrived early before the crowds to familiarize myself with it. When I located the hotel I didn't think it was close enough to walk especially on an unusually warm day in the eighties. I went in and looked around and yes it was under renovation. I left to consider my options and decided I didn't want to stay there as my rationale for spending $100 on the room was that I was going to save $35.00 on parking at the stadium. When I called to cancel I was put on hold. I just looked at my cell phone call info. and the duration before I hung up was 18 min. and 45 seconds and started at 3:50 p.m. I waited awhile and called back to cancel and when I did I was told they would not cancel a reservation after 4:00 p.m. and if I didn't show up my credit card would be billed. The rodeo didn't get over until 10:30 p.m. so I returned to check in. At that time the desk personnel were very friendly and personable. It was after 11: p.m. by the time I settled in my room at which time I discovered there was no remote for the t.v. It was very busy as all of the rodeo fans were arriving so I went to the front desk to inquire about a remote. There was a new clerk and he said if he did not have one but if there were any rooms not occupied he would get one from there. A short time later he informed me all rooms were occupied and he apologized for the inconvenience caused. Other than that the room was good. The bed was very comfortable. Because of the work going on and the number of guests there breakfast in the morning was a bit hectic but I will say the woman servicing that area did a great job in keeping all of the numerous items filled and I was actually surprised with selection. From hard boiled eggs to sausage biscuits, juice, bagels, cereal it was good. I would definitely stay there again if for no other reason the staff was very nice to me under the circumstances and I am sure the cancellation issue was purely a corporate policy thing.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Lori A, General Manager at Sleep Inn Arlington Near Six Flags, responded to this reviewResponded March 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2014</t>
+  </si>
+  <si>
+    <t>After reviewing hotel locations close to ATT Stadium on a map I chose this place because of location. I thought it was well within walking distance as I was there to attend the rodeo on 3-1-14 and hoped to be close enough. As most hotels in the area were full I booked a room.  I had not reviewed Trip Advisor as I normally would so I didn't see reviews until after I booked the room. I had never been to this area so I arrived early before the crowds to familiarize myself with it. When I located the hotel I didn't think it was close enough to walk especially on an unusually warm day in the eighties. I went in and looked around and yes it was under renovation. I left to consider my options and decided I didn't want to stay there as my rationale for spending $100 on the room was that I was going to save $35.00 on parking at the stadium. When I called to cancel I was put on hold. I just looked at my cell phone call info. and the duration before I hung up was 18 min. and 45 seconds and started at 3:50 p.m. I waited awhile and called back to cancel and when I did I was told they would not cancel a reservation after 4:00 p.m. and if I didn't show up my credit card would be billed. The rodeo...After reviewing hotel locations close to ATT Stadium on a map I chose this place because of location. I thought it was well within walking distance as I was there to attend the rodeo on 3-1-14 and hoped to be close enough. As most hotels in the area were full I booked a room.  I had not reviewed Trip Advisor as I normally would so I didn't see reviews until after I booked the room. I had never been to this area so I arrived early before the crowds to familiarize myself with it. When I located the hotel I didn't think it was close enough to walk especially on an unusually warm day in the eighties. I went in and looked around and yes it was under renovation. I left to consider my options and decided I didn't want to stay there as my rationale for spending $100 on the room was that I was going to save $35.00 on parking at the stadium. When I called to cancel I was put on hold. I just looked at my cell phone call info. and the duration before I hung up was 18 min. and 45 seconds and started at 3:50 p.m. I waited awhile and called back to cancel and when I did I was told they would not cancel a reservation after 4:00 p.m. and if I didn't show up my credit card would be billed. The rodeo didn't get over until 10:30 p.m. so I returned to check in. At that time the desk personnel were very friendly and personable. It was after 11: p.m. by the time I settled in my room at which time I discovered there was no remote for the t.v. It was very busy as all of the rodeo fans were arriving so I went to the front desk to inquire about a remote. There was a new clerk and he said if he did not have one but if there were any rooms not occupied he would get one from there. A short time later he informed me all rooms were occupied and he apologized for the inconvenience caused. Other than that the room was good. The bed was very comfortable. Because of the work going on and the number of guests there breakfast in the morning was a bit hectic but I will say the woman servicing that area did a great job in keeping all of the numerous items filled and I was actually surprised with selection. From hard boiled eggs to sausage biscuits, juice, bagels, cereal it was good. I would definitely stay there again if for no other reason the staff was very nice to me under the circumstances and I am sure the cancellation issue was purely a corporate policy thing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r194439637-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>194439637</t>
+  </si>
+  <si>
+    <t>02/17/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel, currently under renovations</t>
+  </si>
+  <si>
+    <t>Overall, this is a very nice Sleep Inn. When we arrived, the check-in process was very fast, and the lady at the front desk was very nice. The room was comfortable and clean, and a decent size. There was a fridge/freezer, and a nice flatscreen television which worked great. 
+As other reviewers have mentioned, the location is fantastic (across the street from Six Flags, easy access to AT&amp;T (Cowboys) stadium or the Texas Rangers' baseball field, etc.). The prices are great and it's a very good value.
+When we woke up in the morning, the breakfast was decent (a fairly typical Sleep Inn/Quality Inn breakfast, with good quality food). The front desk staff took time out to give us tips and directions for things to do during terrible weather (temperatures below freezing and snow!!) in Arlington, which was greatly appreciated.
+The only issue was that the hotel is currently being renovated, and thus the eating area for breakfast is very small, other parts of the hotel (e.g. exercise facility) are closed and there are plastic cover sheets over the outside of the windows. However, I do think they'll be finished with this in the near future. If it wasn't for the renovations going on currently, I'd give this hotel a 5/5 - and I'm sure it'll be a 5/5 facility once the renovations are complete.
+Overall, I'd recommend this hotel to anyone who needs a place to stay near AT&amp;T...Overall, this is a very nice Sleep Inn. When we arrived, the check-in process was very fast, and the lady at the front desk was very nice. The room was comfortable and clean, and a decent size. There was a fridge/freezer, and a nice flatscreen television which worked great. As other reviewers have mentioned, the location is fantastic (across the street from Six Flags, easy access to AT&amp;T (Cowboys) stadium or the Texas Rangers' baseball field, etc.). The prices are great and it's a very good value.When we woke up in the morning, the breakfast was decent (a fairly typical Sleep Inn/Quality Inn breakfast, with good quality food). The front desk staff took time out to give us tips and directions for things to do during terrible weather (temperatures below freezing and snow!!) in Arlington, which was greatly appreciated.The only issue was that the hotel is currently being renovated, and thus the eating area for breakfast is very small, other parts of the hotel (e.g. exercise facility) are closed and there are plastic cover sheets over the outside of the windows. However, I do think they'll be finished with this in the near future. If it wasn't for the renovations going on currently, I'd give this hotel a 5/5 - and I'm sure it'll be a 5/5 facility once the renovations are complete.Overall, I'd recommend this hotel to anyone who needs a place to stay near AT&amp;T Stadium or Six Flags. If you bring your own vehicle, make sure you register the license plate and get a placard, or it may get towed (I guess they have problems with people parking to go to Six Flags).Pros: Excellent staff, clean facility, comfortable rooms, good breakfast, great location.Cons: Currently under renovations.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Overall, this is a very nice Sleep Inn. When we arrived, the check-in process was very fast, and the lady at the front desk was very nice. The room was comfortable and clean, and a decent size. There was a fridge/freezer, and a nice flatscreen television which worked great. 
+As other reviewers have mentioned, the location is fantastic (across the street from Six Flags, easy access to AT&amp;T (Cowboys) stadium or the Texas Rangers' baseball field, etc.). The prices are great and it's a very good value.
+When we woke up in the morning, the breakfast was decent (a fairly typical Sleep Inn/Quality Inn breakfast, with good quality food). The front desk staff took time out to give us tips and directions for things to do during terrible weather (temperatures below freezing and snow!!) in Arlington, which was greatly appreciated.
+The only issue was that the hotel is currently being renovated, and thus the eating area for breakfast is very small, other parts of the hotel (e.g. exercise facility) are closed and there are plastic cover sheets over the outside of the windows. However, I do think they'll be finished with this in the near future. If it wasn't for the renovations going on currently, I'd give this hotel a 5/5 - and I'm sure it'll be a 5/5 facility once the renovations are complete.
+Overall, I'd recommend this hotel to anyone who needs a place to stay near AT&amp;T...Overall, this is a very nice Sleep Inn. When we arrived, the check-in process was very fast, and the lady at the front desk was very nice. The room was comfortable and clean, and a decent size. There was a fridge/freezer, and a nice flatscreen television which worked great. As other reviewers have mentioned, the location is fantastic (across the street from Six Flags, easy access to AT&amp;T (Cowboys) stadium or the Texas Rangers' baseball field, etc.). The prices are great and it's a very good value.When we woke up in the morning, the breakfast was decent (a fairly typical Sleep Inn/Quality Inn breakfast, with good quality food). The front desk staff took time out to give us tips and directions for things to do during terrible weather (temperatures below freezing and snow!!) in Arlington, which was greatly appreciated.The only issue was that the hotel is currently being renovated, and thus the eating area for breakfast is very small, other parts of the hotel (e.g. exercise facility) are closed and there are plastic cover sheets over the outside of the windows. However, I do think they'll be finished with this in the near future. If it wasn't for the renovations going on currently, I'd give this hotel a 5/5 - and I'm sure it'll be a 5/5 facility once the renovations are complete.Overall, I'd recommend this hotel to anyone who needs a place to stay near AT&amp;T Stadium or Six Flags. If you bring your own vehicle, make sure you register the license plate and get a placard, or it may get towed (I guess they have problems with people parking to go to Six Flags).Pros: Excellent staff, clean facility, comfortable rooms, good breakfast, great location.Cons: Currently under renovations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r180111500-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>180111500</t>
+  </si>
+  <si>
+    <t>10/07/2013</t>
+  </si>
+  <si>
+    <t>Very affordable....  clean...  great staff, near everything</t>
+  </si>
+  <si>
+    <t>Needed to stay in Arlington for a night.....  choice hotels, sleep inn, excellent chain, very consistent, sleep inns are always nice, affordable, and this hotel was very nice, morning breakfast, free parking and free internetMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Lori A, General Manager at Sleep Inn Arlington Near Six Flags, responded to this reviewResponded October 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2013</t>
+  </si>
+  <si>
+    <t>Needed to stay in Arlington for a night.....  choice hotels, sleep inn, excellent chain, very consistent, sleep inns are always nice, affordable, and this hotel was very nice, morning breakfast, free parking and free internetMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r178853312-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>178853312</t>
+  </si>
+  <si>
+    <t>09/27/2013</t>
+  </si>
+  <si>
+    <t>Location, Location, Location</t>
+  </si>
+  <si>
+    <t>OK hotel but the location makes up for any short comings. Near.  Flags, stadium, convention center, etc. Staff really great, especially the manager. Rooms are small in the Sleep Inn no frills style. But hotel would be one we would stay at again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r175553990-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>175553990</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Full House</t>
+  </si>
+  <si>
+    <t>I was travelling with a group of college students and stayed at this location on the Friday night of Labor Day weekend.  The place was completely full - lots of folks in town like we were, for a private party at Six Flags.  Others were in town for the big football game at the Cowboys place.I must be honest, I was little nervous after reading some of the reviews.  My fears have been erased.  The folks at the front desk were quick to chekc us in and accomodating with the extra items we needed.  The room was nice - and about right for the price range.  The location was perfect for baseball or the amusement park.  I would not hesitate to stay again.The only issue I saw was the incredible amount of people trying to eat breakfast at the same time.  That's not the fault of the hotel.  As a matter of fact, that just means they had a very good weekend.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>I was travelling with a group of college students and stayed at this location on the Friday night of Labor Day weekend.  The place was completely full - lots of folks in town like we were, for a private party at Six Flags.  Others were in town for the big football game at the Cowboys place.I must be honest, I was little nervous after reading some of the reviews.  My fears have been erased.  The folks at the front desk were quick to chekc us in and accomodating with the extra items we needed.  The room was nice - and about right for the price range.  The location was perfect for baseball or the amusement park.  I would not hesitate to stay again.The only issue I saw was the incredible amount of people trying to eat breakfast at the same time.  That's not the fault of the hotel.  As a matter of fact, that just means they had a very good weekend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r170025859-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>170025859</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>horrible experience</t>
+  </si>
+  <si>
+    <t>we recently stay at this location and the experience was horrible.  It is at a very convenient location but the staff and service just makes it a bad place to stay.  After hours of driving, we got there around 5 minutes early and we couldn't check in and had to wait.  The employee (Amanda) was very arrogant as if she was paying for my stay.  She ignored me for a while and at the end out of the three rooms that I booked they only had one ready and I had to wait almost 30 minutes for the other two.  Finally, she gave us the rooms but the rooms were dirty and smelled awful.  I went to go let them know and I got to talk to the manager Lori Alfaro and that was even worst.  She never apologized and kept on arguing with me trying to defend her position but she forgot that I was the customer and she was no one only the person running the circus because she never had control of the situation. The stay was a nightmare and kept hearing all the negative comments that people were making.  They even gave one room to two different families so at all times I was worried that they were going to give my room away to some one else.  (I had a lot of things in this room)  That manager Alfaro has no sense of customer service...we recently stay at this location and the experience was horrible.  It is at a very convenient location but the staff and service just makes it a bad place to stay.  After hours of driving, we got there around 5 minutes early and we couldn't check in and had to wait.  The employee (Amanda) was very arrogant as if she was paying for my stay.  She ignored me for a while and at the end out of the three rooms that I booked they only had one ready and I had to wait almost 30 minutes for the other two.  Finally, she gave us the rooms but the rooms were dirty and smelled awful.  I went to go let them know and I got to talk to the manager Lori Alfaro and that was even worst.  She never apologized and kept on arguing with me trying to defend her position but she forgot that I was the customer and she was no one only the person running the circus because she never had control of the situation. The stay was a nightmare and kept hearing all the negative comments that people were making.  They even gave one room to two different families so at all times I was worried that they were going to give my room away to some one else.  (I had a lot of things in this room)  That manager Alfaro has no sense of customer service and employee management she needs some classes or needs to get fired because is ridiculous how many issues this location has.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>we recently stay at this location and the experience was horrible.  It is at a very convenient location but the staff and service just makes it a bad place to stay.  After hours of driving, we got there around 5 minutes early and we couldn't check in and had to wait.  The employee (Amanda) was very arrogant as if she was paying for my stay.  She ignored me for a while and at the end out of the three rooms that I booked they only had one ready and I had to wait almost 30 minutes for the other two.  Finally, she gave us the rooms but the rooms were dirty and smelled awful.  I went to go let them know and I got to talk to the manager Lori Alfaro and that was even worst.  She never apologized and kept on arguing with me trying to defend her position but she forgot that I was the customer and she was no one only the person running the circus because she never had control of the situation. The stay was a nightmare and kept hearing all the negative comments that people were making.  They even gave one room to two different families so at all times I was worried that they were going to give my room away to some one else.  (I had a lot of things in this room)  That manager Alfaro has no sense of customer service...we recently stay at this location and the experience was horrible.  It is at a very convenient location but the staff and service just makes it a bad place to stay.  After hours of driving, we got there around 5 minutes early and we couldn't check in and had to wait.  The employee (Amanda) was very arrogant as if she was paying for my stay.  She ignored me for a while and at the end out of the three rooms that I booked they only had one ready and I had to wait almost 30 minutes for the other two.  Finally, she gave us the rooms but the rooms were dirty and smelled awful.  I went to go let them know and I got to talk to the manager Lori Alfaro and that was even worst.  She never apologized and kept on arguing with me trying to defend her position but she forgot that I was the customer and she was no one only the person running the circus because she never had control of the situation. The stay was a nightmare and kept hearing all the negative comments that people were making.  They even gave one room to two different families so at all times I was worried that they were going to give my room away to some one else.  (I had a lot of things in this room)  That manager Alfaro has no sense of customer service and employee management she needs some classes or needs to get fired because is ridiculous how many issues this location has.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r169073376-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>169073376</t>
+  </si>
+  <si>
+    <t>07/25/2013</t>
+  </si>
+  <si>
+    <t>Baseball trip.</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for the Rangers/Yankees baseball series and will not be returning. The first night back after the ball game we got into bed and noticed that our bedding was wet all the way down to the mattress! We had been out of the room all afternoon so we are not sure what it was. Of course it was late and no housekeeping was available but we were given clean sheets to change the bed ourselves. The breakfast area is too small for the amount of people they are trying to serve and only had 1 waffle maker, the juice machine was out of order. Our room was not cleaned the until our 3rd day there and we were told it was because the hotel was full. Yes the rates were the lowest for that area, but I learned my lesson! We were told we would get 10% off of our bill and only got $10 for our troubles.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for the Rangers/Yankees baseball series and will not be returning. The first night back after the ball game we got into bed and noticed that our bedding was wet all the way down to the mattress! We had been out of the room all afternoon so we are not sure what it was. Of course it was late and no housekeeping was available but we were given clean sheets to change the bed ourselves. The breakfast area is too small for the amount of people they are trying to serve and only had 1 waffle maker, the juice machine was out of order. Our room was not cleaned the until our 3rd day there and we were told it was because the hotel was full. Yes the rates were the lowest for that area, but I learned my lesson! We were told we would get 10% off of our bill and only got $10 for our troubles.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r166734447-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>166734447</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Great location for Six Flags, Cowboy and Ranger stadium.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only good thing about this hotel is the location, the breakfast and the front desk help name Latisha. The rooms are very small and filthy. Had to ask 4 times to have the room cleaned. Public bathrooms are nasty for a newly remodeled hotel. Super small pool and other guests complained if roaches and spider. However,there is a grwat full breakfast and Latisha was very helpful.  I got a deal on the room otherwise this it's not with a $100 a night. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r160623325-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>160623325</t>
+  </si>
+  <si>
+    <t>05/13/2013</t>
+  </si>
+  <si>
+    <t>Great Location Good Value</t>
+  </si>
+  <si>
+    <t>The hotel is in a great location... right across the street from Six Flags. It makes getting to the amusement park super easy. You can catch the free trolley which stops behind the hotel on a regular schedule, or just walk across to the entrance in about five minutes, thus saving on the parking fee at the park. The hotel has recently upgraded their free breakfast to include hot items (waffles, eggs, bacon, etc.) but the large number of people crowding the small dining area and the poor service in replenishing the food make the breakfast experience something less than memorable. The hotel staff is very helpful and friendly. The rooms are clean but have some maintenance issues (lights not working, etc.). But overall this hotel is a good value in a great location.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>The hotel is in a great location... right across the street from Six Flags. It makes getting to the amusement park super easy. You can catch the free trolley which stops behind the hotel on a regular schedule, or just walk across to the entrance in about five minutes, thus saving on the parking fee at the park. The hotel has recently upgraded their free breakfast to include hot items (waffles, eggs, bacon, etc.) but the large number of people crowding the small dining area and the poor service in replenishing the food make the breakfast experience something less than memorable. The hotel staff is very helpful and friendly. The rooms are clean but have some maintenance issues (lights not working, etc.). But overall this hotel is a good value in a great location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r157009693-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>157009693</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Great Price</t>
+  </si>
+  <si>
+    <t>We were attending an event at the Arlington convention center. The criteria for selection was least expensive and close to the venue! We just needed a place to sleep. Found this place on line and it was very reasonable. I read the reviews that made it sound horrible. Rude staff , not clean etc. We were pleasantly surprised when greeted at the front desk by a friendly clerk! She gave us instructions on Wi-Fi and the included breakfast for the morning.We went to the room, it was small! but adequate.The hotel wasn't spotless but adequate. If you just need a bed for a night this could be the spot!</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r155468876-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>155468876</t>
+  </si>
+  <si>
+    <t>03/23/2013</t>
+  </si>
+  <si>
+    <t>Great Value for the $$</t>
+  </si>
+  <si>
+    <t>This hotel is in a great location being right across the street from Six Flags, Right around the corner from Rangers Stadium and around the corner and down the street from Cowboy's Stadium. The room was clean, although a little small for more than 2 people. Breakfast is provided every morning and it was good. The best part about the stay at this hotel was Tonya. She was the clerk at the front desk in the evenings that we were there. She is SUPER friendly and extremely helpful. I wish all hotels had employees like her.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r152904413-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>152904413</t>
+  </si>
+  <si>
+    <t>02/23/2013</t>
+  </si>
+  <si>
+    <t>Fair value off-season</t>
+  </si>
+  <si>
+    <t>This is probably a good hotel when Six Flags is open, as it is literally directly across from it. But during the off-season it is fair at best. Very small lobby with a co punter on a little table. The exercise room was poor, and I had to go to the front desk to get the key to operate the machine.Room was clean, but outdated. Breakfast was fair. A decent value in February.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r145333809-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>145333809</t>
+  </si>
+  <si>
+    <t>11/13/2012</t>
+  </si>
+  <si>
+    <t>Great stay, good location! Quiet, clean and friendly.</t>
+  </si>
+  <si>
+    <t>I stayed for one night at this hotel. The location off the 360 freeway is great if you have to be at DFW in the AM. The hotel is also close to Six Flags, the Arlington Ball Park and the HUGH Cowboys stadium. I took the Cowboy's Stadium tour and LOVED IT!I tried to check in early (2:45PM) and was told that I would be charged $10 for the early checking (WHAT? Now hotels are getting as clever as the airline industry). So, I just went online for 15 minutes and checked my email. I found the hotel to be clean and very comfortable. The person that finally checked me in was very pleasant and kind. My room was atypical, but I found the shower to be just the right size, sink near the bed ok, Flat screen TV was at the righ height and my work desk was ok. CLoset space could be improved, but no biggie. My alarm clock didn't work, so I asked for a wake up call. IT DIDN"T HAPPEN. No sure who to blame, but when you have an early AM flight on a cheap airline, you have to arrived 2 hours before your flight. Overall, I would stay again at this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Lori A, General Manager at Sleep Inn Arlington Near Six Flags, responded to this reviewResponded November 15, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2012</t>
+  </si>
+  <si>
+    <t>I stayed for one night at this hotel. The location off the 360 freeway is great if you have to be at DFW in the AM. The hotel is also close to Six Flags, the Arlington Ball Park and the HUGH Cowboys stadium. I took the Cowboy's Stadium tour and LOVED IT!I tried to check in early (2:45PM) and was told that I would be charged $10 for the early checking (WHAT? Now hotels are getting as clever as the airline industry). So, I just went online for 15 minutes and checked my email. I found the hotel to be clean and very comfortable. The person that finally checked me in was very pleasant and kind. My room was atypical, but I found the shower to be just the right size, sink near the bed ok, Flat screen TV was at the righ height and my work desk was ok. CLoset space could be improved, but no biggie. My alarm clock didn't work, so I asked for a wake up call. IT DIDN"T HAPPEN. No sure who to blame, but when you have an early AM flight on a cheap airline, you have to arrived 2 hours before your flight. Overall, I would stay again at this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r144784080-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>144784080</t>
+  </si>
+  <si>
+    <t>11/06/2012</t>
+  </si>
+  <si>
+    <t>Getting a little rough around the edges.</t>
+  </si>
+  <si>
+    <t>I have been staying here for each of the past 10 years in October when I am in town on an annual business trip. It had always been a pleasant, high-quality stay up until recently. Two years ago, I noticed the lobby and hallways were showing signs of age but my room was still very clean &amp; comfortable. Last year, there was a little bit more wear &amp; tear even in the room itself. But it was still acceptable for a business trip. My most recent trip showed that the decline was going even further. Upon check-in I noticed the snack freezer next to the main desk was no longer in service. There was a lot of wear on all the carpeting. Even my non-smoking room smelled heavily of really cheap air freshener. And the air conditioner was noisy and would not shut off at all. The sink stopper was broken and the shower door would not stay open. I am wondering if the success of the Rangers and the fact that Cowboys Stadium is right down the street have contributed to the wear and tear. I heard it is under new management but unless they raise the standards a bit, they will have lost an old customer. If it weren't for prior stays, I might have had to bestow a lowly 2-star rating this time around! It's no flea-bag but it's time to shape up, for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>I have been staying here for each of the past 10 years in October when I am in town on an annual business trip. It had always been a pleasant, high-quality stay up until recently. Two years ago, I noticed the lobby and hallways were showing signs of age but my room was still very clean &amp; comfortable. Last year, there was a little bit more wear &amp; tear even in the room itself. But it was still acceptable for a business trip. My most recent trip showed that the decline was going even further. Upon check-in I noticed the snack freezer next to the main desk was no longer in service. There was a lot of wear on all the carpeting. Even my non-smoking room smelled heavily of really cheap air freshener. And the air conditioner was noisy and would not shut off at all. The sink stopper was broken and the shower door would not stay open. I am wondering if the success of the Rangers and the fact that Cowboys Stadium is right down the street have contributed to the wear and tear. I heard it is under new management but unless they raise the standards a bit, they will have lost an old customer. If it weren't for prior stays, I might have had to bestow a lowly 2-star rating this time around! It's no flea-bag but it's time to shape up, for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r138433608-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>138433608</t>
+  </si>
+  <si>
+    <t>08/26/2012</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>The rooms were clean, staff very friendly. My only complaint is one website showed an indoor pool, which there is not one. Only outdoor. Ate breakfast at 8:30 and they were out of milk. I let the staff know and they were on it. They had a trolley to and from Rangers game. Will definitely stay here next summer trip.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r136717498-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>136717498</t>
+  </si>
+  <si>
+    <t>08/09/2012</t>
+  </si>
+  <si>
+    <t>close to six flags.......but thats all</t>
+  </si>
+  <si>
+    <t>Great....that you can walk to six flags entrance. Great restuarant next door..Humperdinks....but the hotel....UGH!.   Carpet stained, walls dirty, hair in the shower, pool was green.......I tolerated it due to the closeness of Six Flags, our main reason for being there.  I suppose also the fact that we spent very little time in the room itself.  Had the price been more in sync with the quality, I probably wouldn't complain so much, but 4 star prices with no star quality.  The staff treated us well and there is a decent breakfast included, but it stops there!  Thank goodness for a Rangers game, Six Flags and Hurrican Harbour to keep us out most of the day!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Great....that you can walk to six flags entrance. Great restuarant next door..Humperdinks....but the hotel....UGH!.   Carpet stained, walls dirty, hair in the shower, pool was green.......I tolerated it due to the closeness of Six Flags, our main reason for being there.  I suppose also the fact that we spent very little time in the room itself.  Had the price been more in sync with the quality, I probably wouldn't complain so much, but 4 star prices with no star quality.  The staff treated us well and there is a decent breakfast included, but it stops there!  Thank goodness for a Rangers game, Six Flags and Hurrican Harbour to keep us out most of the day!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r136573873-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>136573873</t>
+  </si>
+  <si>
+    <t>08/08/2012</t>
+  </si>
+  <si>
+    <t>Decent Room</t>
+  </si>
+  <si>
+    <t>Hotel is close to Six Flags and Ranger Stadium but is still a long walk. Might as well find a cheaper room with the trolley service. Pool was shut down for maintenance which would have felt good after a long walk in 100 degree weather :( Rooms are decent. Bathrooms are very small. Daytime staff was very nice. Night man was very rude !</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r129253062-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>129253062</t>
+  </si>
+  <si>
+    <t>05/02/2012</t>
+  </si>
+  <si>
+    <t>Good Location average place</t>
+  </si>
+  <si>
+    <t>This is a good location near everything in Arlington both stadiums with trolley service, walk to Six Flags. Good restaurant next door. Rooms are average, everything is dated, TV's are old and not for those with bad eyesight. Breakfast is just below average but Denny's is close by along with a lot of fast food places. The staff is good management seems to be lacking though, always out of something. Check in early the late night auditor seems to wish he was someplace else and why are you bothering him. There not many pluses for staying here other than the location, I think they know this and are not too concerned about generating return business.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Robert M, General Manager at Sleep Inn Arlington Near Six Flags, responded to this reviewResponded May 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2012</t>
+  </si>
+  <si>
+    <t>This is a good location near everything in Arlington both stadiums with trolley service, walk to Six Flags. Good restaurant next door. Rooms are average, everything is dated, TV's are old and not for those with bad eyesight. Breakfast is just below average but Denny's is close by along with a lot of fast food places. The staff is good management seems to be lacking though, always out of something. Check in early the late night auditor seems to wish he was someplace else and why are you bothering him. There not many pluses for staying here other than the location, I think they know this and are not too concerned about generating return business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r127490619-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>127490619</t>
+  </si>
+  <si>
+    <t>04/08/2012</t>
+  </si>
+  <si>
+    <t>Close to everything</t>
+  </si>
+  <si>
+    <t>This Sleep Inn was pretty standard fare for Sleep Inn.  Clean, good breakfast and it was close to both Six Flags and Arlington stadium.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r120311732-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>120311732</t>
+  </si>
+  <si>
+    <t>11/07/2011</t>
+  </si>
+  <si>
+    <t>great location</t>
+  </si>
+  <si>
+    <t>Secure, safe, feeling.  Close to attractions.  Clean, friendly service. Breakfast lacked choices and quanity. Will make this our Arlington place to stay.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r117244879-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>117244879</t>
+  </si>
+  <si>
+    <t>08/25/2011</t>
+  </si>
+  <si>
+    <t>What you would expect for the price</t>
+  </si>
+  <si>
+    <t>You don't stay in a Sleep Inn unless you are going for a budget type experience.  Yes, the hotel rooms have showers only, but for solo or two person travelers, this is not that bad.  Yes, the hallways do smell like smoke and the rooms a bit musty, but it was fine for a night. I paid $47.96 for a room with one bed.  It is in the parking lot with Humperdinks which is great if you like a good sports bar.  One of the coolest bars around.  I got there at night and felt perfectly safe.  Front desk clerk was very friendly.  Didn't hear any road noise or other guests above me.  I'd stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>754gm_arlington, General Manager at Sleep Inn Arlington Near Six Flags, responded to this reviewResponded August 29, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2011</t>
+  </si>
+  <si>
+    <t>You don't stay in a Sleep Inn unless you are going for a budget type experience.  Yes, the hotel rooms have showers only, but for solo or two person travelers, this is not that bad.  Yes, the hallways do smell like smoke and the rooms a bit musty, but it was fine for a night. I paid $47.96 for a room with one bed.  It is in the parking lot with Humperdinks which is great if you like a good sports bar.  One of the coolest bars around.  I got there at night and felt perfectly safe.  Front desk clerk was very friendly.  Didn't hear any road noise or other guests above me.  I'd stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r116040861-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>116040861</t>
+  </si>
+  <si>
+    <t>07/30/2011</t>
+  </si>
+  <si>
+    <t>Great location, but multiple issues with room and service</t>
+  </si>
+  <si>
+    <t>I've been a shareholder (on &amp; off) of the parent company for some time, so this one was hard to handle... 10 minute walk to main gate at Six Flags Over Texas, nice small outdoor pool, sleeping room was comfortable with good AC and lighting, breakfast bar adequate with sunny table area - BUT toilet was dirty, seat loose, bath door hardware loose (all reported twice to staff, with no action during stay). Clerk at check-in thought I had to call Choice to get my reward points, never mind it was booked through their dedicated web reservation system under my established loyalty account. A quick informal survey of lobby indicated other unhappy guests at check-in (crowded, slow despite seemingly adequate staff daylight hours). Floor above was constant noise from 10 PM to 1 AM, and most of the afternoon:  Whatever county community college field hockey team was practicing there (on the entire second level) was apparently beyond the control of the hotel management, and we were not the only nor loudest objecting to the idiotic ruckus. More? No water in morning, some street main 2 blocks away that blew out Sunday early was closed for repairs on Monday morning - not the hotel's deal, but then their pool was closed for at least some semblance of a quick dip. Opinion? Re-train the staff, add 24-hour security, and clean the can. Sure, it was the busy season, but T &amp; E...I've been a shareholder (on &amp; off) of the parent company for some time, so this one was hard to handle... 10 minute walk to main gate at Six Flags Over Texas, nice small outdoor pool, sleeping room was comfortable with good AC and lighting, breakfast bar adequate with sunny table area - BUT toilet was dirty, seat loose, bath door hardware loose (all reported twice to staff, with no action during stay). Clerk at check-in thought I had to call Choice to get my reward points, never mind it was booked through their dedicated web reservation system under my established loyalty account. A quick informal survey of lobby indicated other unhappy guests at check-in (crowded, slow despite seemingly adequate staff daylight hours). Floor above was constant noise from 10 PM to 1 AM, and most of the afternoon:  Whatever county community college field hockey team was practicing there (on the entire second level) was apparently beyond the control of the hotel management, and we were not the only nor loudest objecting to the idiotic ruckus. More? No water in morning, some street main 2 blocks away that blew out Sunday early was closed for repairs on Monday morning - not the hotel's deal, but then their pool was closed for at least some semblance of a quick dip. Opinion? Re-train the staff, add 24-hour security, and clean the can. Sure, it was the busy season, but T &amp; E is the busy business. Six Flags still great, as usual. Can't say the same for this disappointing though conveniently located hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>I've been a shareholder (on &amp; off) of the parent company for some time, so this one was hard to handle... 10 minute walk to main gate at Six Flags Over Texas, nice small outdoor pool, sleeping room was comfortable with good AC and lighting, breakfast bar adequate with sunny table area - BUT toilet was dirty, seat loose, bath door hardware loose (all reported twice to staff, with no action during stay). Clerk at check-in thought I had to call Choice to get my reward points, never mind it was booked through their dedicated web reservation system under my established loyalty account. A quick informal survey of lobby indicated other unhappy guests at check-in (crowded, slow despite seemingly adequate staff daylight hours). Floor above was constant noise from 10 PM to 1 AM, and most of the afternoon:  Whatever county community college field hockey team was practicing there (on the entire second level) was apparently beyond the control of the hotel management, and we were not the only nor loudest objecting to the idiotic ruckus. More? No water in morning, some street main 2 blocks away that blew out Sunday early was closed for repairs on Monday morning - not the hotel's deal, but then their pool was closed for at least some semblance of a quick dip. Opinion? Re-train the staff, add 24-hour security, and clean the can. Sure, it was the busy season, but T &amp; E...I've been a shareholder (on &amp; off) of the parent company for some time, so this one was hard to handle... 10 minute walk to main gate at Six Flags Over Texas, nice small outdoor pool, sleeping room was comfortable with good AC and lighting, breakfast bar adequate with sunny table area - BUT toilet was dirty, seat loose, bath door hardware loose (all reported twice to staff, with no action during stay). Clerk at check-in thought I had to call Choice to get my reward points, never mind it was booked through their dedicated web reservation system under my established loyalty account. A quick informal survey of lobby indicated other unhappy guests at check-in (crowded, slow despite seemingly adequate staff daylight hours). Floor above was constant noise from 10 PM to 1 AM, and most of the afternoon:  Whatever county community college field hockey team was practicing there (on the entire second level) was apparently beyond the control of the hotel management, and we were not the only nor loudest objecting to the idiotic ruckus. More? No water in morning, some street main 2 blocks away that blew out Sunday early was closed for repairs on Monday morning - not the hotel's deal, but then their pool was closed for at least some semblance of a quick dip. Opinion? Re-train the staff, add 24-hour security, and clean the can. Sure, it was the busy season, but T &amp; E is the busy business. Six Flags still great, as usual. Can't say the same for this disappointing though conveniently located hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r115171586-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>115171586</t>
+  </si>
+  <si>
+    <t>07/08/2011</t>
+  </si>
+  <si>
+    <t>nice place, great staff, close to a lot of attractions</t>
+  </si>
+  <si>
+    <t>Stayed here with our neices/nephews during spring break.  The staff was very nice and accommodating.  We needed 2 adjoining rooms, which wasn't specified when we booked our rooms, and they made it happen.  The pool was nice, as was the breakfast buffett.  We took the trolly from the parking lot, over to Six Flags.  It's so close though, that we opted to walk back instead of wait on the trolly, &amp; it only took about 15 minutes. I would say that it perhaps looked a little dated, but they are making improvemnts.  Our room had a new flat screen in it. The hotel is just minutes (driving) away from Cowboys Stadium too. I will definitely be staying here in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>754gm_arlington, General Manager at Sleep Inn Arlington Near Six Flags, responded to this reviewResponded July 18, 2011</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2011</t>
+  </si>
+  <si>
+    <t>Stayed here with our neices/nephews during spring break.  The staff was very nice and accommodating.  We needed 2 adjoining rooms, which wasn't specified when we booked our rooms, and they made it happen.  The pool was nice, as was the breakfast buffett.  We took the trolly from the parking lot, over to Six Flags.  It's so close though, that we opted to walk back instead of wait on the trolly, &amp; it only took about 15 minutes. I would say that it perhaps looked a little dated, but they are making improvemnts.  Our room had a new flat screen in it. The hotel is just minutes (driving) away from Cowboys Stadium too. I will definitely be staying here in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r96275810-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>96275810</t>
+  </si>
+  <si>
+    <t>02/11/2011</t>
+  </si>
+  <si>
+    <t>WONDERFUL!</t>
+  </si>
+  <si>
+    <t>We just returned from the Super Bowl in Arlington Texas and we stayed here at the Sleep Inn Maingate. This was a wonderful place to stay, first off check in went smooth the man (wished I knew his name) at the front desk was as pleasant and helpful as any one could be, our room was ready when we arrived and was sparkling clean we had everything we needed, the breakfast in the morning was very nice they kept everything well stocked considering that the hotel was completely full that was a job. If we needed any help with info they were very helpful there, it's a great location the 6 Flags Park is right across the street and behind that is the Ranger's Stadium and beyond that the Cowboy's Stadium, which we walked to twice during out stay about 1.5 miles and at the end of the parking lot of the Hotel is the Sportsbar/Brewery Humperdink's which also was a very nice place, lots of TV's and great food and drink. You won't be disappointed here!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>754gm_arlington, General Manager at Sleep Inn Arlington Near Six Flags, responded to this reviewResponded February 15, 2011</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2011</t>
+  </si>
+  <si>
+    <t>We just returned from the Super Bowl in Arlington Texas and we stayed here at the Sleep Inn Maingate. This was a wonderful place to stay, first off check in went smooth the man (wished I knew his name) at the front desk was as pleasant and helpful as any one could be, our room was ready when we arrived and was sparkling clean we had everything we needed, the breakfast in the morning was very nice they kept everything well stocked considering that the hotel was completely full that was a job. If we needed any help with info they were very helpful there, it's a great location the 6 Flags Park is right across the street and behind that is the Ranger's Stadium and beyond that the Cowboy's Stadium, which we walked to twice during out stay about 1.5 miles and at the end of the parking lot of the Hotel is the Sportsbar/Brewery Humperdink's which also was a very nice place, lots of TV's and great food and drink. You won't be disappointed here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r85191669-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>85191669</t>
+  </si>
+  <si>
+    <t>10/28/2010</t>
+  </si>
+  <si>
+    <t>Dated, but Clean</t>
+  </si>
+  <si>
+    <t>Rooms are need of a remodel, but the facility and rooms are clean. Room had a frig, free internet, shower (no tub) and safe. Really odd setup without a closet- iron, ironing board and clothes rack just out in the open. TV was old tube style, but was adequate.Still, this hotel is located across the street from Six Flags and close to Rangers &amp; Cowboys stadiums. Wouldn't be my first choice, but still isn't bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>Rooms are need of a remodel, but the facility and rooms are clean. Room had a frig, free internet, shower (no tub) and safe. Really odd setup without a closet- iron, ironing board and clothes rack just out in the open. TV was old tube style, but was adequate.Still, this hotel is located across the street from Six Flags and close to Rangers &amp; Cowboys stadiums. Wouldn't be my first choice, but still isn't bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r82078386-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>82078386</t>
+  </si>
+  <si>
+    <t>10/04/2010</t>
+  </si>
+  <si>
+    <t>Right in the middle of everything.</t>
+  </si>
+  <si>
+    <t>We stayed the week here for my husbands birthday while taking in all the attractions around it. They offer a trolley service to take you to/from 6 flags, the ballpark or the stadium. However it does not run all the time year round for some events. We did notice some bugs on our lastnight but along with the smell of mildew but we were considering the fact that they were cleaning the carpets and it may have rustled up some things. As for the continental breakfast which only offered muffins and fruit we were a little dissappointed. There is a Dennys nearby along with other local resturants but a little pricey for a plate of wings/tenders etc. Very helpful staff and like I said close to every thing Arlington has to offer.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>754gm_arlington, General Manager at Sleep Inn Arlington Near Six Flags, responded to this reviewResponded October 7, 2010</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2010</t>
+  </si>
+  <si>
+    <t>We stayed the week here for my husbands birthday while taking in all the attractions around it. They offer a trolley service to take you to/from 6 flags, the ballpark or the stadium. However it does not run all the time year round for some events. We did notice some bugs on our lastnight but along with the smell of mildew but we were considering the fact that they were cleaning the carpets and it may have rustled up some things. As for the continental breakfast which only offered muffins and fruit we were a little dissappointed. There is a Dennys nearby along with other local resturants but a little pricey for a plate of wings/tenders etc. Very helpful staff and like I said close to every thing Arlington has to offer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r37880345-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>37880345</t>
+  </si>
+  <si>
+    <t>08/16/2009</t>
+  </si>
+  <si>
+    <t>Not worth the money</t>
+  </si>
+  <si>
+    <t>We stayed at the hotel for one night and that was enough.
+It took quite a while to check in. 
+We went up to our room which was a $149.99 a night room.
+Thankfully I used up all my choice privelages to stay there. I would have felt bad paying that much for this hotel.
+We only had three towels and needed four. There was a sopping wet towel left in the shower. We went  down to ask for another towel and told them about the other wet towel in the shower. We were told they were out of towels and would bring us up one when they were done. We were also told the towel was in the shower because water is leaking from the room above into the shower. After the ballgame we went back to the hotel and saw still no towel and the wet one was still in the shower. We talked to the night clerk and he rudly said he had no towels. We told him they said they were going to bring us one and he rudley said something to the effect thats too bad and he wasn't going to do anything about it. The room itself had very dirty walls and the window had a broken thermal seal and was hard to see thru. The breakfast was a joke. Cold muffins from the freezer and cheap toaster waffles. The OJ was out and...We stayed at the hotel for one night and that was enough.It took quite a while to check in. We went up to our room which was a $149.99 a night room.Thankfully I used up all my choice privelages to stay there. I would have felt bad paying that much for this hotel.We only had three towels and needed four. There was a sopping wet towel left in the shower. We went  down to ask for another towel and told them about the other wet towel in the shower. We were told they were out of towels and would bring us up one when they were done. We were also told the towel was in the shower because water is leaking from the room above into the shower. After the ballgame we went back to the hotel and saw still no towel and the wet one was still in the shower. We talked to the night clerk and he rudly said he had no towels. We told him they said they were going to bring us one and he rudley said something to the effect thats too bad and he wasn't going to do anything about it. The room itself had very dirty walls and the window had a broken thermal seal and was hard to see thru. The breakfast was a joke. Cold muffins from the freezer and cheap toaster waffles. The OJ was out and the pan under the machine was full and running on the floor. I would expect this type of room and service from  a Knights Inn or Super 8. The Baymont behind this hotel was half the price and twice a clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>754gm_arlington, General Manager at Sleep Inn Arlington Near Six Flags, responded to this reviewResponded August 18, 2009</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2009</t>
+  </si>
+  <si>
+    <t>We stayed at the hotel for one night and that was enough.
+It took quite a while to check in. 
+We went up to our room which was a $149.99 a night room.
+Thankfully I used up all my choice privelages to stay there. I would have felt bad paying that much for this hotel.
+We only had three towels and needed four. There was a sopping wet towel left in the shower. We went  down to ask for another towel and told them about the other wet towel in the shower. We were told they were out of towels and would bring us up one when they were done. We were also told the towel was in the shower because water is leaking from the room above into the shower. After the ballgame we went back to the hotel and saw still no towel and the wet one was still in the shower. We talked to the night clerk and he rudly said he had no towels. We told him they said they were going to bring us one and he rudley said something to the effect thats too bad and he wasn't going to do anything about it. The room itself had very dirty walls and the window had a broken thermal seal and was hard to see thru. The breakfast was a joke. Cold muffins from the freezer and cheap toaster waffles. The OJ was out and...We stayed at the hotel for one night and that was enough.It took quite a while to check in. We went up to our room which was a $149.99 a night room.Thankfully I used up all my choice privelages to stay there. I would have felt bad paying that much for this hotel.We only had three towels and needed four. There was a sopping wet towel left in the shower. We went  down to ask for another towel and told them about the other wet towel in the shower. We were told they were out of towels and would bring us up one when they were done. We were also told the towel was in the shower because water is leaking from the room above into the shower. After the ballgame we went back to the hotel and saw still no towel and the wet one was still in the shower. We talked to the night clerk and he rudly said he had no towels. We told him they said they were going to bring us one and he rudley said something to the effect thats too bad and he wasn't going to do anything about it. The room itself had very dirty walls and the window had a broken thermal seal and was hard to see thru. The breakfast was a joke. Cold muffins from the freezer and cheap toaster waffles. The OJ was out and the pan under the machine was full and running on the floor. I would expect this type of room and service from  a Knights Inn or Super 8. The Baymont behind this hotel was half the price and twice a clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r37236794-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>37236794</t>
+  </si>
+  <si>
+    <t>08/10/2009</t>
+  </si>
+  <si>
+    <t>Clean at first glance....</t>
+  </si>
+  <si>
+    <t>We booked this hotel mostly due to its proximity to Six Flags.  The hotel is literally right across the street from the park and it is an easy 5 minute walk to the entrance to the park from the front door of the hotel, saving you the unnecessary fee of paying to park in the Six Flags lot. 
+I've read other reviews concerning rude staff.  While the front desk guy was not rude, he didn't exactly greet us with open arms, either.  He just seemed kind of bored, really.  I got the impression that he had way too much to do for just one person to handle.
+The rooms are pretty small and I am very glad I decided to book two rooms, rather than one.  When we entered the room the first time, I thought "Okay, this isn't too bad".  However, upon closer inspection, the dirty walls and filthy crud in the drain in the connecting room, and the huge booger (GROSS!!!-see photos) in our sink from the previous occupants changed my mind about the cleanliness.  The booger stayed there during our entire stay.  I can't imagine how housekeeping didn't see this!  Maybe they were grossed out, too.  It makes me wonder if they just do the bare minimum in their cleaning routine and skip everything else.
+There is no bathtub, but a decent sized shower.  The shower pressure was fine.  The light over the vanity is way too...We booked this hotel mostly due to its proximity to Six Flags.  The hotel is literally right across the street from the park and it is an easy 5 minute walk to the entrance to the park from the front door of the hotel, saving you the unnecessary fee of paying to park in the Six Flags lot. I've read other reviews concerning rude staff.  While the front desk guy was not rude, he didn't exactly greet us with open arms, either.  He just seemed kind of bored, really.  I got the impression that he had way too much to do for just one person to handle.The rooms are pretty small and I am very glad I decided to book two rooms, rather than one.  When we entered the room the first time, I thought "Okay, this isn't too bad".  However, upon closer inspection, the dirty walls and filthy crud in the drain in the connecting room, and the huge booger (GROSS!!!-see photos) in our sink from the previous occupants changed my mind about the cleanliness.  The booger stayed there during our entire stay.  I can't imagine how housekeeping didn't see this!  Maybe they were grossed out, too.  It makes me wonder if they just do the bare minimum in their cleaning routine and skip everything else.There is no bathtub, but a decent sized shower.  The shower pressure was fine.  The light over the vanity is way too dark to provide decent lighting for application of make up.  (Ladies, bring your own lighted makeup mirror.)   I was happy to see this hotel uses fitted sheets on the beds rather than tucking in a regular sheet.  The beds were actually pretty comfortable and the air conditioning worked great.  The room also provides a refrigerator/microwave combo.  Bring your own drinks to put in the fridge because, as expected, the drinks in the vending machines are outrageously priced. The most irritating thing is the noise from above.  It seems like any time somebody on the floor above you takes a step, you can hear it.  This is especially irritating when you are trying to sleep.  The noise can be heard easily over the air conditioning.The hotel offers a continental breakfast, but it is pretty spartan.  There are some pretty unappetizing muffins, frozen waffles (well, they were frozen at one time), boiled eggs, Raisin Bran and Corn Flakes, fruit (whole), juice and coffee.  The front desk attendant also seems to be the one overseeing keeping the breakfast items stocked.  So, if they are out of something, you have to go tell him and then wait until he can get a minute away from the desk to go re-stock the breakfast items.  For dinner, there is a restaurant called Humperdink's next door.  It is sort of a sports bar/grill and stays open pretty late.  This is nice because you can just walk next door to eat without having to leave the hotel.The hotel has a pool, but it is EXTREMELY small.  If there are more than 6-7 people in the pool, then it is way too crowded.  But I suppose a small pool is better than no pool at all.If all you're planning to use the hotel for is a place to sleep at night, then this hotel is fine.  Just don't go expecting anything more than a basic hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>754gm_arlington, General Manager at Sleep Inn Arlington Near Six Flags, responded to this reviewResponded August 13, 2009</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2009</t>
+  </si>
+  <si>
+    <t>We booked this hotel mostly due to its proximity to Six Flags.  The hotel is literally right across the street from the park and it is an easy 5 minute walk to the entrance to the park from the front door of the hotel, saving you the unnecessary fee of paying to park in the Six Flags lot. 
+I've read other reviews concerning rude staff.  While the front desk guy was not rude, he didn't exactly greet us with open arms, either.  He just seemed kind of bored, really.  I got the impression that he had way too much to do for just one person to handle.
+The rooms are pretty small and I am very glad I decided to book two rooms, rather than one.  When we entered the room the first time, I thought "Okay, this isn't too bad".  However, upon closer inspection, the dirty walls and filthy crud in the drain in the connecting room, and the huge booger (GROSS!!!-see photos) in our sink from the previous occupants changed my mind about the cleanliness.  The booger stayed there during our entire stay.  I can't imagine how housekeeping didn't see this!  Maybe they were grossed out, too.  It makes me wonder if they just do the bare minimum in their cleaning routine and skip everything else.
+There is no bathtub, but a decent sized shower.  The shower pressure was fine.  The light over the vanity is way too...We booked this hotel mostly due to its proximity to Six Flags.  The hotel is literally right across the street from the park and it is an easy 5 minute walk to the entrance to the park from the front door of the hotel, saving you the unnecessary fee of paying to park in the Six Flags lot. I've read other reviews concerning rude staff.  While the front desk guy was not rude, he didn't exactly greet us with open arms, either.  He just seemed kind of bored, really.  I got the impression that he had way too much to do for just one person to handle.The rooms are pretty small and I am very glad I decided to book two rooms, rather than one.  When we entered the room the first time, I thought "Okay, this isn't too bad".  However, upon closer inspection, the dirty walls and filthy crud in the drain in the connecting room, and the huge booger (GROSS!!!-see photos) in our sink from the previous occupants changed my mind about the cleanliness.  The booger stayed there during our entire stay.  I can't imagine how housekeeping didn't see this!  Maybe they were grossed out, too.  It makes me wonder if they just do the bare minimum in their cleaning routine and skip everything else.There is no bathtub, but a decent sized shower.  The shower pressure was fine.  The light over the vanity is way too dark to provide decent lighting for application of make up.  (Ladies, bring your own lighted makeup mirror.)   I was happy to see this hotel uses fitted sheets on the beds rather than tucking in a regular sheet.  The beds were actually pretty comfortable and the air conditioning worked great.  The room also provides a refrigerator/microwave combo.  Bring your own drinks to put in the fridge because, as expected, the drinks in the vending machines are outrageously priced. The most irritating thing is the noise from above.  It seems like any time somebody on the floor above you takes a step, you can hear it.  This is especially irritating when you are trying to sleep.  The noise can be heard easily over the air conditioning.The hotel offers a continental breakfast, but it is pretty spartan.  There are some pretty unappetizing muffins, frozen waffles (well, they were frozen at one time), boiled eggs, Raisin Bran and Corn Flakes, fruit (whole), juice and coffee.  The front desk attendant also seems to be the one overseeing keeping the breakfast items stocked.  So, if they are out of something, you have to go tell him and then wait until he can get a minute away from the desk to go re-stock the breakfast items.  For dinner, there is a restaurant called Humperdink's next door.  It is sort of a sports bar/grill and stays open pretty late.  This is nice because you can just walk next door to eat without having to leave the hotel.The hotel has a pool, but it is EXTREMELY small.  If there are more than 6-7 people in the pool, then it is way too crowded.  But I suppose a small pool is better than no pool at all.If all you're planning to use the hotel for is a place to sleep at night, then this hotel is fine.  Just don't go expecting anything more than a basic hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r36401094-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>36401094</t>
+  </si>
+  <si>
+    <t>08/01/2009</t>
+  </si>
+  <si>
+    <t>Super Tiny Hotel with Rude Front Desk Staff</t>
+  </si>
+  <si>
+    <t>This hotel is summed up with one word: TINY.  Throw in an unbelievably rude front desk staff, and our stay was not a lot of fun.  The Sleep Inn sits directly in front of Six Flags, and the location and proximity to all things Arlington is fantastic.  However, let's be realistic.  I was traveling with three small children and we were only in Arlington to take in a Ranger game.  Guests of the hotel do get free shuttle service to the ballpark, which was nice; but all the good feelings end there.  
+The pool is tiny, and both times we used it we had to approach the RUDE front desk to ask for pool towels.  I guess asking for pool towels is the worst things that you can ask a front desk attendant, as each time I inquired I was just waved off by them without so much as a "I'll get those and be right back."  Rude!  The rooms are tiny.  And by tiny, I mean there aren't even closets in the rooms, and there is no bathtub.  Only tall skinny showers.  The beds are tiny, and the TV is super tiny.  I  understand that people that stay here only want to visit Six Flags; but being stuck in these tiny rooms with no Disney and Nickelodeon channels was terrible.  
+And finally the breakfast food is tiny.  Breakfast consisted of two cereal choices, waffels and english muffins and only...This hotel is summed up with one word: TINY.  Throw in an unbelievably rude front desk staff, and our stay was not a lot of fun.  The Sleep Inn sits directly in front of Six Flags, and the location and proximity to all things Arlington is fantastic.  However, let's be realistic.  I was traveling with three small children and we were only in Arlington to take in a Ranger game.  Guests of the hotel do get free shuttle service to the ballpark, which was nice; but all the good feelings end there.  The pool is tiny, and both times we used it we had to approach the RUDE front desk to ask for pool towels.  I guess asking for pool towels is the worst things that you can ask a front desk attendant, as each time I inquired I was just waved off by them without so much as a "I'll get those and be right back."  Rude!  The rooms are tiny.  And by tiny, I mean there aren't even closets in the rooms, and there is no bathtub.  Only tall skinny showers.  The beds are tiny, and the TV is super tiny.  I  understand that people that stay here only want to visit Six Flags; but being stuck in these tiny rooms with no Disney and Nickelodeon channels was terrible.  And finally the breakfast food is tiny.  Breakfast consisted of two cereal choices, waffels and english muffins and only a 1/2 working toaster for the entire hotel to share.  The coffee was at least hot, but there was NO fruit or muffins by the time we got there at 8:30am.  The breakfast is open from 6-9:30, and it's ridiculous that the food would mostly be gone by 8:30.  We were also disappointed, that the breakfast area hadn't been cleaned all morning.  Trash was overflowing the bins, and one entire table had become the trash can since the can hadn't been emptyed.  People were coming in and looking around, then asking where the closest restaurant was.  Disgusting!The only redeeming quality of  this hotel is the location!  If I had teenagers, and we only wanted a place to crash then this hotel might work.  Otherwise, I'd stay somewhere else!MoreShow less</t>
+  </si>
+  <si>
+    <t>754gm_arlington, General Manager at Sleep Inn Arlington Near Six Flags, responded to this reviewResponded August 11, 2009</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2009</t>
+  </si>
+  <si>
+    <t>This hotel is summed up with one word: TINY.  Throw in an unbelievably rude front desk staff, and our stay was not a lot of fun.  The Sleep Inn sits directly in front of Six Flags, and the location and proximity to all things Arlington is fantastic.  However, let's be realistic.  I was traveling with three small children and we were only in Arlington to take in a Ranger game.  Guests of the hotel do get free shuttle service to the ballpark, which was nice; but all the good feelings end there.  
+The pool is tiny, and both times we used it we had to approach the RUDE front desk to ask for pool towels.  I guess asking for pool towels is the worst things that you can ask a front desk attendant, as each time I inquired I was just waved off by them without so much as a "I'll get those and be right back."  Rude!  The rooms are tiny.  And by tiny, I mean there aren't even closets in the rooms, and there is no bathtub.  Only tall skinny showers.  The beds are tiny, and the TV is super tiny.  I  understand that people that stay here only want to visit Six Flags; but being stuck in these tiny rooms with no Disney and Nickelodeon channels was terrible.  
+And finally the breakfast food is tiny.  Breakfast consisted of two cereal choices, waffels and english muffins and only...This hotel is summed up with one word: TINY.  Throw in an unbelievably rude front desk staff, and our stay was not a lot of fun.  The Sleep Inn sits directly in front of Six Flags, and the location and proximity to all things Arlington is fantastic.  However, let's be realistic.  I was traveling with three small children and we were only in Arlington to take in a Ranger game.  Guests of the hotel do get free shuttle service to the ballpark, which was nice; but all the good feelings end there.  The pool is tiny, and both times we used it we had to approach the RUDE front desk to ask for pool towels.  I guess asking for pool towels is the worst things that you can ask a front desk attendant, as each time I inquired I was just waved off by them without so much as a "I'll get those and be right back."  Rude!  The rooms are tiny.  And by tiny, I mean there aren't even closets in the rooms, and there is no bathtub.  Only tall skinny showers.  The beds are tiny, and the TV is super tiny.  I  understand that people that stay here only want to visit Six Flags; but being stuck in these tiny rooms with no Disney and Nickelodeon channels was terrible.  And finally the breakfast food is tiny.  Breakfast consisted of two cereal choices, waffels and english muffins and only a 1/2 working toaster for the entire hotel to share.  The coffee was at least hot, but there was NO fruit or muffins by the time we got there at 8:30am.  The breakfast is open from 6-9:30, and it's ridiculous that the food would mostly be gone by 8:30.  We were also disappointed, that the breakfast area hadn't been cleaned all morning.  Trash was overflowing the bins, and one entire table had become the trash can since the can hadn't been emptyed.  People were coming in and looking around, then asking where the closest restaurant was.  Disgusting!The only redeeming quality of  this hotel is the location!  If I had teenagers, and we only wanted a place to crash then this hotel might work.  Otherwise, I'd stay somewhere else!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r31294456-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>31294456</t>
+  </si>
+  <si>
+    <t>06/01/2009</t>
+  </si>
+  <si>
+    <t>Close To The FUN!</t>
+  </si>
+  <si>
+    <t>We checked in on Saturday 05/23/09.  They allowed us to check in around 11:00 which was great.  We get two rooms and usually have to fight the front desk to get them adjoining or close, with Sleep Inn we had NO PROBLEM, our rooms were right next to each other.  The rooms are very small but nice and clean.  The showers were awesome.  While 6-Flags is right across the street it is a pretty long walk, although saving on parking is worth it.  The only complaint I would make is not really a complaint more a warning....the breakfast is really skimpy with hardly ANY choices.  But, overall, I would recommend this hotel to any family looking for an inexpensive hotel close to the fun!  There are also two restraunts within easy walking distance and that made it nice!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>754gm_arlington, Manager at Sleep Inn Arlington Near Six Flags, responded to this reviewResponded July 22, 2009</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2009</t>
+  </si>
+  <si>
+    <t>We checked in on Saturday 05/23/09.  They allowed us to check in around 11:00 which was great.  We get two rooms and usually have to fight the front desk to get them adjoining or close, with Sleep Inn we had NO PROBLEM, our rooms were right next to each other.  The rooms are very small but nice and clean.  The showers were awesome.  While 6-Flags is right across the street it is a pretty long walk, although saving on parking is worth it.  The only complaint I would make is not really a complaint more a warning....the breakfast is really skimpy with hardly ANY choices.  But, overall, I would recommend this hotel to any family looking for an inexpensive hotel close to the fun!  There are also two restraunts within easy walking distance and that made it nice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r28758848-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>28758848</t>
+  </si>
+  <si>
+    <t>04/25/2009</t>
+  </si>
+  <si>
+    <t>Just Great</t>
+  </si>
+  <si>
+    <t>The facility was so nice and clean and the staff went out of their way to make you feel at home. I most certainly stay here my next trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>754gm_arlington, manager at Sleep Inn Arlington Near Six Flags, responded to this reviewResponded July 22, 2009</t>
+  </si>
+  <si>
+    <t>The facility was so nice and clean and the staff went out of their way to make you feel at home. I most certainly stay here my next trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r28580712-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>28580712</t>
+  </si>
+  <si>
+    <t>04/22/2009</t>
+  </si>
+  <si>
+    <t>Convenient location, quiet and comfortable with good amenities</t>
+  </si>
+  <si>
+    <t>You can't get any closer to Six Flags, and you can see the Ballpark from the hotel. High speed internet in the rooms was a big plus for me! Comfortable beds, and room had a microwave and refrigerator, which was very convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>You can't get any closer to Six Flags, and you can see the Ballpark from the hotel. High speed internet in the rooms was a big plus for me! Comfortable beds, and room had a microwave and refrigerator, which was very convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r18325230-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>18325230</t>
+  </si>
+  <si>
+    <t>07/27/2008</t>
+  </si>
+  <si>
+    <t>By far the worst customer service ever!!!</t>
+  </si>
+  <si>
+    <t>Just returned from a weekend at The Sleep Inn. Me and my husband decided to take the kids to Six Flags for the weekend and picked this hotel because it was across the street. I had read many reviews stating how horrible the customer service was but again opted to stay due to the convenience factor. The second we checked in the hotel staff was not just unfriendly but downright rude!!! We ignored it and continued to our room which was satisfactory. Not the Ritz but definitely moderate enough considering we would only be in the room long enough to sleep. That night we all settled into bed and I kid you not it sounded as if a herd of elephants were stampeding above us! This went on for 2 hours straight which resulted in three complaints made to the front desk. The last time I called the manager on duty actually yelled at me. This is after we had been pretty nice about the whole situation and patient at that. I will never stay here again and certainly would never reccomend a stay at the Sleep Inn!!!! Better to stay a little further from Six Flags and drive!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>754gm_arlington, manager at Sleep Inn Arlington Near Six Flags, responded to this reviewResponded September 18, 2008</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2008</t>
+  </si>
+  <si>
+    <t>Just returned from a weekend at The Sleep Inn. Me and my husband decided to take the kids to Six Flags for the weekend and picked this hotel because it was across the street. I had read many reviews stating how horrible the customer service was but again opted to stay due to the convenience factor. The second we checked in the hotel staff was not just unfriendly but downright rude!!! We ignored it and continued to our room which was satisfactory. Not the Ritz but definitely moderate enough considering we would only be in the room long enough to sleep. That night we all settled into bed and I kid you not it sounded as if a herd of elephants were stampeding above us! This went on for 2 hours straight which resulted in three complaints made to the front desk. The last time I called the manager on duty actually yelled at me. This is after we had been pretty nice about the whole situation and patient at that. I will never stay here again and certainly would never reccomend a stay at the Sleep Inn!!!! Better to stay a little further from Six Flags and drive!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r17888081-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>17888081</t>
+  </si>
+  <si>
+    <t>07/14/2008</t>
+  </si>
+  <si>
+    <t>SERIOUS Management problems!!</t>
+  </si>
+  <si>
+    <t>I stayed at this property on July 2, 2008 for the soul purpose of going to Six Flags, which is convently, located across the street.  My wife &amp; I checked into the Hotel; put our 1 bag in the room and ran to Six Flags.  While at Six Flags, my wife was injured on a ride.  She went to the E.R. and they kept her.  I notified the Hotel of our early check out. And they were informed of me staying at the hospital with my wife so I may make all decisions on her as needed.  The lady at the front desk said it would not be a problem for a refund., talk to the manager in the morning.  I did as she said.  I never received a refund.  Instead I dealt with a VERY RUDE lady!!!  The manager said they had a right to charge me for the room.  I had no problem paying for a room I USED!!  But I never got that chance.  I had called a few times and left messages.  The Hotel was NOT booked full or near full for that day as I did ask that night.  So the room was not even needed.  But I guess they like sticking it to the man! Or maybe HARD up for cash??  Anywho, the Hotel was clean &amp; nice value.  But if there is a problem, you’re screwed!  I even received a REFUND from Six...I stayed at this property on July 2, 2008 for the soul purpose of going to Six Flags, which is convently, located across the street.  My wife &amp; I checked into the Hotel; put our 1 bag in the room and ran to Six Flags.  While at Six Flags, my wife was injured on a ride.  She went to the E.R. and they kept her.  I notified the Hotel of our early check out. And they were informed of me staying at the hospital with my wife so I may make all decisions on her as needed.  The lady at the front desk said it would not be a problem for a refund., talk to the manager in the morning.  I did as she said.  I never received a refund.  Instead I dealt with a VERY RUDE lady!!!  The manager said they had a right to charge me for the room.  I had no problem paying for a room I USED!!  But I never got that chance.  I had called a few times and left messages.  The Hotel was NOT booked full or near full for that day as I did ask that night.  So the room was not even needed.  But I guess they like sticking it to the man! Or maybe HARD up for cash??  Anywho, the Hotel was clean &amp; nice value.  But if there is a problem, you’re screwed!  I even received a REFUND from Six Flags because we were only there for what?? A whole minute?I would suggest you look to another Hotel; after all there is about 10 in the area to choose from.  OH, if you go Marriott, Crown Plaza type hotels you will get COMPLIMENTARY shuttle service.  This Hotel only offers a standard “bus” ride to the park, which it goes to all Hotels and it runs every hour after noon.  You may be the last to get dropped off, imagine a 1-hour bus ride after you had a full day at Six Flags.  I think the last thing people want to do is WAIT for the bus, and then be last one dropped off.I planned to go back with my wife when she healed, I would have stayed at this Hotel.  I even asked for a free night for when I returned.  The answer was NO!  Very unhappy.MoreShow less</t>
+  </si>
+  <si>
+    <t>754gm_arlington, General Manager at Sleep Inn Arlington Near Six Flags, responded to this reviewResponded September 11, 2008</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2008</t>
+  </si>
+  <si>
+    <t>I stayed at this property on July 2, 2008 for the soul purpose of going to Six Flags, which is convently, located across the street.  My wife &amp; I checked into the Hotel; put our 1 bag in the room and ran to Six Flags.  While at Six Flags, my wife was injured on a ride.  She went to the E.R. and they kept her.  I notified the Hotel of our early check out. And they were informed of me staying at the hospital with my wife so I may make all decisions on her as needed.  The lady at the front desk said it would not be a problem for a refund., talk to the manager in the morning.  I did as she said.  I never received a refund.  Instead I dealt with a VERY RUDE lady!!!  The manager said they had a right to charge me for the room.  I had no problem paying for a room I USED!!  But I never got that chance.  I had called a few times and left messages.  The Hotel was NOT booked full or near full for that day as I did ask that night.  So the room was not even needed.  But I guess they like sticking it to the man! Or maybe HARD up for cash??  Anywho, the Hotel was clean &amp; nice value.  But if there is a problem, you’re screwed!  I even received a REFUND from Six...I stayed at this property on July 2, 2008 for the soul purpose of going to Six Flags, which is convently, located across the street.  My wife &amp; I checked into the Hotel; put our 1 bag in the room and ran to Six Flags.  While at Six Flags, my wife was injured on a ride.  She went to the E.R. and they kept her.  I notified the Hotel of our early check out. And they were informed of me staying at the hospital with my wife so I may make all decisions on her as needed.  The lady at the front desk said it would not be a problem for a refund., talk to the manager in the morning.  I did as she said.  I never received a refund.  Instead I dealt with a VERY RUDE lady!!!  The manager said they had a right to charge me for the room.  I had no problem paying for a room I USED!!  But I never got that chance.  I had called a few times and left messages.  The Hotel was NOT booked full or near full for that day as I did ask that night.  So the room was not even needed.  But I guess they like sticking it to the man! Or maybe HARD up for cash??  Anywho, the Hotel was clean &amp; nice value.  But if there is a problem, you’re screwed!  I even received a REFUND from Six Flags because we were only there for what?? A whole minute?I would suggest you look to another Hotel; after all there is about 10 in the area to choose from.  OH, if you go Marriott, Crown Plaza type hotels you will get COMPLIMENTARY shuttle service.  This Hotel only offers a standard “bus” ride to the park, which it goes to all Hotels and it runs every hour after noon.  You may be the last to get dropped off, imagine a 1-hour bus ride after you had a full day at Six Flags.  I think the last thing people want to do is WAIT for the bus, and then be last one dropped off.I planned to go back with my wife when she healed, I would have stayed at this Hotel.  I even asked for a free night for when I returned.  The answer was NO!  Very unhappy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r8718228-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>8718228</t>
+  </si>
+  <si>
+    <t>09/14/2007</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised</t>
+  </si>
+  <si>
+    <t>I wasn't happy when my company sprung me at this motel when there were a lack a rooms in the area. But in reality, I'd have a hard time finding much to complain about.  The rooms lack a bathtub (shower only).  Also, the rooms are definetly not "fresh" and could use an updating.  But otherwise, not bad for a short stay.  Free internet, free breakfest.....I have stayed in MUST worse.MoreShow less</t>
+  </si>
+  <si>
+    <t>I wasn't happy when my company sprung me at this motel when there were a lack a rooms in the area. But in reality, I'd have a hard time finding much to complain about.  The rooms lack a bathtub (shower only).  Also, the rooms are definetly not "fresh" and could use an updating.  But otherwise, not bad for a short stay.  Free internet, free breakfest.....I have stayed in MUST worse.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2847,6848 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>111</v>
+      </c>
+      <c r="X9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O12" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>128</v>
+      </c>
+      <c r="X12" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" t="s">
+        <v>142</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>128</v>
+      </c>
+      <c r="X13" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s">
+        <v>149</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>150</v>
+      </c>
+      <c r="O14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>128</v>
+      </c>
+      <c r="X14" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" t="s">
+        <v>156</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>157</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>164</v>
+      </c>
+      <c r="O16" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" t="s">
+        <v>167</v>
+      </c>
+      <c r="K17" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>170</v>
+      </c>
+      <c r="O17" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>92</v>
+      </c>
+      <c r="X17" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L18" t="s">
+        <v>175</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>170</v>
+      </c>
+      <c r="O18" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>92</v>
+      </c>
+      <c r="X18" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" t="s">
+        <v>180</v>
+      </c>
+      <c r="L19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>170</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" t="s">
+        <v>184</v>
+      </c>
+      <c r="K20" t="s">
+        <v>185</v>
+      </c>
+      <c r="L20" t="s">
+        <v>186</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>188</v>
+      </c>
+      <c r="X20" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s">
+        <v>194</v>
+      </c>
+      <c r="L21" t="s">
+        <v>195</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>187</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>188</v>
+      </c>
+      <c r="X21" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>198</v>
+      </c>
+      <c r="J22" t="s">
+        <v>199</v>
+      </c>
+      <c r="K22" t="s">
+        <v>200</v>
+      </c>
+      <c r="L22" t="s">
+        <v>201</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>188</v>
+      </c>
+      <c r="X22" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>204</v>
+      </c>
+      <c r="J23" t="s">
+        <v>205</v>
+      </c>
+      <c r="K23" t="s">
+        <v>206</v>
+      </c>
+      <c r="L23" t="s">
+        <v>207</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>187</v>
+      </c>
+      <c r="O23" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>210</v>
+      </c>
+      <c r="J24" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24" t="s">
+        <v>212</v>
+      </c>
+      <c r="L24" t="s">
+        <v>213</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>214</v>
+      </c>
+      <c r="O24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>216</v>
+      </c>
+      <c r="J25" t="s">
+        <v>217</v>
+      </c>
+      <c r="K25" t="s">
+        <v>218</v>
+      </c>
+      <c r="L25" t="s">
+        <v>219</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>187</v>
+      </c>
+      <c r="O25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>220</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>221</v>
+      </c>
+      <c r="J26" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" t="s">
+        <v>223</v>
+      </c>
+      <c r="L26" t="s">
+        <v>224</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>214</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>225</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>226</v>
+      </c>
+      <c r="J27" t="s">
+        <v>227</v>
+      </c>
+      <c r="K27" t="s">
+        <v>228</v>
+      </c>
+      <c r="L27" t="s">
+        <v>229</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>230</v>
+      </c>
+      <c r="O27" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>231</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>232</v>
+      </c>
+      <c r="J28" t="s">
+        <v>233</v>
+      </c>
+      <c r="K28" t="s">
+        <v>234</v>
+      </c>
+      <c r="L28" t="s">
+        <v>235</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>236</v>
+      </c>
+      <c r="O28" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>238</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>239</v>
+      </c>
+      <c r="J29" t="s">
+        <v>240</v>
+      </c>
+      <c r="K29" t="s">
+        <v>241</v>
+      </c>
+      <c r="L29" t="s">
+        <v>242</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>230</v>
+      </c>
+      <c r="O29" t="s">
+        <v>66</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>243</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>244</v>
+      </c>
+      <c r="J30" t="s">
+        <v>245</v>
+      </c>
+      <c r="K30" t="s">
+        <v>246</v>
+      </c>
+      <c r="L30" t="s">
+        <v>247</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>230</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>249</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>250</v>
+      </c>
+      <c r="J31" t="s">
+        <v>251</v>
+      </c>
+      <c r="K31" t="s">
+        <v>252</v>
+      </c>
+      <c r="L31" t="s">
+        <v>253</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>254</v>
+      </c>
+      <c r="O31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>255</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>256</v>
+      </c>
+      <c r="J32" t="s">
+        <v>257</v>
+      </c>
+      <c r="K32" t="s">
+        <v>258</v>
+      </c>
+      <c r="L32" t="s">
+        <v>259</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>260</v>
+      </c>
+      <c r="O32" t="s">
+        <v>73</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>261</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>262</v>
+      </c>
+      <c r="J33" t="s">
+        <v>257</v>
+      </c>
+      <c r="K33" t="s">
+        <v>263</v>
+      </c>
+      <c r="L33" t="s">
+        <v>264</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>265</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>266</v>
+      </c>
+      <c r="J34" t="s">
+        <v>257</v>
+      </c>
+      <c r="K34" t="s">
+        <v>267</v>
+      </c>
+      <c r="L34" t="s">
+        <v>268</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>260</v>
+      </c>
+      <c r="O34" t="s">
+        <v>73</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>270</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>271</v>
+      </c>
+      <c r="J35" t="s">
+        <v>272</v>
+      </c>
+      <c r="K35" t="s">
+        <v>273</v>
+      </c>
+      <c r="L35" t="s">
+        <v>274</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>275</v>
+      </c>
+      <c r="O35" t="s">
+        <v>91</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>276</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>277</v>
+      </c>
+      <c r="J36" t="s">
+        <v>272</v>
+      </c>
+      <c r="K36" t="s">
+        <v>278</v>
+      </c>
+      <c r="L36" t="s">
+        <v>279</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>275</v>
+      </c>
+      <c r="O36" t="s">
+        <v>73</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>280</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>281</v>
+      </c>
+      <c r="J37" t="s">
+        <v>282</v>
+      </c>
+      <c r="K37" t="s">
+        <v>283</v>
+      </c>
+      <c r="L37" t="s">
+        <v>284</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>275</v>
+      </c>
+      <c r="O37" t="s">
+        <v>73</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>285</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>286</v>
+      </c>
+      <c r="J38" t="s">
+        <v>287</v>
+      </c>
+      <c r="K38" t="s">
+        <v>288</v>
+      </c>
+      <c r="L38" t="s">
+        <v>289</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>275</v>
+      </c>
+      <c r="O38" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>290</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>291</v>
+      </c>
+      <c r="J39" t="s">
+        <v>292</v>
+      </c>
+      <c r="K39" t="s">
+        <v>293</v>
+      </c>
+      <c r="L39" t="s">
+        <v>294</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>275</v>
+      </c>
+      <c r="O39" t="s">
+        <v>91</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>295</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>296</v>
+      </c>
+      <c r="J40" t="s">
+        <v>297</v>
+      </c>
+      <c r="K40" t="s">
+        <v>298</v>
+      </c>
+      <c r="L40" t="s">
+        <v>299</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>300</v>
+      </c>
+      <c r="O40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>301</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>302</v>
+      </c>
+      <c r="J41" t="s">
+        <v>303</v>
+      </c>
+      <c r="K41" t="s">
+        <v>304</v>
+      </c>
+      <c r="L41" t="s">
+        <v>305</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>300</v>
+      </c>
+      <c r="O41" t="s">
+        <v>91</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>306</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>307</v>
+      </c>
+      <c r="J42" t="s">
+        <v>303</v>
+      </c>
+      <c r="K42" t="s">
+        <v>308</v>
+      </c>
+      <c r="L42" t="s">
+        <v>309</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>310</v>
+      </c>
+      <c r="O42" t="s">
+        <v>73</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>311</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>312</v>
+      </c>
+      <c r="J43" t="s">
+        <v>303</v>
+      </c>
+      <c r="K43" t="s">
+        <v>313</v>
+      </c>
+      <c r="L43" t="s">
+        <v>314</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>310</v>
+      </c>
+      <c r="O43" t="s">
+        <v>101</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>315</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>316</v>
+      </c>
+      <c r="J44" t="s">
+        <v>317</v>
+      </c>
+      <c r="K44" t="s">
+        <v>318</v>
+      </c>
+      <c r="L44" t="s">
+        <v>319</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>310</v>
+      </c>
+      <c r="O44" t="s">
+        <v>91</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>320</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>321</v>
+      </c>
+      <c r="J45" t="s">
+        <v>322</v>
+      </c>
+      <c r="K45" t="s">
+        <v>323</v>
+      </c>
+      <c r="L45" t="s">
+        <v>324</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>325</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>326</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>327</v>
+      </c>
+      <c r="J46" t="s">
+        <v>328</v>
+      </c>
+      <c r="K46" t="s">
+        <v>329</v>
+      </c>
+      <c r="L46" t="s">
+        <v>330</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>325</v>
+      </c>
+      <c r="O46" t="s">
+        <v>91</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>331</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>332</v>
+      </c>
+      <c r="J47" t="s">
+        <v>333</v>
+      </c>
+      <c r="K47" t="s">
+        <v>334</v>
+      </c>
+      <c r="L47" t="s">
+        <v>335</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>336</v>
+      </c>
+      <c r="O47" t="s">
+        <v>73</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>337</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J48" t="s">
+        <v>339</v>
+      </c>
+      <c r="K48" t="s">
+        <v>340</v>
+      </c>
+      <c r="L48" t="s">
+        <v>341</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>336</v>
+      </c>
+      <c r="O48" t="s">
+        <v>91</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>342</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>343</v>
+      </c>
+      <c r="J49" t="s">
+        <v>344</v>
+      </c>
+      <c r="K49" t="s">
+        <v>345</v>
+      </c>
+      <c r="L49" t="s">
+        <v>346</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>336</v>
+      </c>
+      <c r="O49" t="s">
+        <v>91</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>347</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>348</v>
+      </c>
+      <c r="J50" t="s">
+        <v>349</v>
+      </c>
+      <c r="K50" t="s">
+        <v>350</v>
+      </c>
+      <c r="L50" t="s">
+        <v>351</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>336</v>
+      </c>
+      <c r="O50" t="s">
+        <v>73</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>352</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>353</v>
+      </c>
+      <c r="J51" t="s">
+        <v>354</v>
+      </c>
+      <c r="K51" t="s">
+        <v>355</v>
+      </c>
+      <c r="L51" t="s">
+        <v>356</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>336</v>
+      </c>
+      <c r="O51" t="s">
+        <v>66</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>358</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J52" t="s">
+        <v>360</v>
+      </c>
+      <c r="K52" t="s">
+        <v>361</v>
+      </c>
+      <c r="L52" t="s">
+        <v>362</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>363</v>
+      </c>
+      <c r="O52" t="s">
+        <v>91</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>364</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>365</v>
+      </c>
+      <c r="J53" t="s">
+        <v>366</v>
+      </c>
+      <c r="K53" t="s">
+        <v>367</v>
+      </c>
+      <c r="L53" t="s">
+        <v>368</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>363</v>
+      </c>
+      <c r="O53" t="s">
+        <v>101</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>369</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>370</v>
+      </c>
+      <c r="J54" t="s">
+        <v>371</v>
+      </c>
+      <c r="K54" t="s">
+        <v>372</v>
+      </c>
+      <c r="L54" t="s">
+        <v>373</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>363</v>
+      </c>
+      <c r="O54" t="s">
+        <v>73</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>375</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>376</v>
+      </c>
+      <c r="J55" t="s">
+        <v>377</v>
+      </c>
+      <c r="K55" t="s">
+        <v>378</v>
+      </c>
+      <c r="L55" t="s">
+        <v>379</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>380</v>
+      </c>
+      <c r="O55" t="s">
+        <v>101</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>381</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>382</v>
+      </c>
+      <c r="J56" t="s">
+        <v>383</v>
+      </c>
+      <c r="K56" t="s">
+        <v>384</v>
+      </c>
+      <c r="L56" t="s">
+        <v>385</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>386</v>
+      </c>
+      <c r="O56" t="s">
+        <v>91</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>388</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>389</v>
+      </c>
+      <c r="J57" t="s">
+        <v>390</v>
+      </c>
+      <c r="K57" t="s">
+        <v>391</v>
+      </c>
+      <c r="L57" t="s">
+        <v>392</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>386</v>
+      </c>
+      <c r="O57" t="s">
+        <v>101</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>393</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>394</v>
+      </c>
+      <c r="J58" t="s">
+        <v>395</v>
+      </c>
+      <c r="K58" t="s">
+        <v>396</v>
+      </c>
+      <c r="L58" t="s">
+        <v>397</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>386</v>
+      </c>
+      <c r="O58" t="s">
+        <v>73</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>398</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>399</v>
+      </c>
+      <c r="J59" t="s">
+        <v>400</v>
+      </c>
+      <c r="K59" t="s">
+        <v>401</v>
+      </c>
+      <c r="L59" t="s">
+        <v>402</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>403</v>
+      </c>
+      <c r="O59" t="s">
+        <v>73</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>405</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>406</v>
+      </c>
+      <c r="J60" t="s">
+        <v>407</v>
+      </c>
+      <c r="K60" t="s">
+        <v>408</v>
+      </c>
+      <c r="L60" t="s">
+        <v>409</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>410</v>
+      </c>
+      <c r="O60" t="s">
+        <v>73</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>411</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>412</v>
+      </c>
+      <c r="J61" t="s">
+        <v>413</v>
+      </c>
+      <c r="K61" t="s">
+        <v>410</v>
+      </c>
+      <c r="L61" t="s">
+        <v>414</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>410</v>
+      </c>
+      <c r="O61" t="s">
+        <v>73</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>415</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>416</v>
+      </c>
+      <c r="J62" t="s">
+        <v>417</v>
+      </c>
+      <c r="K62" t="s">
+        <v>418</v>
+      </c>
+      <c r="L62" t="s">
+        <v>419</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>420</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>422</v>
+      </c>
+      <c r="J63" t="s">
+        <v>423</v>
+      </c>
+      <c r="K63" t="s">
+        <v>424</v>
+      </c>
+      <c r="L63" t="s">
+        <v>425</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>426</v>
+      </c>
+      <c r="O63" t="s">
+        <v>66</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>427</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>428</v>
+      </c>
+      <c r="J64" t="s">
+        <v>429</v>
+      </c>
+      <c r="K64" t="s">
+        <v>430</v>
+      </c>
+      <c r="L64" t="s">
+        <v>431</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>432</v>
+      </c>
+      <c r="O64" t="s">
+        <v>66</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>434</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>435</v>
+      </c>
+      <c r="J65" t="s">
+        <v>436</v>
+      </c>
+      <c r="K65" t="s">
+        <v>437</v>
+      </c>
+      <c r="L65" t="s">
+        <v>438</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>439</v>
+      </c>
+      <c r="O65" t="s">
+        <v>66</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>441</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>442</v>
+      </c>
+      <c r="J66" t="s">
+        <v>443</v>
+      </c>
+      <c r="K66" t="s">
+        <v>444</v>
+      </c>
+      <c r="L66" t="s">
+        <v>445</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>446</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>447</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>448</v>
+      </c>
+      <c r="J67" t="s">
+        <v>449</v>
+      </c>
+      <c r="K67" t="s">
+        <v>450</v>
+      </c>
+      <c r="L67" t="s">
+        <v>451</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>452</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>453</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>454</v>
+      </c>
+      <c r="J68" t="s">
+        <v>455</v>
+      </c>
+      <c r="K68" t="s">
+        <v>456</v>
+      </c>
+      <c r="L68" t="s">
+        <v>457</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>446</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>458</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>459</v>
+      </c>
+      <c r="J69" t="s">
+        <v>460</v>
+      </c>
+      <c r="K69" t="s">
+        <v>461</v>
+      </c>
+      <c r="L69" t="s">
+        <v>462</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>463</v>
+      </c>
+      <c r="O69" t="s">
+        <v>73</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>464</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>465</v>
+      </c>
+      <c r="J70" t="s">
+        <v>466</v>
+      </c>
+      <c r="K70" t="s">
+        <v>467</v>
+      </c>
+      <c r="L70" t="s">
+        <v>468</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>452</v>
+      </c>
+      <c r="O70" t="s">
+        <v>101</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>469</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>470</v>
+      </c>
+      <c r="J71" t="s">
+        <v>471</v>
+      </c>
+      <c r="K71" t="s">
+        <v>472</v>
+      </c>
+      <c r="L71" t="s">
+        <v>473</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>474</v>
+      </c>
+      <c r="O71" t="s">
+        <v>73</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>476</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>477</v>
+      </c>
+      <c r="J72" t="s">
+        <v>478</v>
+      </c>
+      <c r="K72" t="s">
+        <v>479</v>
+      </c>
+      <c r="L72" t="s">
+        <v>480</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>481</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>482</v>
+      </c>
+      <c r="J73" t="s">
+        <v>483</v>
+      </c>
+      <c r="K73" t="s">
+        <v>484</v>
+      </c>
+      <c r="L73" t="s">
+        <v>485</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>474</v>
+      </c>
+      <c r="O73" t="s">
+        <v>91</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="n">
+        <v>2</v>
+      </c>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>487</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>488</v>
+      </c>
+      <c r="J74" t="s">
+        <v>489</v>
+      </c>
+      <c r="K74" t="s">
+        <v>490</v>
+      </c>
+      <c r="L74" t="s">
+        <v>491</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>492</v>
+      </c>
+      <c r="O74" t="s">
+        <v>73</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>494</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>495</v>
+      </c>
+      <c r="J75" t="s">
+        <v>496</v>
+      </c>
+      <c r="K75" t="s">
+        <v>497</v>
+      </c>
+      <c r="L75" t="s">
+        <v>498</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>499</v>
+      </c>
+      <c r="O75" t="s">
+        <v>101</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>500</v>
+      </c>
+      <c r="X75" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>503</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>504</v>
+      </c>
+      <c r="J76" t="s">
+        <v>505</v>
+      </c>
+      <c r="K76" t="s">
+        <v>506</v>
+      </c>
+      <c r="L76" t="s">
+        <v>507</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>508</v>
+      </c>
+      <c r="O76" t="s">
+        <v>73</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>510</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>511</v>
+      </c>
+      <c r="J77" t="s">
+        <v>512</v>
+      </c>
+      <c r="K77" t="s">
+        <v>513</v>
+      </c>
+      <c r="L77" t="s">
+        <v>514</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>515</v>
+      </c>
+      <c r="O77" t="s">
+        <v>101</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>516</v>
+      </c>
+      <c r="X77" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>519</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>520</v>
+      </c>
+      <c r="J78" t="s">
+        <v>521</v>
+      </c>
+      <c r="K78" t="s">
+        <v>522</v>
+      </c>
+      <c r="L78" t="s">
+        <v>523</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>524</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>525</v>
+      </c>
+      <c r="J79" t="s">
+        <v>526</v>
+      </c>
+      <c r="K79" t="s">
+        <v>527</v>
+      </c>
+      <c r="L79" t="s">
+        <v>528</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>529</v>
+      </c>
+      <c r="O79" t="s">
+        <v>66</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>531</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>532</v>
+      </c>
+      <c r="J80" t="s">
+        <v>533</v>
+      </c>
+      <c r="K80" t="s">
+        <v>534</v>
+      </c>
+      <c r="L80" t="s">
+        <v>535</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>536</v>
+      </c>
+      <c r="O80" t="s">
+        <v>73</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>538</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>539</v>
+      </c>
+      <c r="J81" t="s">
+        <v>540</v>
+      </c>
+      <c r="K81" t="s">
+        <v>541</v>
+      </c>
+      <c r="L81" t="s">
+        <v>542</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s">
+        <v>536</v>
+      </c>
+      <c r="O81" t="s">
+        <v>73</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>544</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>545</v>
+      </c>
+      <c r="J82" t="s">
+        <v>546</v>
+      </c>
+      <c r="K82" t="s">
+        <v>547</v>
+      </c>
+      <c r="L82" t="s">
+        <v>548</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>549</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>550</v>
+      </c>
+      <c r="J83" t="s">
+        <v>551</v>
+      </c>
+      <c r="K83" t="s">
+        <v>552</v>
+      </c>
+      <c r="L83" t="s">
+        <v>553</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>554</v>
+      </c>
+      <c r="O83" t="s">
+        <v>73</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>556</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>557</v>
+      </c>
+      <c r="J84" t="s">
+        <v>558</v>
+      </c>
+      <c r="K84" t="s">
+        <v>559</v>
+      </c>
+      <c r="L84" t="s">
+        <v>560</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>561</v>
+      </c>
+      <c r="O84" t="s">
+        <v>73</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>562</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>563</v>
+      </c>
+      <c r="J85" t="s">
+        <v>564</v>
+      </c>
+      <c r="K85" t="s">
+        <v>565</v>
+      </c>
+      <c r="L85" t="s">
+        <v>566</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>561</v>
+      </c>
+      <c r="O85" t="s">
+        <v>73</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>567</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>568</v>
+      </c>
+      <c r="J86" t="s">
+        <v>569</v>
+      </c>
+      <c r="K86" t="s">
+        <v>570</v>
+      </c>
+      <c r="L86" t="s">
+        <v>571</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="s">
+        <v>572</v>
+      </c>
+      <c r="O86" t="s">
+        <v>101</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>573</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>574</v>
+      </c>
+      <c r="J87" t="s">
+        <v>575</v>
+      </c>
+      <c r="K87" t="s">
+        <v>576</v>
+      </c>
+      <c r="L87" t="s">
+        <v>577</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>578</v>
+      </c>
+      <c r="O87" t="s">
+        <v>101</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>579</v>
+      </c>
+      <c r="X87" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>582</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>583</v>
+      </c>
+      <c r="J88" t="s">
+        <v>584</v>
+      </c>
+      <c r="K88" t="s">
+        <v>585</v>
+      </c>
+      <c r="L88" t="s">
+        <v>586</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>587</v>
+      </c>
+      <c r="O88" t="s">
+        <v>91</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>2</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>589</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>590</v>
+      </c>
+      <c r="J89" t="s">
+        <v>591</v>
+      </c>
+      <c r="K89" t="s">
+        <v>592</v>
+      </c>
+      <c r="L89" t="s">
+        <v>593</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>594</v>
+      </c>
+      <c r="O89" t="s">
+        <v>73</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>595</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>596</v>
+      </c>
+      <c r="J90" t="s">
+        <v>597</v>
+      </c>
+      <c r="K90" t="s">
+        <v>598</v>
+      </c>
+      <c r="L90" t="s">
+        <v>599</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s">
+        <v>600</v>
+      </c>
+      <c r="O90" t="s">
+        <v>73</v>
+      </c>
+      <c r="P90" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>602</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>603</v>
+      </c>
+      <c r="J91" t="s">
+        <v>604</v>
+      </c>
+      <c r="K91" t="s">
+        <v>605</v>
+      </c>
+      <c r="L91" t="s">
+        <v>606</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>600</v>
+      </c>
+      <c r="O91" t="s">
+        <v>73</v>
+      </c>
+      <c r="P91" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>607</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>608</v>
+      </c>
+      <c r="J92" t="s">
+        <v>609</v>
+      </c>
+      <c r="K92" t="s">
+        <v>610</v>
+      </c>
+      <c r="L92" t="s">
+        <v>611</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>612</v>
+      </c>
+      <c r="O92" t="s">
+        <v>91</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>2</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>613</v>
+      </c>
+      <c r="X92" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>616</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>617</v>
+      </c>
+      <c r="J93" t="s">
+        <v>618</v>
+      </c>
+      <c r="K93" t="s">
+        <v>619</v>
+      </c>
+      <c r="L93" t="s">
+        <v>620</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>621</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>622</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>623</v>
+      </c>
+      <c r="J94" t="s">
+        <v>624</v>
+      </c>
+      <c r="K94" t="s">
+        <v>625</v>
+      </c>
+      <c r="L94" t="s">
+        <v>626</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s">
+        <v>627</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>628</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>629</v>
+      </c>
+      <c r="J95" t="s">
+        <v>630</v>
+      </c>
+      <c r="K95" t="s">
+        <v>631</v>
+      </c>
+      <c r="L95" t="s">
+        <v>632</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>633</v>
+      </c>
+      <c r="O95" t="s">
+        <v>101</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="n">
+        <v>3</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>634</v>
+      </c>
+      <c r="X95" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>637</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>638</v>
+      </c>
+      <c r="J96" t="s">
+        <v>639</v>
+      </c>
+      <c r="K96" t="s">
+        <v>640</v>
+      </c>
+      <c r="L96" t="s">
+        <v>641</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="s">
+        <v>642</v>
+      </c>
+      <c r="O96" t="s">
+        <v>73</v>
+      </c>
+      <c r="P96" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="n">
+        <v>3</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>2</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>634</v>
+      </c>
+      <c r="X96" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>644</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>645</v>
+      </c>
+      <c r="J97" t="s">
+        <v>646</v>
+      </c>
+      <c r="K97" t="s">
+        <v>647</v>
+      </c>
+      <c r="L97" t="s">
+        <v>648</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>649</v>
+      </c>
+      <c r="O97" t="s">
+        <v>73</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>650</v>
+      </c>
+      <c r="X97" t="s">
+        <v>651</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>653</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>654</v>
+      </c>
+      <c r="J98" t="s">
+        <v>655</v>
+      </c>
+      <c r="K98" t="s">
+        <v>656</v>
+      </c>
+      <c r="L98" t="s">
+        <v>657</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>658</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>659</v>
+      </c>
+      <c r="X98" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>662</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>663</v>
+      </c>
+      <c r="J99" t="s">
+        <v>664</v>
+      </c>
+      <c r="K99" t="s">
+        <v>665</v>
+      </c>
+      <c r="L99" t="s">
+        <v>666</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s">
+        <v>667</v>
+      </c>
+      <c r="O99" t="s">
+        <v>91</v>
+      </c>
+      <c r="P99" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>2</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>659</v>
+      </c>
+      <c r="X99" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>669</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>670</v>
+      </c>
+      <c r="J100" t="s">
+        <v>671</v>
+      </c>
+      <c r="K100" t="s">
+        <v>672</v>
+      </c>
+      <c r="L100" t="s">
+        <v>673</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="s">
+        <v>674</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>2</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>675</v>
+      </c>
+      <c r="X100" t="s">
+        <v>676</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>678</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>679</v>
+      </c>
+      <c r="J101" t="s">
+        <v>680</v>
+      </c>
+      <c r="K101" t="s">
+        <v>681</v>
+      </c>
+      <c r="L101" t="s">
+        <v>682</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
+        <v>683</v>
+      </c>
+      <c r="O101" t="s">
+        <v>73</v>
+      </c>
+      <c r="P101" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>1</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>1</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>684</v>
+      </c>
+      <c r="X101" t="s">
+        <v>685</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>687</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>688</v>
+      </c>
+      <c r="J102" t="s">
+        <v>689</v>
+      </c>
+      <c r="K102" t="s">
+        <v>690</v>
+      </c>
+      <c r="L102" t="s">
+        <v>691</v>
+      </c>
+      <c r="M102" t="n">
+        <v>3</v>
+      </c>
+      <c r="N102" t="s">
+        <v>692</v>
+      </c>
+      <c r="O102" t="s">
+        <v>73</v>
+      </c>
+      <c r="P102" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>3</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>3</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>693</v>
+      </c>
+      <c r="X102" t="s">
+        <v>694</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>696</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>697</v>
+      </c>
+      <c r="J103" t="s">
+        <v>698</v>
+      </c>
+      <c r="K103" t="s">
+        <v>699</v>
+      </c>
+      <c r="L103" t="s">
+        <v>700</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2</v>
+      </c>
+      <c r="N103" t="s">
+        <v>683</v>
+      </c>
+      <c r="O103" t="s">
+        <v>73</v>
+      </c>
+      <c r="P103" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>1</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>1</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>701</v>
+      </c>
+      <c r="X103" t="s">
+        <v>702</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>704</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>705</v>
+      </c>
+      <c r="J104" t="s">
+        <v>706</v>
+      </c>
+      <c r="K104" t="s">
+        <v>707</v>
+      </c>
+      <c r="L104" t="s">
+        <v>708</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>709</v>
+      </c>
+      <c r="O104" t="s">
+        <v>73</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>4</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>2</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>710</v>
+      </c>
+      <c r="X104" t="s">
+        <v>711</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>713</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>714</v>
+      </c>
+      <c r="J105" t="s">
+        <v>715</v>
+      </c>
+      <c r="K105" t="s">
+        <v>716</v>
+      </c>
+      <c r="L105" t="s">
+        <v>717</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>718</v>
+      </c>
+      <c r="O105" t="s">
+        <v>91</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>719</v>
+      </c>
+      <c r="X105" t="s">
+        <v>711</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>721</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>722</v>
+      </c>
+      <c r="J106" t="s">
+        <v>723</v>
+      </c>
+      <c r="K106" t="s">
+        <v>724</v>
+      </c>
+      <c r="L106" t="s">
+        <v>725</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>726</v>
+      </c>
+      <c r="O106" t="s">
+        <v>101</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>710</v>
+      </c>
+      <c r="X106" t="s">
+        <v>711</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>728</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>729</v>
+      </c>
+      <c r="J107" t="s">
+        <v>730</v>
+      </c>
+      <c r="K107" t="s">
+        <v>731</v>
+      </c>
+      <c r="L107" t="s">
+        <v>732</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="s">
+        <v>733</v>
+      </c>
+      <c r="O107" t="s">
+        <v>73</v>
+      </c>
+      <c r="P107" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>3</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>3</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>1</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>734</v>
+      </c>
+      <c r="X107" t="s">
+        <v>735</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>737</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>738</v>
+      </c>
+      <c r="J108" t="s">
+        <v>739</v>
+      </c>
+      <c r="K108" t="s">
+        <v>740</v>
+      </c>
+      <c r="L108" t="s">
+        <v>741</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="s">
+        <v>733</v>
+      </c>
+      <c r="O108" t="s">
+        <v>53</v>
+      </c>
+      <c r="P108" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>1</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>742</v>
+      </c>
+      <c r="X108" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>33675</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>745</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>746</v>
+      </c>
+      <c r="J109" t="s">
+        <v>747</v>
+      </c>
+      <c r="K109" t="s">
+        <v>748</v>
+      </c>
+      <c r="L109" t="s">
+        <v>749</v>
+      </c>
+      <c r="M109" t="n">
+        <v>3</v>
+      </c>
+      <c r="N109" t="s"/>
+      <c r="O109" t="s"/>
+      <c r="P109" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>3</v>
+      </c>
+      <c r="R109" t="n">
+        <v>3</v>
+      </c>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>4</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>742</v>
+      </c>
+      <c r="X109" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>750</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_680.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_680.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="858">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Mike C</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Moved2Texas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r578480864-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>We stayed at the Sleep Inn Six Flags while up in Arlington for a baseball game.  There are some good things with this hotel. 1. location!  This hotel is right next to Six Flags amusement park and is within walking distance to Globe Life Park and ATT Stadium.  I found out after returning that they offer a ride to the Ranger games, so ask about that if you go.2. Free breakfast!  The breakfast is good and features a waffle machine and an egg and meat offering in addition to continental breakfast items.3. Updated rooms! The hotel was renovated a few years ago and it was a big improvement.Room for improvement: we did find a few maintenance issues with our room, but it was clean and comfortable so the important parts were covered.More</t>
   </si>
   <si>
+    <t>Alan304</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r576586036-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Jasmine O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r560308929-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t>Stayed here for a quick weekend in February with family.  Check in was quick and easy and was given a snack which was a nice gesture. Staff was very friendly and helpful. Room was nice and clean. The day before we left, the hot water ran out and we were immediately given a new room. Breakfast was great as well. Very nice stay altogether. More</t>
   </si>
   <si>
+    <t>Eric0518</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r549379531-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -276,6 +291,9 @@
     <t>I work at a Choice property. I was paying for this room for my sister. When I called to have it charged to my card, a very rude agent, Antonio said that I would have to be present at checkin and they don’t accept CC auth forms. This means that no one can pay for anyone else’s room unless they are present with the card. I never heard of such a thing. I asked members of management at my property and they have never heard of such a thing. I canceled my reservation and made it at another property. They must have so much business that it doesn’t matter if they turn away many guests that are not paying for their own rooms.More</t>
   </si>
   <si>
+    <t>raddog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r547937449-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -303,6 +321,9 @@
     <t>Well I decided to sleep here on the last night on business - since my stay at another hotel down the road was overbooked/full. I figured it's one night....first off the pics online look great but the rooms are dated however the TV is updated and the staff was very friendly and nice and they did noticed that I was a rewards member which I appreciated!will I stay here again...probably especially when the price is $59.00 bucks a night, breakfast was good and staff was very nice.see picsMore</t>
   </si>
   <si>
+    <t>KJA64</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r538751235-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -333,6 +354,9 @@
     <t>I stayed at this property twice in one week (3 days total); guess I was a gluten for punishment!  The first stay should have been my wakeup call.  The bathroom pocket door was difficult to close, in the first room the shower had low water pressure so the shower head was more like a squirt than a spray (the second room was fine so the evident mineral buildup on the outlets were the likely problem), in both rooms the toilet seat needed to be tightened down as the seat slid sideways, the bath towels were more like an over-sized kitchen towel, and the towel bar on one shower door was broken off with a hole in the door.  The wifi was extremely slow in the evening.  The a/c was noisy and inefficient.  The second room's carpet was dirty and left a white powdery coating on my dark socks.  The breakfast selection was "common fare" for U.S. hotels; the 3 tables I used during my stay ALL rocked from being unleveled (I advised the staff after seeing a young child almost end up with a cup of coffee being spilled).More</t>
   </si>
   <si>
+    <t>Idaly M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r529278718-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -360,6 +384,9 @@
     <t>Nice hotel, rooms are small but were clean. The bed was very comfortable and the staff was very nice. The location is easy to find and we will definitely stay there again during our next visit. The price was very good as well.More</t>
   </si>
   <si>
+    <t>ccanders</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r528155834-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -384,6 +411,9 @@
     <t>We picked the hotel for its proximity to the Texas Rangers stadium. It's right across from Six Flags as a matter of fact (which was not on our itinerary). There was a free trolley to the game that night and every night for baseball and football btw. Super easy to use. My only complaint about the hotel is that the rooms are somewhat small, and there were only two of us. But considering the price, the location, the free breakfast, the cleanliness, the friendliness and all it was a great place to stay. Plus it has a pool, and you can walk to at least 2 restaurants - a sports bar with great apps and Denny's.More</t>
   </si>
   <si>
+    <t>kgant2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r510038944-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -411,6 +441,9 @@
     <t>General Manager does not care about condition of hotel. Terrible ac, terrible bathroom, roaches galore, less than mediocre breakfast. Only person at the hotel who was pleasant was Mrs. Cheryl. Had to get my own towels.More</t>
   </si>
   <si>
+    <t>Cheryl M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r501561558-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -432,6 +465,9 @@
     <t>Wonderful nice and friendly staff Cheryl went out her way to make us feel like were at home breakfast was good and fresh hotel was clean I thought it was going to be loud because of six flags it was so quiet and we will definitely be backMore</t>
   </si>
   <si>
+    <t>GayPomroy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r500087802-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -453,6 +489,9 @@
     <t>The staff was very friendly and helpful.  The room was clean, small, but since we only were staying one night we were ok with that.  Next time we will try to get a king bed and hopefully the room will be bigger.More</t>
   </si>
   <si>
+    <t>georgesidney</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r486086955-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -474,6 +513,9 @@
     <t>As they say location location location, and it doesn't get any better than here, next to a cool sports bar, a short walk from the stadiums and in the middle of the fun park at six flags.. Breakfast nothing to write home about, window dressing of a swimming pool too, but all in all worth a visit...More</t>
   </si>
   <si>
+    <t>Keyocea M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r476988067-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -495,6 +537,9 @@
     <t>Was tired from traveling for job all week, and decided to take a trip to my hometown to see family for weekend. Looked for a nice place on internet to relax, rest, and take shower. Upon check-in, I had to wait on hostess to check me in because she was engaged in a very deep conversation with a friend. After about 5 minutes, I kind of cleared my throat in disgust to get her attention so I could get to my room key to get ready for bed (It was somewhere between 1030pm-1100pm ;very tired) It was very hard to sleep due to the walls being paper thin. I really was expecting more insulation in facility since we were across from six flags and children stay here with parents. But I literally could her people's conversations in their room from up to four doors down. Day staff was very friendly and understood my frustration, and apologized. If all of their facility walls are paper thin like this location, I will not stay at another sleep inn.More</t>
   </si>
   <si>
+    <t>tosh06</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r469667910-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -513,6 +558,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>WinchesterWanderlust</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r447950403-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -534,6 +582,9 @@
     <t>Not only is this property located right by Six  Flags, it is also very close to The International Bowling Museum and Hall of Fame.  Also, their location is just a short drive away from the famous AT&amp;T Stadium (Cowboy Stadium) and the Ranger (Baseball) Field!!More</t>
   </si>
   <si>
+    <t>Dana M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r447886535-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -549,6 +600,9 @@
     <t>1st visit to area. Great staff, very friendly. My only complaints are with hotel itself. It is an older hotel,  really needs updated. I did have 2 problems with room, didn't bring it up, what can they do besides switch rooms. The knob to microwave came off, and towel rack fell off. Beds are okay. Loved that it was in great location. We walked across street to 6 flags. We did not use arlington trolley that was referenced, was told it charged $20 a person, so we took another car service. More</t>
   </si>
   <si>
+    <t>jhorton0713</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r445263950-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -564,6 +618,9 @@
     <t>We were lucky to get a room here,  we did not have a reservation. With all the championship games being played at AT&amp;T stadium It was really crowded everywhere.But, the room was #310, it had a broken toilet seat, the light in the shower did not work, the desk chair was broken, and at 10pm on 12/16/2016, there was no hot water for a shower.I reported all this to the desk clerk as we were checking out, 12/17/2016.</t>
   </si>
   <si>
+    <t>Jim M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r435690849-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -591,6 +648,9 @@
     <t>Directly across the street from Six Flags, about 1.5 miles from Texas Rangers Stadium and about 2 miles from Dallas Cowboys AT&amp;T Stadium and many very good restaurants close by.  The staff was very friendly and the room clean.  The room we had contained a king size bed and only one desk chair.  For one night, that might be ok, but we stayed here for 4 nights.  The toilet and shower are in a small enclosed area with the sink outside of this area.  The breakfast was not that good with the selection the same every day, with eggs that were not edible. However, Denny's is very close by.More</t>
   </si>
   <si>
+    <t>TyandAm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r434672809-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -609,6 +669,9 @@
     <t>We stayed here a couple of nights while in town to check out Six Flags.  The location can't be beat, allowing for easy access via short walk to the park.  The front desk staff was very friendly and kind to us as we came and went.  Beware, and maybe this was a one time thing, but we did return one evening and noticed that there was an immense pot aroma throughout the elevator and floor we were on.  To each their own, but as a hotel I would get in front of that problem immediately.  Unfortunately, our room was really quite disgusting.  I normally avoid anything less than socks on hotel room floors.  I would suggest a two sock minimum at this hotel.  That aside, I would stay here again if I was going to Six Flags, but anything else and I'd spend a little more money for something of higher quality.More</t>
   </si>
   <si>
+    <t>open943</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r434427236-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -625,6 +688,9 @@
   </si>
   <si>
     <t>We stayed for a week total. A couple leading up to the Dallas/Eagles game and a few after. We walked to the stadium it took about 40 minutes. The staff all were very nice and helpful.  Room was clean bed was comfortable. Pool looked nice nevwr got a chance to swim to much running around. Would stay again if in the area.  More</t>
+  </si>
+  <si>
+    <t>TreNorth</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r428944700-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
@@ -647,6 +713,9 @@
 We booked a double room that was a bit small for my wife and son but we understood prior what we were getting into and it was clean. The room also had a musty smell but we had some room spray on hand and quickly took care of that in a matter of seconds. The air conditioner blew cold which was a plus. We also has a refrigerator and microwave which came in handy for our drinks and leftover pizza. A 32 inch TV that hung on the wall above the nice desk and chair added a little flavor to this small but quaint room. We also had a small wardrobe closet with hangers to store our small luggage and other miscellaneous items. An iron and board was provided however the board and cover were in need of replacing..very stained and dirty. The iron did its job...I have to admit that upon arrival I was nervous! There was a tailgating party of about 10 people with liquor and kids and no game in sight! However Check In was quick and easy but with no welcoming smiles from the  receptionist. The small lobby had a stinch that was a mixture of  fragrance and "pine cones"...use your imagination please. Location was great as we were across the street from Six Flags, down the street from Ranger Stadium and a few minutes from Cowboy Stadium and nearby a host of eating places.We booked a double room that was a bit small for my wife and son but we understood prior what we were getting into and it was clean. The room also had a musty smell but we had some room spray on hand and quickly took care of that in a matter of seconds. The air conditioner blew cold which was a plus. We also has a refrigerator and microwave which came in handy for our drinks and leftover pizza. A 32 inch TV that hung on the wall above the nice desk and chair added a little flavor to this small but quaint room. We also had a small wardrobe closet with hangers to store our small luggage and other miscellaneous items. An iron and board was provided however the board and cover were in need of replacing..very stained and dirty. The iron did its job with a clean and hot surface plate which had no leaky or dirt residue. The bathroom area was really small and sat right next to one of the beds with the sink on the outside and a sliding door that housed the shower and toilet combo. In other words if you dropped the #2 in the middle of the night you better hope for a quiet and soft landing!!! The shower was very nice and resembled a space capsule but I have to admit was a good size with a well equipped shower head that made for a really nice shower. What about the bedding you ask? To be honest if you're a medium sized person with a spouse...don't even try it!! Too small...and the mattresses were not comfortable for us or the kiddo. The springs were bouncy like a trampoline and I tossed all night. The pillows were nice and helped a little but nothing to brag about. Again we knew what it was coming in and the size of the bed was really our negligence. Let's talk about the additional amenities that we used and I will wrap this review up: Complimentary Breakfast served 6am til 9am! Waffles, sausage and ham along with eggs, toast and bagels were okay. They did have a variety to choose from including cereals, yogurt, pastries and more. Coffee, orange and apple juice were served. Saved us on a meal!WiFi worked really well and was easy to access. Parking was Free but they made sure you were informed that it was at your risk with signs outside and in the hotel elevators and everywhere we turned. However they did have adequate lighting. We didn't feel threatened but I did check the window frequently to check on my car. Overall this was an average hotel that I would stay in again but not with my family due to its size.More</t>
   </si>
   <si>
+    <t>Jim L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r424845705-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -665,6 +734,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Cecil S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r424097987-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -680,6 +752,9 @@
     <t>Spent a long weekend going to a college game, Cowboys game and Rangers game.  Sleep inn is the perfect location for Cowboys stadium and Rangers ball park (walking distance and trolley service).  Close to good restaurants.  Sleep inn staff were very polite and helpful.  Great stay and will be back.</t>
   </si>
   <si>
+    <t>kgchan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r414390321-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -695,6 +770,9 @@
     <t xml:space="preserve">Just the essentials for a short trip to Dallas.  Clean rooms, strong air con, free basic breakfast, free parking and wifi. A couple of nearby eateries and near freeway. Right next to six flags theme park so if the window is open you can hear the people screaming on the rides. Rooms aren't as large as other similarly priced hotels. Shower is small standing only. </t>
   </si>
   <si>
+    <t>Denicia B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r404244007-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -713,6 +791,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>RachelCS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r400190041-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -734,6 +815,9 @@
     <t>I stayed here on a weekend trip with my husband and 2 nephews because it was close to the stadium where the Rangers play.  It is one mile from this hotel to the stadium, which is walking distance for us.  The hotel  was okay at first glance, but there were lots of signs warning how to avoid car break-ins, which was my first clue about this place.  The room itself (#330) was mediocre at best.  The bathroom door is broken.  I had to finagle and muscle it closed.  It is a pocket door with a broken track.  Neither of my nephews could do it on their own (ages 6 and 8).  The toilet paper holder on the wall had been pulled out at some point and looks like it has been shoved back into place at some point as a temporary fix.  The carpet wasn't very clean.  Now for the positives: the pool is okay, the breakfast was decent, and as I mentioned, the location would be perfect for someone attending a Ranger's game or going to Six Flags.  We were literally across the street from the theme park.  Would I stay again?  Nope.More</t>
   </si>
   <si>
+    <t>moe40moe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r388597044-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -749,6 +833,9 @@
     <t>We stayed here in June while attending a Ranger game. It was clean and the staff was great. It is close to the stadium so you can walk to the game. The beds were comfortable and the air conditioner worked great which felt good after walking back from the game.</t>
   </si>
   <si>
+    <t>tbear1Lubbock</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r387607344-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -767,6 +854,9 @@
     <t>Stayed in 6/25/16 for one night for the Ranger VR Red Sox game. Good location to walk to game about 1 mile. I feel the price was high for this hotel. Phone did not work in room so if we had questions had to go down stairs to ask, couldn't order pizza. It said it was a queen size bed but felt like a full size, mattress was soft, air conditioning fan was loud and could not turn down the fan to low. We didn't eat breakfast as it was only for 2 hours in the mornings, snack machines were empty as well. Shower floor was slippery, had a good shower head with 2 different settings. More</t>
   </si>
   <si>
+    <t>Samantha B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r379824169-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -785,6 +875,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Carolfromorlando</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r362662416-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -803,6 +896,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Andy F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r362557978-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -813,6 +909,9 @@
   </si>
   <si>
     <t>We booked this hotel as it was close to the at&amp;t stadium.The hotel meet all our requirements, the desk staff were friendly all the time. Housekeeping was first class. We didn't think the included breakfast would be up to much but we were pleasantly surprised. Free coffee all day. The pool wasn't open at this time of the year but it looked fine.A few restaurants in walking distance.Six flags park across the road, no need to pay parking fees.We would come to this hotel again if we were visiting this area.</t>
+  </si>
+  <si>
+    <t>Mark G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r362556558-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
@@ -838,6 +937,9 @@
 Breakfast. Very disappointing...but maybe...My son and I stayed here for one night for Wrestlemania 32. Normally I would select a Hilton chained hotel but they were sold out. Check Inn. We arrived 2 hours early...I  was told to we would have to wait and hour for a room. I asked the receptionist if the hotel had laundry facilities as I had some clothing to wash and it would kill a bit time...the receptionist showed me and informed me everything I needed to know about the washer and dryer. An hour later like she said and we were checked in. The girls at reception seemed very friendly.The Lobby. It was on the small side. One thing that I noticed straight away was the 2 lifts were opposite the the receptionist desk only 10 feet from lift to desk...this proved problematic the next morning getting out the lift. There is a nice little seated area beside the main entrance to the hotel lobby.The Room. 2 nearly queen sized beds, decent TV channel selection, iron and ironing board. The aircon was a bit loud and had no remote, I couldn't find a in room safe. The bathroom consisted of a wc and a shower unit that worked really well the bathroom sink is situated in the bedroom and not bathroom and the bathroom door is slide open rather that push open. I have to say everything was nice and clean.Breakfast. Very disappointing...but maybe it was because we arrived 30 minutes before the end of breakfast. Bread slices felt soggy one part and dry the other. Sausage tasted like Hilton chained sausages...there was no bacon or scrambled eggs left...the coffee machine wasn't working. There was also cereal and a waffle making machine. Leisure facilities. There is a gymnasium and swimming pool...the swimming pool wasn't open even thought it was in the lower 80s.Laundry facilitie. There was one washer and one dryer...both worked very well...you can purchase Tidal washing powder for one wash from the vending machine for $1.25. The washer was $1.50 which you placed to quarters together in the three 50 cent slots. I can't remember how much the dryer was.Check out was very fast indeed...basically I handed my key card over, asked if I had a good sleep and that was that.Surrounding Area. The AT&amp;T Stadium where Wrestlemania was at is within walking distance if you're lazy...The Ball Park is even closer. Six Flags is next door but the Waterpark is a very short drive away.Final Thoughts. This was perfect for a one nights stay. It's clean and the staff seem to take pride in their jobs the ones i delt with were all very helpful and friendly. Yes if all the Hiltons were sold out or too expensive I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Robin B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r360466820-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -856,6 +958,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>WolrdPanda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r360309095-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -868,6 +973,9 @@
     <t xml:space="preserve">Stayed here due to airline cancellation. Not happy from the very beginning. No shuttle to hotel so had to pay taxi. Then got there and was told Hotel would not honor airline voucher for free night so had to pay a discounted (mercy) rate. Room was fair but shower filthy. Floors squeak when people walk and our upstairs neighbors must have had the urge to put in the miles last night. Night attendant was good to by opening refridge at 4:00 AM to get some yogurts. Must be great location for Six Flags visitors but for us grumpy travelers it was not impressive. </t>
   </si>
   <si>
+    <t>ginaleigh28</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r357555622-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -883,6 +991,9 @@
     <t>Very friendly and helpful staff. Just blocks away from all the major attraction in Arlington.  If you don't want to drive there is a trolley that stops just outside the hotel.  Room were clean and up to date.</t>
   </si>
   <si>
+    <t>HollyKitty S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r354696844-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -898,6 +1009,9 @@
     <t>super comfy bed nice looking rooms. No smoking smell roaming the hallways. only housekeeping needs more training. they dont get you what you need even when you informed them what you need prior to them cleaning your room. and we did find only 1 gigantic black cockroach in our bathroom during our stay. but the manager Sheryl was great and she was very sweet and welcoming and had great customer service skills. just because of her and how well she treated me and my family I will be staying there again. :)</t>
   </si>
   <si>
+    <t>Johnathon F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r353983323-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -913,6 +1027,9 @@
     <t>Mr. Marquee the night auditor was amazing. His welcome was very inviting; and he was on point makeing the check in process fast covered all the bases and I even helped me get signed up for the rewards program. Just wanted to let you know that he is one of the main reasons I chose to revisit your location. Aside from the contempary decor and valued pricing.</t>
   </si>
   <si>
+    <t>Nessa R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r350661136-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -931,6 +1048,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Helmut R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r344397446-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -946,6 +1066,9 @@
     <t>OK, the breakfast isn't their strength but the rooms are clean and neat and well equipped.Staff is helpful. Good value for money. Great WiFi. Location is great if you need / want to go to Fort Worth and Dalllas.</t>
   </si>
   <si>
+    <t>kimbarton08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r344328815-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -961,6 +1084,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Margaret L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r344282100-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -973,6 +1099,9 @@
     <t>My stay here was very pleasant. From the time to check-in, until I left in the morning. I visited during the winter, so I didn't get to visit Six Flags, but if you're planning to, this hotel is directly across from the park! Super convenient. The property was standard, nothing fancy about it, but it was well-kept. The room was very clean and everything worked properly. I would stay here again. Great price, especially for dropping in with no reservation for the night.</t>
   </si>
   <si>
+    <t>Ken B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r337105721-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -988,6 +1117,9 @@
     <t xml:space="preserve">Room was very nice. Clean and nicely done. Six flags is literally out the front door. At&amp;T stadium is about 1 mile or less away. We walked to the Stadium. Received a bag of chips and a bottle of water at check in. Breakfast was good, but your typical hotel fare.Worth the price. </t>
   </si>
   <si>
+    <t>ERIKALEXIA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r336021038-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1006,6 +1138,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>robertrP5401IZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r333293063-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1021,6 +1156,9 @@
     <t>Check in was great, people at the front desk are awesome, room was outstanding. Bed was totally comfortable it was by accident I stayed at the Sleep Inn but now I will always stand to sleep in when I'm in the area.</t>
   </si>
   <si>
+    <t>Dusty B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r330143023-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1039,6 +1177,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Danniib25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r330064414-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1054,6 +1195,9 @@
     <t>Great staff.  cheryl was awesome. Malissa , tasha , marquee, sharon rocked and made it a great stay. Nina was great. glad to have stay at this hotel .Its in a great area its right behind six flags and has a great atmosphere.</t>
   </si>
   <si>
+    <t>TravelRN24now</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r326346427-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1069,6 +1213,9 @@
     <t>Friendly, helpful staff at check-in and through out my stay. The room was clean, comfortable and the price was right for my budget. The property is pretty decent and no worries about the area since it was Six Flags commercial area with shopping, dining and business services available.</t>
   </si>
   <si>
+    <t>Raycer41</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r325005632-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1084,6 +1231,9 @@
     <t>Everyone we had contact with was very helpful and courteous. Breakfast was good. Selections from bacon and eggs to waffles to yogurt. The room was just ok. Mostly because it isnt a new place. It was clean and the bed was comfortable. A short drive to AT&amp;T stadium and just across the street from 6 Flags.</t>
   </si>
   <si>
+    <t>Erica S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r324639633-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1102,6 +1252,9 @@
     <t>My stay was just okay. I wasn't able to get my door open as well at the guest next to me. We had to go to the front desk not once but twice. It was rather frustrating.  Then when I entered my room the AC had leaked water all over the flood, the bathroom doors did not shut completely so there is absolutely no privacy. I was fortunate enough for the staff to be able to switch me into a new room. In the new room the bathroom doors once again did not shut and there was no light in the restroom. The breakfast and price were decent, the woman at the front desk was friendly but most likely will never book here again. More</t>
   </si>
   <si>
+    <t>hollywoodtomcat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r323495120-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1120,6 +1273,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Monica A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r319723934-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1133,6 +1289,9 @@
   </si>
   <si>
     <t>I stayed here during the week. The staff was extremely friendly.  The room was clean. The breakfast was decent.  If you book online you can find a great rate. I  had the king room. I really enjoyed the rest.</t>
+  </si>
+  <si>
+    <t>Maria F</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r319109768-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
@@ -1159,6 +1318,9 @@
 Checked in and when we got to our first room there were suitcases already in the room.  Second room we got the toilet was ready to overflow and called front desk to send someone up and they said they would.  After a 45 minute wait I went downstairs and was told that there was no one on the weekend to take care of the problem.  Then the clerk offered me a plunger so that we could take care of the problem ourselves.  REALLY!!!!!  I then requested a new room and was told they were sold out. So I requested the manager only to be told the same thing.  He then stated maybe we should not be using so much toilet paper.  Then I was really HOT!!!!  I then requested to speak to the owner, give me my money back or give me a new room.  Well, they managed to find a new room so we move to now the THIRD room.  We were OK until we turned off the lights and I had a cricket fly...First stay was in September:Room was clean with micro wave and fridge. Everything was OK until I noticed a big water bug (roach) in the room and crickets in the bathroom.  Thought we would try it again since we were on first floor next to laundry room and maybe that was where water bug and crickets came from.  Second stay was in October:Checked in and when we got to our first room there were suitcases already in the room.  Second room we got the toilet was ready to overflow and called front desk to send someone up and they said they would.  After a 45 minute wait I went downstairs and was told that there was no one on the weekend to take care of the problem.  Then the clerk offered me a plunger so that we could take care of the problem ourselves.  REALLY!!!!!  I then requested a new room and was told they were sold out. So I requested the manager only to be told the same thing.  He then stated maybe we should not be using so much toilet paper.  Then I was really HOT!!!!  I then requested to speak to the owner, give me my money back or give me a new room.  Well, they managed to find a new room so we move to now the THIRD room.  We were OK until we turned off the lights and I had a cricket fly to bed and land on my shoulder.  I slept with the lights on both nights we were there and was glad when we checked out.  Windows very dirty and if Six Flags is open plan to stay awake until midnight if your room faces the park.  Will not stay there again.More</t>
   </si>
   <si>
+    <t>Jacob C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r313327885-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1177,6 +1339,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Vision293</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r307008798-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1198,6 +1363,9 @@
     <t>Hello TA family, once again on the road in Texas this time. This hotel was a nice stay for the money. Staff was very friendly and wanting to accommodate any way possible, while this is true there were a couple things in all fairness to be duly noted. The rooms were clean for the most part, but not really updated. A bit more attention to detail when it comes to the cleaning agents used. Sometimes the rooms can be clean, but due to the cleaning agents that leave a not so attractive smell or sour smell or vinegary smell is not so appealing to the customer. If your interested in location and hospitality and price this is a good place to stay. Breakfast was fresh and staff was on top of insuring that refills were there. Make sure you know your license plates and your legal because they will ask you for the information. Its for your safety so that you have a descent place to park and non hotel stayers i.e six flags people are taking up your spot.More</t>
   </si>
   <si>
+    <t>thebetterhalfstravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r305106735-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1213,6 +1381,9 @@
     <t>I really liked this hotel! Not only was it economical and close to my destination, the staff was super nice and accommodating. It was perhaps the best deal I had my entire vacation, and all of the hotels I stayed in were very good, so this one was especially good!</t>
   </si>
   <si>
+    <t>Mike K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r303540079-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1228,6 +1399,9 @@
     <t>I stay in motels a lot and the Sleep Inn in Arlington had I believe the friendliest staff ever. The breakfast is very good with hot items and ample seating.  The rooms are somewhat small, basic but very clean and comfy (microwave and fridge in the rooms). The value is probably the best you will find in the area as it's close to lounges/ restaurants (within walking distance), Six Flags (across the street), central location to DFW and the professional sports stadium.</t>
   </si>
   <si>
+    <t>Kdenise25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r293073940-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1249,6 +1423,9 @@
     <t>The hotel was very clean, and smelled very well. My family and myself checked in a few minutes before 3pm, we had been traveling since 3am to visit a family member in the hospital so we were extremely tired. Unfortunately we were still charged the $10 early check in fee. I wish the young lady had informed us earlier that we could check in early when I called around 1pm. She didn't seem very welcoming. The lady that actually checked us was nice. Breakfast wasn't very good, only eggs and bacon (not to good). The breakfast attendant was no where to be found until she heard a noise and peaked from behind the door sitting in the chair. Even with the hotel being right across from Six Flags it was quiet and ended up being just what we needed to relax after a long day of traveling and then visiting with family.More</t>
   </si>
   <si>
+    <t>Patrick W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r289373788-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1267,6 +1444,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>acebub</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r288311667-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1279,6 +1459,9 @@
     <t>The lobby is like a scene from a bad 80's movie, dirty and sketchy. Our room had previous guest trash still in it and as soon as we flushed the toilet water covered the floor. Front desk didn't seem concerned at all. We checked out immediately...</t>
   </si>
   <si>
+    <t>Laura I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r271862295-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1297,6 +1480,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Gamzee21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r269569504-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1315,6 +1501,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Theresa M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r268428381-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1336,6 +1525,9 @@
     <t>If you are about cleanliness well this is not the place for you!!! We had been driving for 14hrs only to find someone else's urine on the mattress pad not to mention hair fibers and nasty sheets. We complained to the clerk and he brought up a change of sheets which we just as nasty as the ones already on the bed....we asked for another room and he said we got the last one and he would leave a note for the manager in the morning. Upon check out we tried to discuss the condition of or room but was shut down with a rude response of no one left a note of your complaint.....We will never stay in this sleep inn again.....More</t>
   </si>
   <si>
+    <t>anignitram07</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r250381945-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1357,6 +1549,9 @@
     <t>I am a pretty easy going person who NEVER complains because I own a tour company and understand to expect the unexpected when it comes to travel. My friend and I stayed here the night of the college football national championship game. After a LONG day driving--we looked forward to checking in, taking a shower, and going to the concert and game. Although check in was at 3pm...we arrived just before 3pm and they said our room was not ready. That was fair because it was not quite 3pm. No big deal, so we walked to the bar/restaurant next door in the parking lot to waste time so we could later check in and take a shower. We called the hotel at 3:15pm and she said it would be AT LEAST another hour before our room was ready. So we again wasted another hour at the restaurant just waiting for the room to be ready.  We walked back at 4:30pm, knowing that--for sure--our room was ready by now. WRONG! They said it might be yet another hour! If we had waited any longer, we would have missed the pre-game concert. Bottom line... we had ONE day to enjoy the national championship..and we wasted it waiting around for our hotel room to be ready. So my friend and I got ready in the BATHROOM LOBBY of the hotel and had to go to the game without a shower, which was awful...I am a pretty easy going person who NEVER complains because I own a tour company and understand to expect the unexpected when it comes to travel. My friend and I stayed here the night of the college football national championship game. After a LONG day driving--we looked forward to checking in, taking a shower, and going to the concert and game. Although check in was at 3pm...we arrived just before 3pm and they said our room was not ready. That was fair because it was not quite 3pm. No big deal, so we walked to the bar/restaurant next door in the parking lot to waste time so we could later check in and take a shower. We called the hotel at 3:15pm and she said it would be AT LEAST another hour before our room was ready. So we again wasted another hour at the restaurant just waiting for the room to be ready.  We walked back at 4:30pm, knowing that--for sure--our room was ready by now. WRONG! They said it might be yet another hour! If we had waited any longer, we would have missed the pre-game concert. Bottom line... we had ONE day to enjoy the national championship..and we wasted it waiting around for our hotel room to be ready. So my friend and I got ready in the BATHROOM LOBBY of the hotel and had to go to the game without a shower, which was awful because we had spent all day driving down to Texas. When we complained to the hotel, they said to complain to travelocity, because we didn't book with them. I called travelocity, who basically called the hotel while I waited on the line. Travelocity said the hotel was not willing to do anything for our inconvenience.  Even the girl at Travelocity thought that was awful.  We didn't even get an apology. I understand that some times things happen that are out of their control, but this place does not care to make it right to the customer. That is just bad business. I am a tour operator who brings tons of group business to Arlington and had looked forward to checking out a new property to bring our student groups to who go to Six Flags. Too bad they just lost their chance for lots of future business!More</t>
   </si>
   <si>
+    <t>ree l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r248456159-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1375,6 +1570,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>Gabby V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r247069423-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1393,6 +1591,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Andre R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r243985161-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1408,6 +1609,9 @@
     <t>Had a very enjoyable stay at this hotel. The front desk staff was extremely nice and knowledgeable all the way to the manager. The complimentary breakfast was a breath of fresh air from the NORMAL breakfasts we've seen at other hotels.</t>
   </si>
   <si>
+    <t>Wanda J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r238355945-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1426,6 +1630,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>amservice</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r234626128-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1439,6 +1646,9 @@
   </si>
   <si>
     <t>Nice Breakfast, Helpful staff good restaurants in the area Six Flags across the road.The only negative I have is the smoking smell throughout the Motel.Good value for money. Near the DFW airport.Near AT&amp;T stadium home of the Dallas Cowboys.</t>
+  </si>
+  <si>
+    <t>Kristi R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r225734054-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
@@ -1466,6 +1676,9 @@
 We drove home (4 hours) at 2:00 am. because this motel was so bad. Unless they make some major changes I would NOT recommend...I have stayed in some bad hotels and I've never complained, but this time, I can't keep quiet. I can not believe the conditions of this hotel and I know that choice hotels has a higher standard than this.  The website says it is under renovations, but the hotel was dirty. Stains on the carpet, stains on the wall and the first thing I saw when I walked in the room was a dead bug laying on the desk. And that's where it started...bugs on the walls, in the bathroom, on the chairs. And I have the pictures to prove it. The first night we put up with it because we only saw a couple and because of the event we were there for, all the hotels in the area were booked. The second night, we couldn't stay any longer when my husband turned on the light in the bathroom and bugs scattered everywhere. We packed immediately and checked out. After the first night, we tried to tell the front desk (who seemed nice enough) but she didn't seem to care. She also did not honor the rate we had been quoted on the reservation. Fortunately, after a phone call to customer relations, that was straightened out. Thank goodness I had the e-mails to prove it.We drove home (4 hours) at 2:00 am. because this motel was so bad. Unless they make some major changes I would NOT recommend this place at all. I had to give them a one star because I couldn't rate them without it.More</t>
   </si>
   <si>
+    <t>Dcfd146</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r223195398-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1479,6 +1692,9 @@
   </si>
   <si>
     <t xml:space="preserve">Worse I've ever seen! Starting with outside. DirtyInside, it looked like the floors have not been vacuumed in a month. Our bed room, not sure if the sheets on the beds were washed and the floors were just as dirty as anywhere else in the hotel. Someone left a big surprise in the toilet and took three times to flush. Windows were so glazed you couldn't see out side. Front desk service was ok. Never saw any cleaning personnel. I won't go back there!!  </t>
+  </si>
+  <si>
+    <t>Greatbodies</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r221974709-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
@@ -1531,6 +1747,9 @@
 FYI, I was with a convention and we sold out the hotel, so you would think they would be prepared with proper staff, towels, the pool...Where do I begin?  I will just make a list for you of all that went wrong:1. Booked a room with two queens and got two fulls2. Room was not cleaned, just bed made, trash stayed overflowing3. Half of the promised breakfast items were not provided, including water!4. The bathroom door would not close all the way or even lock!5. The toilet broke and there was no one on staff to fix it...this happened in both our rooms6. No Manager or maintenance on duty to help7. Had to go down to get towels since they did not restock the room and had no one to bring them up to us!8. Business center printer not working properly and everyone was trying to use it9. Most of front desk staff was not friendly at all and not qualified in customer service10. The hotel was under partial construction so it smelled of pain fumes11. Pool was closed with no notice12. The hotel itself was dirty13. Not one staff member or manager would take responsibility or even really apologize!14. One of our rooms had many bug issues and the shower broke the last day too.15. Elevators did not work at all on Saturday!FYI, I was with a convention and we sold out the hotel, so you would think they would be prepared with proper staff, towels, the pool fixed, etc.  Even after Day 1, they ran out of fruit and did not restock it!  I have a background in Hospitality and travel often and have never experienced something like this!  My company comes to town every year too!  On the positive side, if you are going to Six Flags or any of the stadiums, it is a convenient location.  Across the street from Six Flags and 1.6 miles from the Cowboys stadium.  Also, they charged us $92/night!!!  And that was for queen beds, which we did not get.  The room did have a working microwave, tv and refrigerator, thank goodness!  If I had to find a positive.More</t>
   </si>
   <si>
+    <t>Shedawg1013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r205238452-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1552,6 +1771,9 @@
     <t>Recently stayed for a weekend to see the Red Sox vs. Rangers and a day at Six Flags. Hotel is across the street from Six Flags in a very quiet area.The Ballpark is about a 15 minute walk, there is also a trolley that stops in the back of the hotel, passes are available at front desk. We walked. Never used a car for the three days we were there.There's Subway and Denny's within a five minute walk and Humperdink's across the parking lot. I'm sure theres much more too, but that's what we used.  Although the Hotel is considered basic, you have everything one would need to have an enjoyable stay. Free breakfast with your staples, plus you can make some awesome Texas waffles. Room was good. We needed a place to crash after baseball and Six Flags, our room was fine. AC was nice and cool. Shower was good. Rooms have Fridge, microwave and coffee maker.Theres a pool. Noise was probably what it is at any hotel, the sound of the AC took care of it anyway. Front desk was helpful getting us adjoining rooms and securing cabs to airport. Check in was fine, felt bad that they only had one person working at busy check in time.  We enjoyed our stay and hope to be back again. We did NOT experience any issues due to renovations.More</t>
   </si>
   <si>
+    <t>valueseeker8189</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r196012717-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1577,6 +1799,9 @@
   </si>
   <si>
     <t>After reviewing hotel locations close to ATT Stadium on a map I chose this place because of location. I thought it was well within walking distance as I was there to attend the rodeo on 3-1-14 and hoped to be close enough. As most hotels in the area were full I booked a room.  I had not reviewed Trip Advisor as I normally would so I didn't see reviews until after I booked the room. I had never been to this area so I arrived early before the crowds to familiarize myself with it. When I located the hotel I didn't think it was close enough to walk especially on an unusually warm day in the eighties. I went in and looked around and yes it was under renovation. I left to consider my options and decided I didn't want to stay there as my rationale for spending $100 on the room was that I was going to save $35.00 on parking at the stadium. When I called to cancel I was put on hold. I just looked at my cell phone call info. and the duration before I hung up was 18 min. and 45 seconds and started at 3:50 p.m. I waited awhile and called back to cancel and when I did I was told they would not cancel a reservation after 4:00 p.m. and if I didn't show up my credit card would be billed. The rodeo...After reviewing hotel locations close to ATT Stadium on a map I chose this place because of location. I thought it was well within walking distance as I was there to attend the rodeo on 3-1-14 and hoped to be close enough. As most hotels in the area were full I booked a room.  I had not reviewed Trip Advisor as I normally would so I didn't see reviews until after I booked the room. I had never been to this area so I arrived early before the crowds to familiarize myself with it. When I located the hotel I didn't think it was close enough to walk especially on an unusually warm day in the eighties. I went in and looked around and yes it was under renovation. I left to consider my options and decided I didn't want to stay there as my rationale for spending $100 on the room was that I was going to save $35.00 on parking at the stadium. When I called to cancel I was put on hold. I just looked at my cell phone call info. and the duration before I hung up was 18 min. and 45 seconds and started at 3:50 p.m. I waited awhile and called back to cancel and when I did I was told they would not cancel a reservation after 4:00 p.m. and if I didn't show up my credit card would be billed. The rodeo didn't get over until 10:30 p.m. so I returned to check in. At that time the desk personnel were very friendly and personable. It was after 11: p.m. by the time I settled in my room at which time I discovered there was no remote for the t.v. It was very busy as all of the rodeo fans were arriving so I went to the front desk to inquire about a remote. There was a new clerk and he said if he did not have one but if there were any rooms not occupied he would get one from there. A short time later he informed me all rooms were occupied and he apologized for the inconvenience caused. Other than that the room was good. The bed was very comfortable. Because of the work going on and the number of guests there breakfast in the morning was a bit hectic but I will say the woman servicing that area did a great job in keeping all of the numerous items filled and I was actually surprised with selection. From hard boiled eggs to sausage biscuits, juice, bagels, cereal it was good. I would definitely stay there again if for no other reason the staff was very nice to me under the circumstances and I am sure the cancellation issue was purely a corporate policy thing.More</t>
+  </si>
+  <si>
+    <t>Omar K</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r194439637-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
@@ -1608,6 +1833,9 @@
 Overall, I'd recommend this hotel to anyone who needs a place to stay near AT&amp;T...Overall, this is a very nice Sleep Inn. When we arrived, the check-in process was very fast, and the lady at the front desk was very nice. The room was comfortable and clean, and a decent size. There was a fridge/freezer, and a nice flatscreen television which worked great. As other reviewers have mentioned, the location is fantastic (across the street from Six Flags, easy access to AT&amp;T (Cowboys) stadium or the Texas Rangers' baseball field, etc.). The prices are great and it's a very good value.When we woke up in the morning, the breakfast was decent (a fairly typical Sleep Inn/Quality Inn breakfast, with good quality food). The front desk staff took time out to give us tips and directions for things to do during terrible weather (temperatures below freezing and snow!!) in Arlington, which was greatly appreciated.The only issue was that the hotel is currently being renovated, and thus the eating area for breakfast is very small, other parts of the hotel (e.g. exercise facility) are closed and there are plastic cover sheets over the outside of the windows. However, I do think they'll be finished with this in the near future. If it wasn't for the renovations going on currently, I'd give this hotel a 5/5 - and I'm sure it'll be a 5/5 facility once the renovations are complete.Overall, I'd recommend this hotel to anyone who needs a place to stay near AT&amp;T Stadium or Six Flags. If you bring your own vehicle, make sure you register the license plate and get a placard, or it may get towed (I guess they have problems with people parking to go to Six Flags).Pros: Excellent staff, clean facility, comfortable rooms, good breakfast, great location.Cons: Currently under renovations.More</t>
   </si>
   <si>
+    <t>ken c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r180111500-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1635,6 +1863,9 @@
     <t>Needed to stay in Arlington for a night.....  choice hotels, sleep inn, excellent chain, very consistent, sleep inns are always nice, affordable, and this hotel was very nice, morning breakfast, free parking and free internetMore</t>
   </si>
   <si>
+    <t>bonikashears</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r178853312-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1650,6 +1881,9 @@
     <t>OK hotel but the location makes up for any short comings. Near.  Flags, stadium, convention center, etc. Staff really great, especially the manager. Rooms are small in the Sleep Inn no frills style. But hotel would be one we would stay at again.</t>
   </si>
   <si>
+    <t>gnauert</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r175553990-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1671,6 +1905,9 @@
     <t>I was travelling with a group of college students and stayed at this location on the Friday night of Labor Day weekend.  The place was completely full - lots of folks in town like we were, for a private party at Six Flags.  Others were in town for the big football game at the Cowboys place.I must be honest, I was little nervous after reading some of the reviews.  My fears have been erased.  The folks at the front desk were quick to chekc us in and accomodating with the extra items we needed.  The room was nice - and about right for the price range.  The location was perfect for baseball or the amusement park.  I would not hesitate to stay again.The only issue I saw was the incredible amount of people trying to eat breakfast at the same time.  That's not the fault of the hotel.  As a matter of fact, that just means they had a very good weekend.More</t>
   </si>
   <si>
+    <t>Rosa M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r170025859-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1710,6 +1947,9 @@
     <t>My family and I stayed here for the Rangers/Yankees baseball series and will not be returning. The first night back after the ball game we got into bed and noticed that our bedding was wet all the way down to the mattress! We had been out of the room all afternoon so we are not sure what it was. Of course it was late and no housekeeping was available but we were given clean sheets to change the bed ourselves. The breakfast area is too small for the amount of people they are trying to serve and only had 1 waffle maker, the juice machine was out of order. Our room was not cleaned the until our 3rd day there and we were told it was because the hotel was full. Yes the rates were the lowest for that area, but I learned my lesson! We were told we would get 10% off of our bill and only got $10 for our troubles.More</t>
   </si>
   <si>
+    <t>Bishop216</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r166734447-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1725,6 +1965,9 @@
     <t xml:space="preserve">Only good thing about this hotel is the location, the breakfast and the front desk help name Latisha. The rooms are very small and filthy. Had to ask 4 times to have the room cleaned. Public bathrooms are nasty for a newly remodeled hotel. Super small pool and other guests complained if roaches and spider. However,there is a grwat full breakfast and Latisha was very helpful.  I got a deal on the room otherwise this it's not with a $100 a night. </t>
   </si>
   <si>
+    <t>TexasTraveller0830</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r160623325-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1746,6 +1989,9 @@
     <t>The hotel is in a great location... right across the street from Six Flags. It makes getting to the amusement park super easy. You can catch the free trolley which stops behind the hotel on a regular schedule, or just walk across to the entrance in about five minutes, thus saving on the parking fee at the park. The hotel has recently upgraded their free breakfast to include hot items (waffles, eggs, bacon, etc.) but the large number of people crowding the small dining area and the poor service in replenishing the food make the breakfast experience something less than memorable. The hotel staff is very helpful and friendly. The rooms are clean but have some maintenance issues (lights not working, etc.). But overall this hotel is a good value in a great location.More</t>
   </si>
   <si>
+    <t>DDavidATX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r157009693-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1764,6 +2010,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>KandiNM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r155468876-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1779,6 +2028,9 @@
     <t>This hotel is in a great location being right across the street from Six Flags, Right around the corner from Rangers Stadium and around the corner and down the street from Cowboy's Stadium. The room was clean, although a little small for more than 2 people. Breakfast is provided every morning and it was good. The best part about the stay at this hotel was Tonya. She was the clerk at the front desk in the evenings that we were there. She is SUPER friendly and extremely helpful. I wish all hotels had employees like her.</t>
   </si>
   <si>
+    <t>randywahoo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r152904413-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1797,6 +2049,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>bjaysfan21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r145333809-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1824,6 +2079,9 @@
     <t>I stayed for one night at this hotel. The location off the 360 freeway is great if you have to be at DFW in the AM. The hotel is also close to Six Flags, the Arlington Ball Park and the HUGH Cowboys stadium. I took the Cowboy's Stadium tour and LOVED IT!I tried to check in early (2:45PM) and was told that I would be charged $10 for the early checking (WHAT? Now hotels are getting as clever as the airline industry). So, I just went online for 15 minutes and checked my email. I found the hotel to be clean and very comfortable. The person that finally checked me in was very pleasant and kind. My room was atypical, but I found the shower to be just the right size, sink near the bed ok, Flat screen TV was at the righ height and my work desk was ok. CLoset space could be improved, but no biggie. My alarm clock didn't work, so I asked for a wake up call. IT DIDN"T HAPPEN. No sure who to blame, but when you have an early AM flight on a cheap airline, you have to arrived 2 hours before your flight. Overall, I would stay again at this hotel!More</t>
   </si>
   <si>
+    <t>Bob H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r144784080-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1845,6 +2103,9 @@
     <t>I have been staying here for each of the past 10 years in October when I am in town on an annual business trip. It had always been a pleasant, high-quality stay up until recently. Two years ago, I noticed the lobby and hallways were showing signs of age but my room was still very clean &amp; comfortable. Last year, there was a little bit more wear &amp; tear even in the room itself. But it was still acceptable for a business trip. My most recent trip showed that the decline was going even further. Upon check-in I noticed the snack freezer next to the main desk was no longer in service. There was a lot of wear on all the carpeting. Even my non-smoking room smelled heavily of really cheap air freshener. And the air conditioner was noisy and would not shut off at all. The sink stopper was broken and the shower door would not stay open. I am wondering if the success of the Rangers and the fact that Cowboys Stadium is right down the street have contributed to the wear and tear. I heard it is under new management but unless they raise the standards a bit, they will have lost an old customer. If it weren't for prior stays, I might have had to bestow a lowly 2-star rating this time around! It's no flea-bag but it's time to shape up, for sure.More</t>
   </si>
   <si>
+    <t>SethEaves</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r138433608-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1863,6 +2124,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>lahuggins</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r136717498-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1884,6 +2148,9 @@
     <t>Great....that you can walk to six flags entrance. Great restuarant next door..Humperdinks....but the hotel....UGH!.   Carpet stained, walls dirty, hair in the shower, pool was green.......I tolerated it due to the closeness of Six Flags, our main reason for being there.  I suppose also the fact that we spent very little time in the room itself.  Had the price been more in sync with the quality, I probably wouldn't complain so much, but 4 star prices with no star quality.  The staff treated us well and there is a decent breakfast included, but it stops there!  Thank goodness for a Rangers game, Six Flags and Hurrican Harbour to keep us out most of the day!!!!More</t>
   </si>
   <si>
+    <t>Mike S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r136573873-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1899,6 +2166,9 @@
     <t>Hotel is close to Six Flags and Ranger Stadium but is still a long walk. Might as well find a cheaper room with the trolley service. Pool was shut down for maintenance which would have felt good after a long walk in 100 degree weather :( Rooms are decent. Bathrooms are very small. Daytime staff was very nice. Night man was very rude !</t>
   </si>
   <si>
+    <t>Darrellatx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r129253062-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1926,6 +2196,9 @@
     <t>This is a good location near everything in Arlington both stadiums with trolley service, walk to Six Flags. Good restaurant next door. Rooms are average, everything is dated, TV's are old and not for those with bad eyesight. Breakfast is just below average but Denny's is close by along with a lot of fast food places. The staff is good management seems to be lacking though, always out of something. Check in early the late night auditor seems to wish he was someplace else and why are you bothering him. There not many pluses for staying here other than the location, I think they know this and are not too concerned about generating return business.More</t>
   </si>
   <si>
+    <t>rosieox</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r127490619-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1944,6 +2217,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>getawaytorelax</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r120311732-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1962,6 +2238,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>skull04</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r117244879-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1989,6 +2268,9 @@
     <t>You don't stay in a Sleep Inn unless you are going for a budget type experience.  Yes, the hotel rooms have showers only, but for solo or two person travelers, this is not that bad.  Yes, the hallways do smell like smoke and the rooms a bit musty, but it was fine for a night. I paid $47.96 for a room with one bed.  It is in the parking lot with Humperdinks which is great if you like a good sports bar.  One of the coolest bars around.  I got there at night and felt perfectly safe.  Front desk clerk was very friendly.  Didn't hear any road noise or other guests above me.  I'd stay again.More</t>
   </si>
   <si>
+    <t>AmbleOutdoors</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r116040861-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2010,6 +2292,9 @@
     <t>I've been a shareholder (on &amp; off) of the parent company for some time, so this one was hard to handle... 10 minute walk to main gate at Six Flags Over Texas, nice small outdoor pool, sleeping room was comfortable with good AC and lighting, breakfast bar adequate with sunny table area - BUT toilet was dirty, seat loose, bath door hardware loose (all reported twice to staff, with no action during stay). Clerk at check-in thought I had to call Choice to get my reward points, never mind it was booked through their dedicated web reservation system under my established loyalty account. A quick informal survey of lobby indicated other unhappy guests at check-in (crowded, slow despite seemingly adequate staff daylight hours). Floor above was constant noise from 10 PM to 1 AM, and most of the afternoon:  Whatever county community college field hockey team was practicing there (on the entire second level) was apparently beyond the control of the hotel management, and we were not the only nor loudest objecting to the idiotic ruckus. More? No water in morning, some street main 2 blocks away that blew out Sunday early was closed for repairs on Monday morning - not the hotel's deal, but then their pool was closed for at least some semblance of a quick dip. Opinion? Re-train the staff, add 24-hour security, and clean the can. Sure, it was the busy season, but T &amp; E...I've been a shareholder (on &amp; off) of the parent company for some time, so this one was hard to handle... 10 minute walk to main gate at Six Flags Over Texas, nice small outdoor pool, sleeping room was comfortable with good AC and lighting, breakfast bar adequate with sunny table area - BUT toilet was dirty, seat loose, bath door hardware loose (all reported twice to staff, with no action during stay). Clerk at check-in thought I had to call Choice to get my reward points, never mind it was booked through their dedicated web reservation system under my established loyalty account. A quick informal survey of lobby indicated other unhappy guests at check-in (crowded, slow despite seemingly adequate staff daylight hours). Floor above was constant noise from 10 PM to 1 AM, and most of the afternoon:  Whatever county community college field hockey team was practicing there (on the entire second level) was apparently beyond the control of the hotel management, and we were not the only nor loudest objecting to the idiotic ruckus. More? No water in morning, some street main 2 blocks away that blew out Sunday early was closed for repairs on Monday morning - not the hotel's deal, but then their pool was closed for at least some semblance of a quick dip. Opinion? Re-train the staff, add 24-hour security, and clean the can. Sure, it was the busy season, but T &amp; E is the busy business. Six Flags still great, as usual. Can't say the same for this disappointing though conveniently located hotel.More</t>
   </si>
   <si>
+    <t>ultim8hogfan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r115171586-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2037,6 +2322,9 @@
     <t>Stayed here with our neices/nephews during spring break.  The staff was very nice and accommodating.  We needed 2 adjoining rooms, which wasn't specified when we booked our rooms, and they made it happen.  The pool was nice, as was the breakfast buffett.  We took the trolly from the parking lot, over to Six Flags.  It's so close though, that we opted to walk back instead of wait on the trolly, &amp; it only took about 15 minutes. I would say that it perhaps looked a little dated, but they are making improvemnts.  Our room had a new flat screen in it. The hotel is just minutes (driving) away from Cowboys Stadium too. I will definitely be staying here in the future.More</t>
   </si>
   <si>
+    <t>SharonS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r96275810-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2064,6 +2352,9 @@
     <t>We just returned from the Super Bowl in Arlington Texas and we stayed here at the Sleep Inn Maingate. This was a wonderful place to stay, first off check in went smooth the man (wished I knew his name) at the front desk was as pleasant and helpful as any one could be, our room was ready when we arrived and was sparkling clean we had everything we needed, the breakfast in the morning was very nice they kept everything well stocked considering that the hotel was completely full that was a job. If we needed any help with info they were very helpful there, it's a great location the 6 Flags Park is right across the street and behind that is the Ranger's Stadium and beyond that the Cowboy's Stadium, which we walked to twice during out stay about 1.5 miles and at the end of the parking lot of the Hotel is the Sportsbar/Brewery Humperdink's which also was a very nice place, lots of TV's and great food and drink. You won't be disappointed here!More</t>
   </si>
   <si>
+    <t>pondguyOklahoma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r85191669-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2085,6 +2376,9 @@
     <t>Rooms are need of a remodel, but the facility and rooms are clean. Room had a frig, free internet, shower (no tub) and safe. Really odd setup without a closet- iron, ironing board and clothes rack just out in the open. TV was old tube style, but was adequate.Still, this hotel is located across the street from Six Flags and close to Rangers &amp; Cowboys stadiums. Wouldn't be my first choice, but still isn't bad.More</t>
   </si>
   <si>
+    <t>Hairess21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r82078386-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2110,6 +2404,9 @@
   </si>
   <si>
     <t>We stayed the week here for my husbands birthday while taking in all the attractions around it. They offer a trolley service to take you to/from 6 flags, the ballpark or the stadium. However it does not run all the time year round for some events. We did notice some bugs on our lastnight but along with the smell of mildew but we were considering the fact that they were cleaning the carpets and it may have rustled up some things. As for the continental breakfast which only offered muffins and fruit we were a little dissappointed. There is a Dennys nearby along with other local resturants but a little pricey for a plate of wings/tenders etc. Very helpful staff and like I said close to every thing Arlington has to offer.More</t>
+  </si>
+  <si>
+    <t>jimkip</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r37880345-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
@@ -2147,6 +2444,9 @@
 We only had three towels and needed four. There was a sopping wet towel left in the shower. We went  down to ask for another towel and told them about the other wet towel in the shower. We were told they were out of towels and would bring us up one when they were done. We were also told the towel was in the shower because water is leaking from the room above into the shower. After the ballgame we went back to the hotel and saw still no towel and the wet one was still in the shower. We talked to the night clerk and he rudly said he had no towels. We told him they said they were going to bring us one and he rudley said something to the effect thats too bad and he wasn't going to do anything about it. The room itself had very dirty walls and the window had a broken thermal seal and was hard to see thru. The breakfast was a joke. Cold muffins from the freezer and cheap toaster waffles. The OJ was out and...We stayed at the hotel for one night and that was enough.It took quite a while to check in. We went up to our room which was a $149.99 a night room.Thankfully I used up all my choice privelages to stay there. I would have felt bad paying that much for this hotel.We only had three towels and needed four. There was a sopping wet towel left in the shower. We went  down to ask for another towel and told them about the other wet towel in the shower. We were told they were out of towels and would bring us up one when they were done. We were also told the towel was in the shower because water is leaking from the room above into the shower. After the ballgame we went back to the hotel and saw still no towel and the wet one was still in the shower. We talked to the night clerk and he rudly said he had no towels. We told him they said they were going to bring us one and he rudley said something to the effect thats too bad and he wasn't going to do anything about it. The room itself had very dirty walls and the window had a broken thermal seal and was hard to see thru. The breakfast was a joke. Cold muffins from the freezer and cheap toaster waffles. The OJ was out and the pan under the machine was full and running on the floor. I would expect this type of room and service from  a Knights Inn or Super 8. The Baymont behind this hotel was half the price and twice a clean.More</t>
   </si>
   <si>
+    <t>debkay68</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r37236794-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2180,6 +2480,9 @@
 There is no bathtub, but a decent sized shower.  The shower pressure was fine.  The light over the vanity is way too...We booked this hotel mostly due to its proximity to Six Flags.  The hotel is literally right across the street from the park and it is an easy 5 minute walk to the entrance to the park from the front door of the hotel, saving you the unnecessary fee of paying to park in the Six Flags lot. I've read other reviews concerning rude staff.  While the front desk guy was not rude, he didn't exactly greet us with open arms, either.  He just seemed kind of bored, really.  I got the impression that he had way too much to do for just one person to handle.The rooms are pretty small and I am very glad I decided to book two rooms, rather than one.  When we entered the room the first time, I thought "Okay, this isn't too bad".  However, upon closer inspection, the dirty walls and filthy crud in the drain in the connecting room, and the huge booger (GROSS!!!-see photos) in our sink from the previous occupants changed my mind about the cleanliness.  The booger stayed there during our entire stay.  I can't imagine how housekeeping didn't see this!  Maybe they were grossed out, too.  It makes me wonder if they just do the bare minimum in their cleaning routine and skip everything else.There is no bathtub, but a decent sized shower.  The shower pressure was fine.  The light over the vanity is way too dark to provide decent lighting for application of make up.  (Ladies, bring your own lighted makeup mirror.)   I was happy to see this hotel uses fitted sheets on the beds rather than tucking in a regular sheet.  The beds were actually pretty comfortable and the air conditioning worked great.  The room also provides a refrigerator/microwave combo.  Bring your own drinks to put in the fridge because, as expected, the drinks in the vending machines are outrageously priced. The most irritating thing is the noise from above.  It seems like any time somebody on the floor above you takes a step, you can hear it.  This is especially irritating when you are trying to sleep.  The noise can be heard easily over the air conditioning.The hotel offers a continental breakfast, but it is pretty spartan.  There are some pretty unappetizing muffins, frozen waffles (well, they were frozen at one time), boiled eggs, Raisin Bran and Corn Flakes, fruit (whole), juice and coffee.  The front desk attendant also seems to be the one overseeing keeping the breakfast items stocked.  So, if they are out of something, you have to go tell him and then wait until he can get a minute away from the desk to go re-stock the breakfast items.  For dinner, there is a restaurant called Humperdink's next door.  It is sort of a sports bar/grill and stays open pretty late.  This is nice because you can just walk next door to eat without having to leave the hotel.The hotel has a pool, but it is EXTREMELY small.  If there are more than 6-7 people in the pool, then it is way too crowded.  But I suppose a small pool is better than no pool at all.If all you're planning to use the hotel for is a place to sleep at night, then this hotel is fine.  Just don't go expecting anything more than a basic hotel.More</t>
   </si>
   <si>
+    <t>jdcliff</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r36401094-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2208,6 +2511,9 @@
 And finally the breakfast food is tiny.  Breakfast consisted of two cereal choices, waffels and english muffins and only...This hotel is summed up with one word: TINY.  Throw in an unbelievably rude front desk staff, and our stay was not a lot of fun.  The Sleep Inn sits directly in front of Six Flags, and the location and proximity to all things Arlington is fantastic.  However, let's be realistic.  I was traveling with three small children and we were only in Arlington to take in a Ranger game.  Guests of the hotel do get free shuttle service to the ballpark, which was nice; but all the good feelings end there.  The pool is tiny, and both times we used it we had to approach the RUDE front desk to ask for pool towels.  I guess asking for pool towels is the worst things that you can ask a front desk attendant, as each time I inquired I was just waved off by them without so much as a "I'll get those and be right back."  Rude!  The rooms are tiny.  And by tiny, I mean there aren't even closets in the rooms, and there is no bathtub.  Only tall skinny showers.  The beds are tiny, and the TV is super tiny.  I  understand that people that stay here only want to visit Six Flags; but being stuck in these tiny rooms with no Disney and Nickelodeon channels was terrible.  And finally the breakfast food is tiny.  Breakfast consisted of two cereal choices, waffels and english muffins and only a 1/2 working toaster for the entire hotel to share.  The coffee was at least hot, but there was NO fruit or muffins by the time we got there at 8:30am.  The breakfast is open from 6-9:30, and it's ridiculous that the food would mostly be gone by 8:30.  We were also disappointed, that the breakfast area hadn't been cleaned all morning.  Trash was overflowing the bins, and one entire table had become the trash can since the can hadn't been emptyed.  People were coming in and looking around, then asking where the closest restaurant was.  Disgusting!The only redeeming quality of  this hotel is the location!  If I had teenagers, and we only wanted a place to crash then this hotel might work.  Otherwise, I'd stay somewhere else!More</t>
   </si>
   <si>
+    <t>okfarmfamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r31294456-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2235,6 +2541,9 @@
     <t>We checked in on Saturday 05/23/09.  They allowed us to check in around 11:00 which was great.  We get two rooms and usually have to fight the front desk to get them adjoining or close, with Sleep Inn we had NO PROBLEM, our rooms were right next to each other.  The rooms are very small but nice and clean.  The showers were awesome.  While 6-Flags is right across the street it is a pretty long walk, although saving on parking is worth it.  The only complaint I would make is not really a complaint more a warning....the breakfast is really skimpy with hardly ANY choices.  But, overall, I would recommend this hotel to any family looking for an inexpensive hotel close to the fun!  There are also two restraunts within easy walking distance and that made it nice!More</t>
   </si>
   <si>
+    <t>Coindog80</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r28758848-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2259,6 +2568,9 @@
     <t>The facility was so nice and clean and the staff went out of their way to make you feel at home. I most certainly stay here my next trip.More</t>
   </si>
   <si>
+    <t>TahoeQueen87</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r28580712-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2280,6 +2592,9 @@
     <t>You can't get any closer to Six Flags, and you can see the Ballpark from the hotel. High speed internet in the rooms was a big plus for me! Comfortable beds, and room had a microwave and refrigerator, which was very convenient.More</t>
   </si>
   <si>
+    <t>kbrandy31</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r18325230-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2307,6 +2622,9 @@
     <t>Just returned from a weekend at The Sleep Inn. Me and my husband decided to take the kids to Six Flags for the weekend and picked this hotel because it was across the street. I had read many reviews stating how horrible the customer service was but again opted to stay due to the convenience factor. The second we checked in the hotel staff was not just unfriendly but downright rude!!! We ignored it and continued to our room which was satisfactory. Not the Ritz but definitely moderate enough considering we would only be in the room long enough to sleep. That night we all settled into bed and I kid you not it sounded as if a herd of elephants were stampeding above us! This went on for 2 hours straight which resulted in three complaints made to the front desk. The last time I called the manager on duty actually yelled at me. This is after we had been pretty nice about the whole situation and patient at that. I will never stay here again and certainly would never reccomend a stay at the Sleep Inn!!!! Better to stay a little further from Six Flags and drive!!!More</t>
   </si>
   <si>
+    <t>Baylor_4_ME</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r17888081-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2329,6 +2647,9 @@
   </si>
   <si>
     <t>I stayed at this property on July 2, 2008 for the soul purpose of going to Six Flags, which is convently, located across the street.  My wife &amp; I checked into the Hotel; put our 1 bag in the room and ran to Six Flags.  While at Six Flags, my wife was injured on a ride.  She went to the E.R. and they kept her.  I notified the Hotel of our early check out. And they were informed of me staying at the hospital with my wife so I may make all decisions on her as needed.  The lady at the front desk said it would not be a problem for a refund., talk to the manager in the morning.  I did as she said.  I never received a refund.  Instead I dealt with a VERY RUDE lady!!!  The manager said they had a right to charge me for the room.  I had no problem paying for a room I USED!!  But I never got that chance.  I had called a few times and left messages.  The Hotel was NOT booked full or near full for that day as I did ask that night.  So the room was not even needed.  But I guess they like sticking it to the man! Or maybe HARD up for cash??  Anywho, the Hotel was clean &amp; nice value.  But if there is a problem, you’re screwed!  I even received a REFUND from Six...I stayed at this property on July 2, 2008 for the soul purpose of going to Six Flags, which is convently, located across the street.  My wife &amp; I checked into the Hotel; put our 1 bag in the room and ran to Six Flags.  While at Six Flags, my wife was injured on a ride.  She went to the E.R. and they kept her.  I notified the Hotel of our early check out. And they were informed of me staying at the hospital with my wife so I may make all decisions on her as needed.  The lady at the front desk said it would not be a problem for a refund., talk to the manager in the morning.  I did as she said.  I never received a refund.  Instead I dealt with a VERY RUDE lady!!!  The manager said they had a right to charge me for the room.  I had no problem paying for a room I USED!!  But I never got that chance.  I had called a few times and left messages.  The Hotel was NOT booked full or near full for that day as I did ask that night.  So the room was not even needed.  But I guess they like sticking it to the man! Or maybe HARD up for cash??  Anywho, the Hotel was clean &amp; nice value.  But if there is a problem, you’re screwed!  I even received a REFUND from Six Flags because we were only there for what?? A whole minute?I would suggest you look to another Hotel; after all there is about 10 in the area to choose from.  OH, if you go Marriott, Crown Plaza type hotels you will get COMPLIMENTARY shuttle service.  This Hotel only offers a standard “bus” ride to the park, which it goes to all Hotels and it runs every hour after noon.  You may be the last to get dropped off, imagine a 1-hour bus ride after you had a full day at Six Flags.  I think the last thing people want to do is WAIT for the bus, and then be last one dropped off.I planned to go back with my wife when she healed, I would have stayed at this Hotel.  I even asked for a free night for when I returned.  The answer was NO!  Very unhappy.More</t>
+  </si>
+  <si>
+    <t>GEOFFS3</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109524-r8718228-Sleep_Inn_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
@@ -2851,43 +3172,47 @@
       <c r="A2" t="n">
         <v>33675</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>3891</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2901,50 +3226,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33675</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>177379</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2958,50 +3287,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33675</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>51280</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3015,50 +3348,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>33675</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>177380</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3070,56 +3407,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33675</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>177381</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3131,56 +3472,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>33675</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>177382</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -3196,56 +3541,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="X7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>33675</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>177383</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3263,56 +3612,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="X8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>33675</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>177384</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3324,56 +3677,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="X9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>33675</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>177385</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3391,56 +3748,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="X10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>33675</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>177386</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="O11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -3458,56 +3819,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="X11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>33675</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>16274</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3519,56 +3884,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="X12" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Y12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>33675</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>177387</v>
+      </c>
+      <c r="C13" t="s">
+        <v>149</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -3590,56 +3959,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="X13" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Y13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33675</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>177388</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="O14" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3651,56 +4024,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="X14" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Y14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>33675</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>177389</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="J15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3718,50 +4095,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33675</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>177390</v>
+      </c>
+      <c r="C16" t="s">
+        <v>173</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="J16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="K16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="O16" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -3779,50 +4160,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>33675</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>177391</v>
+      </c>
+      <c r="C17" t="s">
+        <v>180</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="J17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="K17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="O17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -3838,56 +4223,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="X17" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Y17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>33675</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>1581</v>
+      </c>
+      <c r="C18" t="s">
+        <v>188</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="J18" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="O18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3899,56 +4288,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="X18" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Y18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>33675</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>177392</v>
+      </c>
+      <c r="C19" t="s">
+        <v>194</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="K19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3966,50 +4359,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>33675</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>8359</v>
+      </c>
+      <c r="C20" t="s">
+        <v>200</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="J20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="K20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -4027,56 +4424,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="X20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="Y20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>33675</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>177393</v>
+      </c>
+      <c r="C21" t="s">
+        <v>210</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="J21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="K21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -4094,56 +4495,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="X21" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="Y21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>33675</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>17269</v>
+      </c>
+      <c r="C22" t="s">
+        <v>217</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="J22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4155,56 +4560,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="X22" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="Y22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>33675</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>5598</v>
+      </c>
+      <c r="C23" t="s">
+        <v>224</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="J23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="K23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="O23" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4218,50 +4627,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>33675</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>21443</v>
+      </c>
+      <c r="C24" t="s">
+        <v>231</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="J24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="K24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="O24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4281,50 +4694,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>33675</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>177394</v>
+      </c>
+      <c r="C25" t="s">
+        <v>238</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="J25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="K25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="O25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4338,50 +4755,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>33675</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>177395</v>
+      </c>
+      <c r="C26" t="s">
+        <v>244</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="J26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="K26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4395,50 +4816,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>33675</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>177396</v>
+      </c>
+      <c r="C27" t="s">
+        <v>250</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="J27" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="K27" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="O27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -4458,50 +4883,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>33675</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>177397</v>
+      </c>
+      <c r="C28" t="s">
+        <v>257</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="J28" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="K28" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="O28" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -4521,50 +4950,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>33675</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>177398</v>
+      </c>
+      <c r="C29" t="s">
+        <v>265</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="J29" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="K29" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="O29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -4582,50 +5015,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>33675</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>177399</v>
+      </c>
+      <c r="C30" t="s">
+        <v>271</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="J30" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="K30" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="L30" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4639,50 +5076,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>33675</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>3290</v>
+      </c>
+      <c r="C31" t="s">
+        <v>278</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="J31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="K31" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="L31" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="O31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4696,50 +5137,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>33675</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>177400</v>
+      </c>
+      <c r="C32" t="s">
+        <v>285</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="J32" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="K32" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="L32" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="O32" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4753,41 +5198,45 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>33675</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>39431</v>
+      </c>
+      <c r="C33" t="s">
+        <v>292</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="J33" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="K33" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
@@ -4806,50 +5255,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>33675</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>1287</v>
+      </c>
+      <c r="C34" t="s">
+        <v>297</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="J34" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="K34" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="L34" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="O34" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4863,50 +5316,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>33675</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>33624</v>
+      </c>
+      <c r="C35" t="s">
+        <v>303</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="J35" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="K35" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="L35" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="O35" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4924,50 +5381,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>33675</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>177401</v>
+      </c>
+      <c r="C36" t="s">
+        <v>310</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="J36" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="K36" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="L36" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="O36" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4981,50 +5442,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>33675</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>177402</v>
+      </c>
+      <c r="C37" t="s">
+        <v>315</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="J37" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="K37" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="L37" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="O37" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5042,50 +5507,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>33675</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>177403</v>
+      </c>
+      <c r="C38" t="s">
+        <v>321</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="J38" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="K38" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="L38" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="O38" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -5103,50 +5572,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>33675</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>177404</v>
+      </c>
+      <c r="C39" t="s">
+        <v>327</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="J39" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="K39" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="L39" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="O39" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5164,50 +5637,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>33675</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>177405</v>
+      </c>
+      <c r="C40" t="s">
+        <v>333</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="J40" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="K40" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="L40" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="O40" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5221,50 +5698,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>33675</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>177406</v>
+      </c>
+      <c r="C41" t="s">
+        <v>340</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="J41" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="K41" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="L41" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="O41" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5284,50 +5765,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>33675</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>177407</v>
+      </c>
+      <c r="C42" t="s">
+        <v>346</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="J42" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="K42" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="L42" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="O42" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -5347,50 +5832,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>33675</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>7080</v>
+      </c>
+      <c r="C43" t="s">
+        <v>352</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="J43" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="K43" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="L43" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="O43" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5408,50 +5897,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>33675</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C44" t="s">
+        <v>357</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="J44" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="K44" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="L44" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="O44" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5465,50 +5958,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>33675</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>177408</v>
+      </c>
+      <c r="C45" t="s">
+        <v>363</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="J45" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="K45" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="L45" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -5528,50 +6025,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>33675</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>177409</v>
+      </c>
+      <c r="C46" t="s">
+        <v>370</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="J46" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="K46" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="L46" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="O46" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5585,50 +6086,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>33675</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>177410</v>
+      </c>
+      <c r="C47" t="s">
+        <v>376</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="J47" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="K47" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="L47" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="O47" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5646,50 +6151,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>33675</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>177411</v>
+      </c>
+      <c r="C48" t="s">
+        <v>383</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="J48" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="K48" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="L48" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="O48" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5709,50 +6218,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>33675</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>177412</v>
+      </c>
+      <c r="C49" t="s">
+        <v>389</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>343</v>
+        <v>391</v>
       </c>
       <c r="J49" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
       <c r="K49" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="L49" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="O49" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -5770,50 +6283,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>33675</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>177413</v>
+      </c>
+      <c r="C50" t="s">
+        <v>395</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>347</v>
+        <v>396</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>348</v>
+        <v>397</v>
       </c>
       <c r="J50" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="K50" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="L50" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="O50" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5833,50 +6350,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>33675</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>35752</v>
+      </c>
+      <c r="C51" t="s">
+        <v>401</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="J51" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="K51" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="L51" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="M51" t="n">
         <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="O51" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5890,50 +6411,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>357</v>
+        <v>407</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>33675</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>177414</v>
+      </c>
+      <c r="C52" t="s">
+        <v>408</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>358</v>
+        <v>409</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>359</v>
+        <v>410</v>
       </c>
       <c r="J52" t="s">
-        <v>360</v>
+        <v>411</v>
       </c>
       <c r="K52" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="L52" t="s">
-        <v>362</v>
+        <v>413</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="O52" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5947,50 +6472,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>362</v>
+        <v>413</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>33675</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>59001</v>
+      </c>
+      <c r="C53" t="s">
+        <v>415</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="J53" t="s">
-        <v>366</v>
+        <v>418</v>
       </c>
       <c r="K53" t="s">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="L53" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="O53" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -6008,50 +6537,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>33675</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>27684</v>
+      </c>
+      <c r="C54" t="s">
+        <v>421</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>370</v>
+        <v>423</v>
       </c>
       <c r="J54" t="s">
-        <v>371</v>
+        <v>424</v>
       </c>
       <c r="K54" t="s">
-        <v>372</v>
+        <v>425</v>
       </c>
       <c r="L54" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="O54" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -6071,50 +6604,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>33675</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>113</v>
+      </c>
+      <c r="C55" t="s">
+        <v>428</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>376</v>
+        <v>430</v>
       </c>
       <c r="J55" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
       <c r="K55" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="L55" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="O55" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6128,50 +6665,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>33675</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>177415</v>
+      </c>
+      <c r="C56" t="s">
+        <v>435</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>381</v>
+        <v>436</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="J56" t="s">
-        <v>383</v>
+        <v>438</v>
       </c>
       <c r="K56" t="s">
-        <v>384</v>
+        <v>439</v>
       </c>
       <c r="L56" t="s">
-        <v>385</v>
+        <v>440</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>386</v>
+        <v>441</v>
       </c>
       <c r="O56" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -6191,50 +6732,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>33675</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>177416</v>
+      </c>
+      <c r="C57" t="s">
+        <v>443</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>389</v>
+        <v>445</v>
       </c>
       <c r="J57" t="s">
-        <v>390</v>
+        <v>446</v>
       </c>
       <c r="K57" t="s">
-        <v>391</v>
+        <v>447</v>
       </c>
       <c r="L57" t="s">
-        <v>392</v>
+        <v>448</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>386</v>
+        <v>441</v>
       </c>
       <c r="O57" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6254,50 +6799,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>392</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>33675</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>10362</v>
+      </c>
+      <c r="C58" t="s">
+        <v>449</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="J58" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="K58" t="s">
-        <v>396</v>
+        <v>453</v>
       </c>
       <c r="L58" t="s">
-        <v>397</v>
+        <v>454</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>386</v>
+        <v>441</v>
       </c>
       <c r="O58" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="n">
@@ -6317,50 +6866,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>397</v>
+        <v>454</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>33675</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>177417</v>
+      </c>
+      <c r="C59" t="s">
+        <v>455</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
       <c r="J59" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="K59" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
       <c r="L59" t="s">
-        <v>402</v>
+        <v>460</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>403</v>
+        <v>461</v>
       </c>
       <c r="O59" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -6380,50 +6933,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>404</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>33675</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>48147</v>
+      </c>
+      <c r="C60" t="s">
+        <v>463</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="J60" t="s">
-        <v>407</v>
+        <v>466</v>
       </c>
       <c r="K60" t="s">
-        <v>408</v>
+        <v>467</v>
       </c>
       <c r="L60" t="s">
-        <v>409</v>
+        <v>468</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>410</v>
+        <v>469</v>
       </c>
       <c r="O60" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -6443,50 +7000,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>409</v>
+        <v>468</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>33675</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>177418</v>
+      </c>
+      <c r="C61" t="s">
+        <v>470</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>412</v>
+        <v>472</v>
       </c>
       <c r="J61" t="s">
-        <v>413</v>
+        <v>473</v>
       </c>
       <c r="K61" t="s">
-        <v>410</v>
+        <v>469</v>
       </c>
       <c r="L61" t="s">
-        <v>414</v>
+        <v>474</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>410</v>
+        <v>469</v>
       </c>
       <c r="O61" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6500,50 +7061,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>414</v>
+        <v>474</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>33675</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>28713</v>
+      </c>
+      <c r="C62" t="s">
+        <v>475</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>415</v>
+        <v>476</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>416</v>
+        <v>477</v>
       </c>
       <c r="J62" t="s">
-        <v>417</v>
+        <v>478</v>
       </c>
       <c r="K62" t="s">
-        <v>418</v>
+        <v>479</v>
       </c>
       <c r="L62" t="s">
-        <v>419</v>
+        <v>480</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>420</v>
+        <v>481</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6557,50 +7122,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>419</v>
+        <v>480</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>33675</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>177419</v>
+      </c>
+      <c r="C63" t="s">
+        <v>482</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>421</v>
+        <v>483</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>422</v>
+        <v>484</v>
       </c>
       <c r="J63" t="s">
-        <v>423</v>
+        <v>485</v>
       </c>
       <c r="K63" t="s">
-        <v>424</v>
+        <v>486</v>
       </c>
       <c r="L63" t="s">
-        <v>425</v>
+        <v>487</v>
       </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>426</v>
+        <v>488</v>
       </c>
       <c r="O63" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6614,50 +7183,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>425</v>
+        <v>487</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>33675</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>28062</v>
+      </c>
+      <c r="C64" t="s">
+        <v>489</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>427</v>
+        <v>490</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>428</v>
+        <v>491</v>
       </c>
       <c r="J64" t="s">
-        <v>429</v>
+        <v>492</v>
       </c>
       <c r="K64" t="s">
-        <v>430</v>
+        <v>493</v>
       </c>
       <c r="L64" t="s">
-        <v>431</v>
+        <v>494</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>432</v>
+        <v>495</v>
       </c>
       <c r="O64" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P64" t="n">
         <v>2</v>
@@ -6675,50 +7248,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>433</v>
+        <v>496</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>33675</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>177420</v>
+      </c>
+      <c r="C65" t="s">
+        <v>497</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>434</v>
+        <v>498</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>435</v>
+        <v>499</v>
       </c>
       <c r="J65" t="s">
-        <v>436</v>
+        <v>500</v>
       </c>
       <c r="K65" t="s">
-        <v>437</v>
+        <v>501</v>
       </c>
       <c r="L65" t="s">
-        <v>438</v>
+        <v>502</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>439</v>
+        <v>503</v>
       </c>
       <c r="O65" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -6738,50 +7315,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>440</v>
+        <v>504</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>33675</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>177421</v>
+      </c>
+      <c r="C66" t="s">
+        <v>505</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>441</v>
+        <v>506</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="J66" t="s">
-        <v>443</v>
+        <v>508</v>
       </c>
       <c r="K66" t="s">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="L66" t="s">
-        <v>445</v>
+        <v>510</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>446</v>
+        <v>511</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -6795,50 +7376,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>445</v>
+        <v>510</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>33675</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>177422</v>
+      </c>
+      <c r="C67" t="s">
+        <v>512</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>448</v>
+        <v>514</v>
       </c>
       <c r="J67" t="s">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="K67" t="s">
-        <v>450</v>
+        <v>516</v>
       </c>
       <c r="L67" t="s">
-        <v>451</v>
+        <v>517</v>
       </c>
       <c r="M67" t="n">
         <v>2</v>
       </c>
       <c r="N67" t="s">
-        <v>452</v>
+        <v>518</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>2</v>
@@ -6858,50 +7443,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>451</v>
+        <v>517</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>33675</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>177423</v>
+      </c>
+      <c r="C68" t="s">
+        <v>519</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="J68" t="s">
-        <v>455</v>
+        <v>522</v>
       </c>
       <c r="K68" t="s">
-        <v>456</v>
+        <v>523</v>
       </c>
       <c r="L68" t="s">
-        <v>457</v>
+        <v>524</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>446</v>
+        <v>511</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6921,50 +7510,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>457</v>
+        <v>524</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>33675</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>78724</v>
+      </c>
+      <c r="C69" t="s">
+        <v>525</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>458</v>
+        <v>526</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>459</v>
+        <v>527</v>
       </c>
       <c r="J69" t="s">
-        <v>460</v>
+        <v>528</v>
       </c>
       <c r="K69" t="s">
-        <v>461</v>
+        <v>529</v>
       </c>
       <c r="L69" t="s">
-        <v>462</v>
+        <v>530</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>463</v>
+        <v>531</v>
       </c>
       <c r="O69" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -6984,50 +7577,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>462</v>
+        <v>530</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>33675</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>177424</v>
+      </c>
+      <c r="C70" t="s">
+        <v>532</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>464</v>
+        <v>533</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>465</v>
+        <v>534</v>
       </c>
       <c r="J70" t="s">
-        <v>466</v>
+        <v>535</v>
       </c>
       <c r="K70" t="s">
-        <v>467</v>
+        <v>536</v>
       </c>
       <c r="L70" t="s">
-        <v>468</v>
+        <v>537</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>452</v>
+        <v>518</v>
       </c>
       <c r="O70" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -7045,50 +7642,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>468</v>
+        <v>537</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>33675</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>18909</v>
+      </c>
+      <c r="C71" t="s">
+        <v>538</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>469</v>
+        <v>539</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="J71" t="s">
-        <v>471</v>
+        <v>541</v>
       </c>
       <c r="K71" t="s">
-        <v>472</v>
+        <v>542</v>
       </c>
       <c r="L71" t="s">
-        <v>473</v>
+        <v>543</v>
       </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
       <c r="N71" t="s">
-        <v>474</v>
+        <v>544</v>
       </c>
       <c r="O71" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="n">
@@ -7108,41 +7709,45 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>475</v>
+        <v>545</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>33675</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>177425</v>
+      </c>
+      <c r="C72" t="s">
+        <v>546</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>476</v>
+        <v>547</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>477</v>
+        <v>548</v>
       </c>
       <c r="J72" t="s">
-        <v>478</v>
+        <v>549</v>
       </c>
       <c r="K72" t="s">
-        <v>479</v>
+        <v>550</v>
       </c>
       <c r="L72" t="s">
-        <v>480</v>
+        <v>551</v>
       </c>
       <c r="M72" t="n">
         <v>2</v>
@@ -7161,50 +7766,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>480</v>
+        <v>551</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>33675</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>177426</v>
+      </c>
+      <c r="C73" t="s">
+        <v>552</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>481</v>
+        <v>553</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>482</v>
+        <v>554</v>
       </c>
       <c r="J73" t="s">
-        <v>483</v>
+        <v>555</v>
       </c>
       <c r="K73" t="s">
-        <v>484</v>
+        <v>556</v>
       </c>
       <c r="L73" t="s">
-        <v>485</v>
+        <v>557</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>474</v>
+        <v>544</v>
       </c>
       <c r="O73" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="n">
@@ -7222,50 +7831,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>486</v>
+        <v>558</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>33675</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>177427</v>
+      </c>
+      <c r="C74" t="s">
+        <v>559</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>487</v>
+        <v>560</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>488</v>
+        <v>561</v>
       </c>
       <c r="J74" t="s">
-        <v>489</v>
+        <v>562</v>
       </c>
       <c r="K74" t="s">
-        <v>490</v>
+        <v>563</v>
       </c>
       <c r="L74" t="s">
-        <v>491</v>
+        <v>564</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>492</v>
+        <v>565</v>
       </c>
       <c r="O74" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7289,50 +7902,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>493</v>
+        <v>566</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>33675</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>177428</v>
+      </c>
+      <c r="C75" t="s">
+        <v>567</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>494</v>
+        <v>568</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>495</v>
+        <v>569</v>
       </c>
       <c r="J75" t="s">
-        <v>496</v>
+        <v>570</v>
       </c>
       <c r="K75" t="s">
-        <v>497</v>
+        <v>571</v>
       </c>
       <c r="L75" t="s">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>499</v>
+        <v>573</v>
       </c>
       <c r="O75" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -7354,56 +7971,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>500</v>
+        <v>574</v>
       </c>
       <c r="X75" t="s">
-        <v>501</v>
+        <v>575</v>
       </c>
       <c r="Y75" t="s">
-        <v>502</v>
+        <v>576</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>33675</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>89945</v>
+      </c>
+      <c r="C76" t="s">
+        <v>577</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>503</v>
+        <v>578</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>504</v>
+        <v>579</v>
       </c>
       <c r="J76" t="s">
-        <v>505</v>
+        <v>580</v>
       </c>
       <c r="K76" t="s">
-        <v>506</v>
+        <v>581</v>
       </c>
       <c r="L76" t="s">
-        <v>507</v>
+        <v>582</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>508</v>
+        <v>583</v>
       </c>
       <c r="O76" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7427,50 +8048,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>509</v>
+        <v>584</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>33675</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>113990</v>
+      </c>
+      <c r="C77" t="s">
+        <v>585</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>510</v>
+        <v>586</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>511</v>
+        <v>587</v>
       </c>
       <c r="J77" t="s">
-        <v>512</v>
+        <v>588</v>
       </c>
       <c r="K77" t="s">
-        <v>513</v>
+        <v>589</v>
       </c>
       <c r="L77" t="s">
-        <v>514</v>
+        <v>590</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>515</v>
+        <v>591</v>
       </c>
       <c r="O77" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7492,47 +8117,51 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>516</v>
+        <v>592</v>
       </c>
       <c r="X77" t="s">
-        <v>517</v>
+        <v>593</v>
       </c>
       <c r="Y77" t="s">
-        <v>518</v>
+        <v>594</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>33675</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>177429</v>
+      </c>
+      <c r="C78" t="s">
+        <v>595</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>519</v>
+        <v>596</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>520</v>
+        <v>597</v>
       </c>
       <c r="J78" t="s">
-        <v>521</v>
+        <v>598</v>
       </c>
       <c r="K78" t="s">
-        <v>522</v>
+        <v>599</v>
       </c>
       <c r="L78" t="s">
-        <v>523</v>
+        <v>600</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
@@ -7561,50 +8190,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>523</v>
+        <v>600</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>33675</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>177430</v>
+      </c>
+      <c r="C79" t="s">
+        <v>601</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>524</v>
+        <v>602</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>525</v>
+        <v>603</v>
       </c>
       <c r="J79" t="s">
-        <v>526</v>
+        <v>604</v>
       </c>
       <c r="K79" t="s">
-        <v>527</v>
+        <v>605</v>
       </c>
       <c r="L79" t="s">
-        <v>528</v>
+        <v>606</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>529</v>
+        <v>607</v>
       </c>
       <c r="O79" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7628,50 +8261,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>530</v>
+        <v>608</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>33675</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>177431</v>
+      </c>
+      <c r="C80" t="s">
+        <v>609</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>531</v>
+        <v>610</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>532</v>
+        <v>611</v>
       </c>
       <c r="J80" t="s">
-        <v>533</v>
+        <v>612</v>
       </c>
       <c r="K80" t="s">
-        <v>534</v>
+        <v>613</v>
       </c>
       <c r="L80" t="s">
-        <v>535</v>
+        <v>614</v>
       </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>536</v>
+        <v>615</v>
       </c>
       <c r="O80" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -7695,50 +8332,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>537</v>
+        <v>616</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>33675</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>177398</v>
+      </c>
+      <c r="C81" t="s">
+        <v>271</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>538</v>
+        <v>617</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>539</v>
+        <v>618</v>
       </c>
       <c r="J81" t="s">
-        <v>540</v>
+        <v>619</v>
       </c>
       <c r="K81" t="s">
-        <v>541</v>
+        <v>620</v>
       </c>
       <c r="L81" t="s">
-        <v>542</v>
+        <v>621</v>
       </c>
       <c r="M81" t="n">
         <v>2</v>
       </c>
       <c r="N81" t="s">
-        <v>536</v>
+        <v>615</v>
       </c>
       <c r="O81" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P81" t="n">
         <v>3</v>
@@ -7762,41 +8403,45 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>543</v>
+        <v>622</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>33675</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>177432</v>
+      </c>
+      <c r="C82" t="s">
+        <v>623</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>544</v>
+        <v>624</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>545</v>
+        <v>625</v>
       </c>
       <c r="J82" t="s">
-        <v>546</v>
+        <v>626</v>
       </c>
       <c r="K82" t="s">
-        <v>547</v>
+        <v>627</v>
       </c>
       <c r="L82" t="s">
-        <v>548</v>
+        <v>628</v>
       </c>
       <c r="M82" t="n">
         <v>2</v>
@@ -7825,50 +8470,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>548</v>
+        <v>628</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>33675</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>177433</v>
+      </c>
+      <c r="C83" t="s">
+        <v>629</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>549</v>
+        <v>630</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>550</v>
+        <v>631</v>
       </c>
       <c r="J83" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
       <c r="K83" t="s">
-        <v>552</v>
+        <v>633</v>
       </c>
       <c r="L83" t="s">
-        <v>553</v>
+        <v>634</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>554</v>
+        <v>635</v>
       </c>
       <c r="O83" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -7892,50 +8541,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>555</v>
+        <v>636</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>33675</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>177434</v>
+      </c>
+      <c r="C84" t="s">
+        <v>637</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>557</v>
+        <v>639</v>
       </c>
       <c r="J84" t="s">
-        <v>558</v>
+        <v>640</v>
       </c>
       <c r="K84" t="s">
-        <v>559</v>
+        <v>641</v>
       </c>
       <c r="L84" t="s">
-        <v>560</v>
+        <v>642</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>561</v>
+        <v>643</v>
       </c>
       <c r="O84" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -7959,50 +8612,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>560</v>
+        <v>642</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>33675</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>177435</v>
+      </c>
+      <c r="C85" t="s">
+        <v>644</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>562</v>
+        <v>645</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>563</v>
+        <v>646</v>
       </c>
       <c r="J85" t="s">
-        <v>564</v>
+        <v>647</v>
       </c>
       <c r="K85" t="s">
-        <v>565</v>
+        <v>648</v>
       </c>
       <c r="L85" t="s">
-        <v>566</v>
+        <v>649</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>561</v>
+        <v>643</v>
       </c>
       <c r="O85" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8026,50 +8683,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>566</v>
+        <v>649</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>33675</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>94997</v>
+      </c>
+      <c r="C86" t="s">
+        <v>650</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>567</v>
+        <v>651</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>568</v>
+        <v>652</v>
       </c>
       <c r="J86" t="s">
-        <v>569</v>
+        <v>653</v>
       </c>
       <c r="K86" t="s">
-        <v>570</v>
+        <v>654</v>
       </c>
       <c r="L86" t="s">
-        <v>571</v>
+        <v>655</v>
       </c>
       <c r="M86" t="n">
         <v>2</v>
       </c>
       <c r="N86" t="s">
-        <v>572</v>
+        <v>656</v>
       </c>
       <c r="O86" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P86" t="n">
         <v>3</v>
@@ -8093,50 +8754,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>571</v>
+        <v>655</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>33675</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>177436</v>
+      </c>
+      <c r="C87" t="s">
+        <v>657</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>573</v>
+        <v>658</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>574</v>
+        <v>659</v>
       </c>
       <c r="J87" t="s">
-        <v>575</v>
+        <v>660</v>
       </c>
       <c r="K87" t="s">
-        <v>576</v>
+        <v>661</v>
       </c>
       <c r="L87" t="s">
-        <v>577</v>
+        <v>662</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>578</v>
+        <v>663</v>
       </c>
       <c r="O87" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8158,56 +8823,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>579</v>
+        <v>664</v>
       </c>
       <c r="X87" t="s">
-        <v>580</v>
+        <v>665</v>
       </c>
       <c r="Y87" t="s">
-        <v>581</v>
+        <v>666</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>33675</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>3896</v>
+      </c>
+      <c r="C88" t="s">
+        <v>667</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>582</v>
+        <v>668</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>583</v>
+        <v>669</v>
       </c>
       <c r="J88" t="s">
-        <v>584</v>
+        <v>670</v>
       </c>
       <c r="K88" t="s">
-        <v>585</v>
+        <v>671</v>
       </c>
       <c r="L88" t="s">
-        <v>586</v>
+        <v>672</v>
       </c>
       <c r="M88" t="n">
         <v>3</v>
       </c>
       <c r="N88" t="s">
-        <v>587</v>
+        <v>673</v>
       </c>
       <c r="O88" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P88" t="n">
         <v>3</v>
@@ -8231,50 +8900,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>588</v>
+        <v>674</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>33675</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>177437</v>
+      </c>
+      <c r="C89" t="s">
+        <v>675</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>589</v>
+        <v>676</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>590</v>
+        <v>677</v>
       </c>
       <c r="J89" t="s">
-        <v>591</v>
+        <v>678</v>
       </c>
       <c r="K89" t="s">
-        <v>592</v>
+        <v>679</v>
       </c>
       <c r="L89" t="s">
-        <v>593</v>
+        <v>680</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>594</v>
+        <v>681</v>
       </c>
       <c r="O89" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P89" t="n">
         <v>4</v>
@@ -8298,50 +8971,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>593</v>
+        <v>680</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>33675</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>80627</v>
+      </c>
+      <c r="C90" t="s">
+        <v>682</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>595</v>
+        <v>683</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>596</v>
+        <v>684</v>
       </c>
       <c r="J90" t="s">
-        <v>597</v>
+        <v>685</v>
       </c>
       <c r="K90" t="s">
-        <v>598</v>
+        <v>686</v>
       </c>
       <c r="L90" t="s">
-        <v>599</v>
+        <v>687</v>
       </c>
       <c r="M90" t="n">
         <v>2</v>
       </c>
       <c r="N90" t="s">
-        <v>600</v>
+        <v>688</v>
       </c>
       <c r="O90" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P90" t="n">
         <v>2</v>
@@ -8365,50 +9042,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>601</v>
+        <v>689</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>33675</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>3890</v>
+      </c>
+      <c r="C91" t="s">
+        <v>690</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>602</v>
+        <v>691</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>603</v>
+        <v>692</v>
       </c>
       <c r="J91" t="s">
-        <v>604</v>
+        <v>693</v>
       </c>
       <c r="K91" t="s">
-        <v>605</v>
+        <v>694</v>
       </c>
       <c r="L91" t="s">
-        <v>606</v>
+        <v>695</v>
       </c>
       <c r="M91" t="n">
         <v>3</v>
       </c>
       <c r="N91" t="s">
-        <v>600</v>
+        <v>688</v>
       </c>
       <c r="O91" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P91" t="n">
         <v>2</v>
@@ -8432,50 +9113,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>606</v>
+        <v>695</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>33675</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>177438</v>
+      </c>
+      <c r="C92" t="s">
+        <v>696</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>607</v>
+        <v>697</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>608</v>
+        <v>698</v>
       </c>
       <c r="J92" t="s">
-        <v>609</v>
+        <v>699</v>
       </c>
       <c r="K92" t="s">
-        <v>610</v>
+        <v>700</v>
       </c>
       <c r="L92" t="s">
-        <v>611</v>
+        <v>701</v>
       </c>
       <c r="M92" t="n">
         <v>3</v>
       </c>
       <c r="N92" t="s">
-        <v>612</v>
+        <v>702</v>
       </c>
       <c r="O92" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -8497,56 +9182,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>613</v>
+        <v>703</v>
       </c>
       <c r="X92" t="s">
-        <v>614</v>
+        <v>704</v>
       </c>
       <c r="Y92" t="s">
-        <v>615</v>
+        <v>705</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>33675</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>78855</v>
+      </c>
+      <c r="C93" t="s">
+        <v>706</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>616</v>
+        <v>707</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>617</v>
+        <v>708</v>
       </c>
       <c r="J93" t="s">
-        <v>618</v>
+        <v>709</v>
       </c>
       <c r="K93" t="s">
-        <v>619</v>
+        <v>710</v>
       </c>
       <c r="L93" t="s">
-        <v>620</v>
+        <v>711</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>621</v>
+        <v>712</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -8570,50 +9259,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>620</v>
+        <v>711</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>33675</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>177439</v>
+      </c>
+      <c r="C94" t="s">
+        <v>713</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>622</v>
+        <v>714</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>623</v>
+        <v>715</v>
       </c>
       <c r="J94" t="s">
-        <v>624</v>
+        <v>716</v>
       </c>
       <c r="K94" t="s">
-        <v>625</v>
+        <v>717</v>
       </c>
       <c r="L94" t="s">
-        <v>626</v>
+        <v>718</v>
       </c>
       <c r="M94" t="n">
         <v>3</v>
       </c>
       <c r="N94" t="s">
-        <v>627</v>
+        <v>719</v>
       </c>
       <c r="O94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P94" t="n">
         <v>3</v>
@@ -8637,50 +9330,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>626</v>
+        <v>718</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>33675</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>177440</v>
+      </c>
+      <c r="C95" t="s">
+        <v>720</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>628</v>
+        <v>721</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>629</v>
+        <v>722</v>
       </c>
       <c r="J95" t="s">
-        <v>630</v>
+        <v>723</v>
       </c>
       <c r="K95" t="s">
-        <v>631</v>
+        <v>724</v>
       </c>
       <c r="L95" t="s">
-        <v>632</v>
+        <v>725</v>
       </c>
       <c r="M95" t="n">
         <v>3</v>
       </c>
       <c r="N95" t="s">
-        <v>633</v>
+        <v>726</v>
       </c>
       <c r="O95" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
@@ -8698,56 +9395,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>634</v>
+        <v>727</v>
       </c>
       <c r="X95" t="s">
-        <v>635</v>
+        <v>728</v>
       </c>
       <c r="Y95" t="s">
-        <v>636</v>
+        <v>729</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>33675</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>177441</v>
+      </c>
+      <c r="C96" t="s">
+        <v>730</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>637</v>
+        <v>731</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>638</v>
+        <v>732</v>
       </c>
       <c r="J96" t="s">
-        <v>639</v>
+        <v>733</v>
       </c>
       <c r="K96" t="s">
-        <v>640</v>
+        <v>734</v>
       </c>
       <c r="L96" t="s">
-        <v>641</v>
+        <v>735</v>
       </c>
       <c r="M96" t="n">
         <v>2</v>
       </c>
       <c r="N96" t="s">
-        <v>642</v>
+        <v>736</v>
       </c>
       <c r="O96" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P96" t="n">
         <v>2</v>
@@ -8765,56 +9466,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>634</v>
+        <v>727</v>
       </c>
       <c r="X96" t="s">
-        <v>635</v>
+        <v>728</v>
       </c>
       <c r="Y96" t="s">
-        <v>643</v>
+        <v>737</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>33675</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>177442</v>
+      </c>
+      <c r="C97" t="s">
+        <v>738</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>644</v>
+        <v>739</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>645</v>
+        <v>740</v>
       </c>
       <c r="J97" t="s">
-        <v>646</v>
+        <v>741</v>
       </c>
       <c r="K97" t="s">
-        <v>647</v>
+        <v>742</v>
       </c>
       <c r="L97" t="s">
-        <v>648</v>
+        <v>743</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
       </c>
       <c r="N97" t="s">
-        <v>649</v>
+        <v>744</v>
       </c>
       <c r="O97" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P97" t="n">
         <v>4</v>
@@ -8832,56 +9537,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>650</v>
+        <v>745</v>
       </c>
       <c r="X97" t="s">
-        <v>651</v>
+        <v>746</v>
       </c>
       <c r="Y97" t="s">
-        <v>652</v>
+        <v>747</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>33675</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>177443</v>
+      </c>
+      <c r="C98" t="s">
+        <v>748</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>653</v>
+        <v>749</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>654</v>
+        <v>750</v>
       </c>
       <c r="J98" t="s">
-        <v>655</v>
+        <v>751</v>
       </c>
       <c r="K98" t="s">
-        <v>656</v>
+        <v>752</v>
       </c>
       <c r="L98" t="s">
-        <v>657</v>
+        <v>753</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>658</v>
+        <v>754</v>
       </c>
       <c r="O98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -8903,56 +9612,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>659</v>
+        <v>755</v>
       </c>
       <c r="X98" t="s">
-        <v>660</v>
+        <v>756</v>
       </c>
       <c r="Y98" t="s">
-        <v>661</v>
+        <v>757</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>33675</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>142289</v>
+      </c>
+      <c r="C99" t="s">
+        <v>758</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>662</v>
+        <v>759</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>663</v>
+        <v>760</v>
       </c>
       <c r="J99" t="s">
-        <v>664</v>
+        <v>761</v>
       </c>
       <c r="K99" t="s">
-        <v>665</v>
+        <v>762</v>
       </c>
       <c r="L99" t="s">
-        <v>666</v>
+        <v>763</v>
       </c>
       <c r="M99" t="n">
         <v>3</v>
       </c>
       <c r="N99" t="s">
-        <v>667</v>
+        <v>764</v>
       </c>
       <c r="O99" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P99" t="n">
         <v>3</v>
@@ -8974,56 +9687,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>659</v>
+        <v>755</v>
       </c>
       <c r="X99" t="s">
-        <v>660</v>
+        <v>756</v>
       </c>
       <c r="Y99" t="s">
-        <v>668</v>
+        <v>765</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>33675</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>177444</v>
+      </c>
+      <c r="C100" t="s">
+        <v>766</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>669</v>
+        <v>767</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>670</v>
+        <v>768</v>
       </c>
       <c r="J100" t="s">
-        <v>671</v>
+        <v>769</v>
       </c>
       <c r="K100" t="s">
-        <v>672</v>
+        <v>770</v>
       </c>
       <c r="L100" t="s">
-        <v>673</v>
+        <v>771</v>
       </c>
       <c r="M100" t="n">
         <v>3</v>
       </c>
       <c r="N100" t="s">
-        <v>674</v>
+        <v>772</v>
       </c>
       <c r="O100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9045,56 +9762,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>675</v>
+        <v>773</v>
       </c>
       <c r="X100" t="s">
-        <v>676</v>
+        <v>774</v>
       </c>
       <c r="Y100" t="s">
-        <v>677</v>
+        <v>775</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>33675</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>177445</v>
+      </c>
+      <c r="C101" t="s">
+        <v>776</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>678</v>
+        <v>777</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>679</v>
+        <v>778</v>
       </c>
       <c r="J101" t="s">
-        <v>680</v>
+        <v>779</v>
       </c>
       <c r="K101" t="s">
-        <v>681</v>
+        <v>780</v>
       </c>
       <c r="L101" t="s">
-        <v>682</v>
+        <v>781</v>
       </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
       <c r="N101" t="s">
-        <v>683</v>
+        <v>782</v>
       </c>
       <c r="O101" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P101" t="n">
         <v>1</v>
@@ -9116,56 +9837,60 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>684</v>
+        <v>783</v>
       </c>
       <c r="X101" t="s">
-        <v>685</v>
+        <v>784</v>
       </c>
       <c r="Y101" t="s">
-        <v>686</v>
+        <v>785</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>33675</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>177446</v>
+      </c>
+      <c r="C102" t="s">
+        <v>786</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>687</v>
+        <v>787</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>688</v>
+        <v>788</v>
       </c>
       <c r="J102" t="s">
-        <v>689</v>
+        <v>789</v>
       </c>
       <c r="K102" t="s">
-        <v>690</v>
+        <v>790</v>
       </c>
       <c r="L102" t="s">
-        <v>691</v>
+        <v>791</v>
       </c>
       <c r="M102" t="n">
         <v>3</v>
       </c>
       <c r="N102" t="s">
-        <v>692</v>
+        <v>792</v>
       </c>
       <c r="O102" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P102" t="n">
         <v>3</v>
@@ -9187,56 +9912,60 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>693</v>
+        <v>793</v>
       </c>
       <c r="X102" t="s">
-        <v>694</v>
+        <v>794</v>
       </c>
       <c r="Y102" t="s">
-        <v>695</v>
+        <v>795</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>33675</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>177447</v>
+      </c>
+      <c r="C103" t="s">
+        <v>796</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>696</v>
+        <v>797</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>697</v>
+        <v>798</v>
       </c>
       <c r="J103" t="s">
-        <v>698</v>
+        <v>799</v>
       </c>
       <c r="K103" t="s">
-        <v>699</v>
+        <v>800</v>
       </c>
       <c r="L103" t="s">
-        <v>700</v>
+        <v>801</v>
       </c>
       <c r="M103" t="n">
         <v>2</v>
       </c>
       <c r="N103" t="s">
-        <v>683</v>
+        <v>782</v>
       </c>
       <c r="O103" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P103" t="n">
         <v>3</v>
@@ -9258,56 +9987,60 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>701</v>
+        <v>802</v>
       </c>
       <c r="X103" t="s">
-        <v>702</v>
+        <v>803</v>
       </c>
       <c r="Y103" t="s">
-        <v>703</v>
+        <v>804</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>33675</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>177448</v>
+      </c>
+      <c r="C104" t="s">
+        <v>805</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>704</v>
+        <v>806</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>705</v>
+        <v>807</v>
       </c>
       <c r="J104" t="s">
-        <v>706</v>
+        <v>808</v>
       </c>
       <c r="K104" t="s">
-        <v>707</v>
+        <v>809</v>
       </c>
       <c r="L104" t="s">
-        <v>708</v>
+        <v>810</v>
       </c>
       <c r="M104" t="n">
         <v>4</v>
       </c>
       <c r="N104" t="s">
-        <v>709</v>
+        <v>811</v>
       </c>
       <c r="O104" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9329,56 +10062,60 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>710</v>
+        <v>812</v>
       </c>
       <c r="X104" t="s">
-        <v>711</v>
+        <v>813</v>
       </c>
       <c r="Y104" t="s">
-        <v>712</v>
+        <v>814</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>33675</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>177449</v>
+      </c>
+      <c r="C105" t="s">
+        <v>815</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>713</v>
+        <v>816</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>714</v>
+        <v>817</v>
       </c>
       <c r="J105" t="s">
-        <v>715</v>
+        <v>818</v>
       </c>
       <c r="K105" t="s">
-        <v>716</v>
+        <v>819</v>
       </c>
       <c r="L105" t="s">
-        <v>717</v>
+        <v>820</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
       </c>
       <c r="N105" t="s">
-        <v>718</v>
+        <v>821</v>
       </c>
       <c r="O105" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -9400,56 +10137,60 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>719</v>
+        <v>822</v>
       </c>
       <c r="X105" t="s">
-        <v>711</v>
+        <v>813</v>
       </c>
       <c r="Y105" t="s">
-        <v>720</v>
+        <v>823</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>33675</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>177450</v>
+      </c>
+      <c r="C106" t="s">
+        <v>824</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>721</v>
+        <v>825</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>722</v>
+        <v>826</v>
       </c>
       <c r="J106" t="s">
-        <v>723</v>
+        <v>827</v>
       </c>
       <c r="K106" t="s">
-        <v>724</v>
+        <v>828</v>
       </c>
       <c r="L106" t="s">
-        <v>725</v>
+        <v>829</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>726</v>
+        <v>830</v>
       </c>
       <c r="O106" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -9471,56 +10212,60 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>710</v>
+        <v>812</v>
       </c>
       <c r="X106" t="s">
-        <v>711</v>
+        <v>813</v>
       </c>
       <c r="Y106" t="s">
-        <v>727</v>
+        <v>831</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>33675</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>177451</v>
+      </c>
+      <c r="C107" t="s">
+        <v>832</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>728</v>
+        <v>833</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>729</v>
+        <v>834</v>
       </c>
       <c r="J107" t="s">
-        <v>730</v>
+        <v>835</v>
       </c>
       <c r="K107" t="s">
-        <v>731</v>
+        <v>836</v>
       </c>
       <c r="L107" t="s">
-        <v>732</v>
+        <v>837</v>
       </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
       <c r="N107" t="s">
-        <v>733</v>
+        <v>838</v>
       </c>
       <c r="O107" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P107" t="n">
         <v>1</v>
@@ -9542,56 +10287,60 @@
         <v>0</v>
       </c>
       <c r="W107" t="s">
-        <v>734</v>
+        <v>839</v>
       </c>
       <c r="X107" t="s">
-        <v>735</v>
+        <v>840</v>
       </c>
       <c r="Y107" t="s">
-        <v>736</v>
+        <v>841</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>33675</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>177452</v>
+      </c>
+      <c r="C108" t="s">
+        <v>842</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>737</v>
+        <v>843</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>738</v>
+        <v>844</v>
       </c>
       <c r="J108" t="s">
-        <v>739</v>
+        <v>845</v>
       </c>
       <c r="K108" t="s">
-        <v>740</v>
+        <v>846</v>
       </c>
       <c r="L108" t="s">
-        <v>741</v>
+        <v>847</v>
       </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
       <c r="N108" t="s">
-        <v>733</v>
+        <v>838</v>
       </c>
       <c r="O108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P108" t="n">
         <v>1</v>
@@ -9613,47 +10362,51 @@
         <v>0</v>
       </c>
       <c r="W108" t="s">
-        <v>742</v>
+        <v>848</v>
       </c>
       <c r="X108" t="s">
-        <v>743</v>
+        <v>849</v>
       </c>
       <c r="Y108" t="s">
-        <v>744</v>
+        <v>850</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>33675</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>81839</v>
+      </c>
+      <c r="C109" t="s">
+        <v>851</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>745</v>
+        <v>852</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>746</v>
+        <v>853</v>
       </c>
       <c r="J109" t="s">
-        <v>747</v>
+        <v>854</v>
       </c>
       <c r="K109" t="s">
-        <v>748</v>
+        <v>855</v>
       </c>
       <c r="L109" t="s">
-        <v>749</v>
+        <v>856</v>
       </c>
       <c r="M109" t="n">
         <v>3</v>
@@ -9680,13 +10433,13 @@
         <v>0</v>
       </c>
       <c r="W109" t="s">
-        <v>742</v>
+        <v>848</v>
       </c>
       <c r="X109" t="s">
-        <v>743</v>
+        <v>849</v>
       </c>
       <c r="Y109" t="s">
-        <v>750</v>
+        <v>857</v>
       </c>
     </row>
   </sheetData>
